--- a/datasets/well1.xlsx
+++ b/datasets/well1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my documents\dars\siri\Production\05. Esfand Field (SIE)\WPE1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliyu\Documents\Machine Learning\Work\back-allocation-using-machine-learning\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B8F35CE-9138-4602-99D9-694897C0C380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB2CB6A-2577-4EBF-A98B-108205A27D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="17535" windowHeight="9090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full History" sheetId="4" r:id="rId1"/>
@@ -3289,7 +3289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -3513,11 +3513,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3766,50 +3777,39 @@
     <xf numFmtId="1" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="20" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3841,38 +3841,50 @@
     <xf numFmtId="0" fontId="11" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="20" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3880,7 +3892,12 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="8" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -44473,9 +44490,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -44513,9 +44530,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -44548,9 +44565,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -44583,9 +44617,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -44762,8 +44813,8 @@
   <dimension ref="A1:AC210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:M1"/>
+      <pane ySplit="3" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -44789,38 +44840,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39.75" customHeight="1">
-      <c r="A1" s="110"/>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="112"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="113" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="114"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" s="18" customFormat="1" ht="36" customHeight="1">
       <c r="A3" s="24" t="s">
@@ -44867,8 +44918,8 @@
       <c r="A4" s="36">
         <v>36178</v>
       </c>
-      <c r="B4" s="36">
-        <v>36178</v>
+      <c r="B4" s="123">
+        <v>36179</v>
       </c>
       <c r="C4" s="37">
         <v>44</v>
@@ -44906,8 +44957,8 @@
       <c r="A5" s="46">
         <v>36196</v>
       </c>
-      <c r="B5" s="46">
-        <v>36196</v>
+      <c r="B5" s="124">
+        <v>36180</v>
       </c>
       <c r="C5" s="47">
         <v>50</v>
@@ -44946,8 +44997,8 @@
       <c r="A6" s="46">
         <v>36197</v>
       </c>
-      <c r="B6" s="46">
-        <v>36197</v>
+      <c r="B6" s="124">
+        <v>36181</v>
       </c>
       <c r="C6" s="47">
         <v>55</v>
@@ -44986,8 +45037,8 @@
       <c r="A7" s="46">
         <v>36199</v>
       </c>
-      <c r="B7" s="46">
-        <v>36199</v>
+      <c r="B7" s="124">
+        <v>36182</v>
       </c>
       <c r="C7" s="47">
         <v>55</v>
@@ -45026,8 +45077,8 @@
       <c r="A8" s="46">
         <v>36200</v>
       </c>
-      <c r="B8" s="46">
-        <v>36200</v>
+      <c r="B8" s="124">
+        <v>36185</v>
       </c>
       <c r="C8" s="47">
         <v>55</v>
@@ -45066,8 +45117,8 @@
       <c r="A9" s="46">
         <v>36202</v>
       </c>
-      <c r="B9" s="46">
-        <v>36202</v>
+      <c r="B9" s="124">
+        <v>36186</v>
       </c>
       <c r="C9" s="47">
         <v>55</v>
@@ -45106,8 +45157,8 @@
       <c r="A10" s="46">
         <v>36207</v>
       </c>
-      <c r="B10" s="46">
-        <v>36207</v>
+      <c r="B10" s="124">
+        <v>36187</v>
       </c>
       <c r="C10" s="47">
         <v>55</v>
@@ -45146,8 +45197,8 @@
       <c r="A11" s="46">
         <v>36208</v>
       </c>
-      <c r="B11" s="46">
-        <v>36208</v>
+      <c r="B11" s="124">
+        <v>36188</v>
       </c>
       <c r="C11" s="47">
         <v>55</v>
@@ -45186,8 +45237,8 @@
       <c r="A12" s="46">
         <v>36209</v>
       </c>
-      <c r="B12" s="46">
-        <v>36209</v>
+      <c r="B12" s="124">
+        <v>36191</v>
       </c>
       <c r="C12" s="47">
         <v>50</v>
@@ -45226,8 +45277,8 @@
       <c r="A13" s="46">
         <v>36214</v>
       </c>
-      <c r="B13" s="46">
-        <v>36214</v>
+      <c r="B13" s="124">
+        <v>36193</v>
       </c>
       <c r="C13" s="47">
         <v>45</v>
@@ -45266,8 +45317,8 @@
       <c r="A14" s="46">
         <v>36216</v>
       </c>
-      <c r="B14" s="46">
-        <v>36216</v>
+      <c r="B14" s="124">
+        <v>36194</v>
       </c>
       <c r="C14" s="47">
         <v>45</v>
@@ -45306,8 +45357,8 @@
       <c r="A15" s="46">
         <v>36217</v>
       </c>
-      <c r="B15" s="46">
-        <v>36217</v>
+      <c r="B15" s="124">
+        <v>36197</v>
       </c>
       <c r="C15" s="47">
         <v>45</v>
@@ -45346,8 +45397,8 @@
       <c r="A16" s="46">
         <v>36227</v>
       </c>
-      <c r="B16" s="46">
-        <v>36227</v>
+      <c r="B16" s="124">
+        <v>36199</v>
       </c>
       <c r="C16" s="47">
         <v>30</v>
@@ -45388,8 +45439,8 @@
       <c r="A17" s="46">
         <v>36242</v>
       </c>
-      <c r="B17" s="46">
-        <v>36242</v>
+      <c r="B17" s="124">
+        <v>36201</v>
       </c>
       <c r="C17" s="47">
         <v>55</v>
@@ -45428,8 +45479,8 @@
       <c r="A18" s="46">
         <v>36243</v>
       </c>
-      <c r="B18" s="46">
-        <v>36243</v>
+      <c r="B18" s="124">
+        <v>36207</v>
       </c>
       <c r="C18" s="47">
         <v>55</v>
@@ -45470,8 +45521,8 @@
       <c r="A19" s="46">
         <v>36245</v>
       </c>
-      <c r="B19" s="46">
-        <v>36245</v>
+      <c r="B19" s="124">
+        <v>36208</v>
       </c>
       <c r="C19" s="47">
         <v>45</v>
@@ -45512,8 +45563,8 @@
       <c r="A20" s="46">
         <v>36248</v>
       </c>
-      <c r="B20" s="46">
-        <v>36248</v>
+      <c r="B20" s="124">
+        <v>36209</v>
       </c>
       <c r="C20" s="47">
         <v>40</v>
@@ -45554,8 +45605,8 @@
       <c r="A21" s="46">
         <v>36251</v>
       </c>
-      <c r="B21" s="46">
-        <v>36251</v>
+      <c r="B21" s="124">
+        <v>36211</v>
       </c>
       <c r="C21" s="47">
         <v>36</v>
@@ -45596,8 +45647,8 @@
       <c r="A22" s="46">
         <v>36256</v>
       </c>
-      <c r="B22" s="46">
-        <v>36256</v>
+      <c r="B22" s="124">
+        <v>36213</v>
       </c>
       <c r="C22" s="47">
         <v>36</v>
@@ -45638,8 +45689,8 @@
       <c r="A23" s="46">
         <v>36261</v>
       </c>
-      <c r="B23" s="46">
-        <v>36261</v>
+      <c r="B23" s="124">
+        <v>36217</v>
       </c>
       <c r="C23" s="47">
         <v>36</v>
@@ -45680,8 +45731,8 @@
       <c r="A24" s="46">
         <v>36267</v>
       </c>
-      <c r="B24" s="46">
-        <v>36267</v>
+      <c r="B24" s="124">
+        <v>36218</v>
       </c>
       <c r="C24" s="47">
         <v>36</v>
@@ -45722,8 +45773,8 @@
       <c r="A25" s="46">
         <v>36272</v>
       </c>
-      <c r="B25" s="46">
-        <v>36272</v>
+      <c r="B25" s="124">
+        <v>36222</v>
       </c>
       <c r="C25" s="47">
         <v>36</v>
@@ -45764,8 +45815,8 @@
       <c r="A26" s="46">
         <v>36275</v>
       </c>
-      <c r="B26" s="46">
-        <v>36275</v>
+      <c r="B26" s="124">
+        <v>36226</v>
       </c>
       <c r="C26" s="47">
         <v>36</v>
@@ -45806,8 +45857,8 @@
       <c r="A27" s="46">
         <v>36281</v>
       </c>
-      <c r="B27" s="46">
-        <v>36281</v>
+      <c r="B27" s="124">
+        <v>36227</v>
       </c>
       <c r="C27" s="47">
         <v>36</v>
@@ -45848,8 +45899,8 @@
       <c r="A28" s="46">
         <v>36284</v>
       </c>
-      <c r="B28" s="46">
-        <v>36284</v>
+      <c r="B28" s="124">
+        <v>36228</v>
       </c>
       <c r="C28" s="47">
         <v>36</v>
@@ -45890,8 +45941,8 @@
       <c r="A29" s="46">
         <v>36288</v>
       </c>
-      <c r="B29" s="46">
-        <v>36288</v>
+      <c r="B29" s="124">
+        <v>36233</v>
       </c>
       <c r="C29" s="47">
         <v>36</v>
@@ -45932,8 +45983,8 @@
       <c r="A30" s="46">
         <v>36291</v>
       </c>
-      <c r="B30" s="46">
-        <v>36291</v>
+      <c r="B30" s="124">
+        <v>36234</v>
       </c>
       <c r="C30" s="47">
         <v>36</v>
@@ -45972,8 +46023,8 @@
       <c r="A31" s="46">
         <v>36294</v>
       </c>
-      <c r="B31" s="46">
-        <v>36294</v>
+      <c r="B31" s="124">
+        <v>36235</v>
       </c>
       <c r="C31" s="47">
         <v>36</v>
@@ -46014,8 +46065,8 @@
       <c r="A32" s="46">
         <v>36298</v>
       </c>
-      <c r="B32" s="46">
-        <v>36298</v>
+      <c r="B32" s="124">
+        <v>36236</v>
       </c>
       <c r="C32" s="47">
         <v>48</v>
@@ -46056,8 +46107,8 @@
       <c r="A33" s="46">
         <v>36299</v>
       </c>
-      <c r="B33" s="46">
-        <v>36299</v>
+      <c r="B33" s="124">
+        <v>36244</v>
       </c>
       <c r="C33" s="47">
         <v>48</v>
@@ -46096,8 +46147,8 @@
       <c r="A34" s="46">
         <v>36300</v>
       </c>
-      <c r="B34" s="46">
-        <v>36300</v>
+      <c r="B34" s="124">
+        <v>36249</v>
       </c>
       <c r="C34" s="47">
         <v>48</v>
@@ -46138,8 +46189,8 @@
       <c r="A35" s="46">
         <v>36304</v>
       </c>
-      <c r="B35" s="46">
-        <v>36304</v>
+      <c r="B35" s="124">
+        <v>36251</v>
       </c>
       <c r="C35" s="47">
         <v>48</v>
@@ -46180,8 +46231,8 @@
       <c r="A36" s="46">
         <v>36307</v>
       </c>
-      <c r="B36" s="46">
-        <v>36307</v>
+      <c r="B36" s="124">
+        <v>36257</v>
       </c>
       <c r="C36" s="47">
         <v>48</v>
@@ -46222,8 +46273,8 @@
       <c r="A37" s="46">
         <v>36311</v>
       </c>
-      <c r="B37" s="46">
-        <v>36311</v>
+      <c r="B37" s="124">
+        <v>36262</v>
       </c>
       <c r="C37" s="47">
         <v>48</v>
@@ -46264,8 +46315,8 @@
       <c r="A38" s="46">
         <v>36316</v>
       </c>
-      <c r="B38" s="46">
-        <v>36316</v>
+      <c r="B38" s="124">
+        <v>36265</v>
       </c>
       <c r="C38" s="47">
         <v>48</v>
@@ -46306,8 +46357,8 @@
       <c r="A39" s="46">
         <v>36321</v>
       </c>
-      <c r="B39" s="46">
-        <v>36321</v>
+      <c r="B39" s="124">
+        <v>36268</v>
       </c>
       <c r="C39" s="47">
         <v>48</v>
@@ -46348,8 +46399,8 @@
       <c r="A40" s="46">
         <v>36325</v>
       </c>
-      <c r="B40" s="46">
-        <v>36325</v>
+      <c r="B40" s="124">
+        <v>36269</v>
       </c>
       <c r="C40" s="47">
         <v>48</v>
@@ -46390,8 +46441,8 @@
       <c r="A41" s="46">
         <v>36330</v>
       </c>
-      <c r="B41" s="46">
-        <v>36330</v>
+      <c r="B41" s="124">
+        <v>36272</v>
       </c>
       <c r="C41" s="47">
         <v>44</v>
@@ -46432,8 +46483,8 @@
       <c r="A42" s="46">
         <v>36331</v>
       </c>
-      <c r="B42" s="46">
-        <v>36331</v>
+      <c r="B42" s="124">
+        <v>36276</v>
       </c>
       <c r="C42" s="47">
         <v>44</v>
@@ -46472,8 +46523,8 @@
       <c r="A43" s="46">
         <v>36335</v>
       </c>
-      <c r="B43" s="46">
-        <v>36335</v>
+      <c r="B43" s="124">
+        <v>36280</v>
       </c>
       <c r="C43" s="47">
         <v>44</v>
@@ -46514,8 +46565,8 @@
       <c r="A44" s="46">
         <v>36338</v>
       </c>
-      <c r="B44" s="46">
-        <v>36338</v>
+      <c r="B44" s="124">
+        <v>36285</v>
       </c>
       <c r="C44" s="47">
         <v>44</v>
@@ -46556,8 +46607,8 @@
       <c r="A45" s="46">
         <v>36342</v>
       </c>
-      <c r="B45" s="46">
-        <v>36342</v>
+      <c r="B45" s="124">
+        <v>36288</v>
       </c>
       <c r="C45" s="47">
         <v>44</v>
@@ -46598,8 +46649,8 @@
       <c r="A46" s="46">
         <v>36346</v>
       </c>
-      <c r="B46" s="46">
-        <v>36346</v>
+      <c r="B46" s="124">
+        <v>36291</v>
       </c>
       <c r="C46" s="47">
         <v>44</v>
@@ -46640,8 +46691,8 @@
       <c r="A47" s="46">
         <v>36354</v>
       </c>
-      <c r="B47" s="46">
-        <v>36354</v>
+      <c r="B47" s="124">
+        <v>36295</v>
       </c>
       <c r="C47" s="47">
         <v>44</v>
@@ -46682,8 +46733,8 @@
       <c r="A48" s="46">
         <v>36361</v>
       </c>
-      <c r="B48" s="46">
-        <v>36361</v>
+      <c r="B48" s="124">
+        <v>36298</v>
       </c>
       <c r="C48" s="47">
         <v>44</v>
@@ -46724,8 +46775,8 @@
       <c r="A49" s="46">
         <v>36365</v>
       </c>
-      <c r="B49" s="46">
-        <v>36365</v>
+      <c r="B49" s="124">
+        <v>36303</v>
       </c>
       <c r="C49" s="47">
         <v>44</v>
@@ -46766,8 +46817,8 @@
       <c r="A50" s="46">
         <v>36369</v>
       </c>
-      <c r="B50" s="46">
-        <v>36369</v>
+      <c r="B50" s="124">
+        <v>36306</v>
       </c>
       <c r="C50" s="47">
         <v>44</v>
@@ -46806,8 +46857,8 @@
       <c r="A51" s="46">
         <v>36375</v>
       </c>
-      <c r="B51" s="46">
-        <v>36375</v>
+      <c r="B51" s="124">
+        <v>36310</v>
       </c>
       <c r="C51" s="56">
         <v>44</v>
@@ -46848,8 +46899,8 @@
       <c r="A52" s="46">
         <v>36377</v>
       </c>
-      <c r="B52" s="46">
-        <v>36377</v>
+      <c r="B52" s="124">
+        <v>36315</v>
       </c>
       <c r="C52" s="56">
         <v>44</v>
@@ -46890,8 +46941,8 @@
       <c r="A53" s="46">
         <v>36382</v>
       </c>
-      <c r="B53" s="46">
-        <v>36382</v>
+      <c r="B53" s="124">
+        <v>36320</v>
       </c>
       <c r="C53" s="56">
         <v>44</v>
@@ -46932,8 +46983,8 @@
       <c r="A54" s="46">
         <v>36386</v>
       </c>
-      <c r="B54" s="46">
-        <v>36386</v>
+      <c r="B54" s="124">
+        <v>36324</v>
       </c>
       <c r="C54" s="56">
         <v>44</v>
@@ -46974,8 +47025,8 @@
       <c r="A55" s="46">
         <v>36403</v>
       </c>
-      <c r="B55" s="46">
-        <v>36403</v>
+      <c r="B55" s="124">
+        <v>36327</v>
       </c>
       <c r="C55" s="56">
         <v>44</v>
@@ -47016,8 +47067,8 @@
       <c r="A56" s="46">
         <v>36412</v>
       </c>
-      <c r="B56" s="46">
-        <v>36412</v>
+      <c r="B56" s="124">
+        <v>36331</v>
       </c>
       <c r="C56" s="56">
         <v>44</v>
@@ -47058,8 +47109,8 @@
       <c r="A57" s="46">
         <v>36416</v>
       </c>
-      <c r="B57" s="46">
-        <v>36416</v>
+      <c r="B57" s="124">
+        <v>36335</v>
       </c>
       <c r="C57" s="56">
         <v>44</v>
@@ -47100,8 +47151,8 @@
       <c r="A58" s="46">
         <v>36419</v>
       </c>
-      <c r="B58" s="46">
-        <v>36419</v>
+      <c r="B58" s="124">
+        <v>36339</v>
       </c>
       <c r="C58" s="56">
         <v>44</v>
@@ -47142,8 +47193,8 @@
       <c r="A59" s="46">
         <v>36430</v>
       </c>
-      <c r="B59" s="46">
-        <v>36430</v>
+      <c r="B59" s="124">
+        <v>36343</v>
       </c>
       <c r="C59" s="56">
         <v>38</v>
@@ -47184,8 +47235,8 @@
       <c r="A60" s="46">
         <v>36449</v>
       </c>
-      <c r="B60" s="46">
-        <v>36449</v>
+      <c r="B60" s="124">
+        <v>36347</v>
       </c>
       <c r="C60" s="56">
         <v>38</v>
@@ -47226,8 +47277,8 @@
       <c r="A61" s="46">
         <v>36454</v>
       </c>
-      <c r="B61" s="46">
-        <v>36454</v>
+      <c r="B61" s="124">
+        <v>36350</v>
       </c>
       <c r="C61" s="56">
         <v>32</v>
@@ -47268,8 +47319,8 @@
       <c r="A62" s="46">
         <v>36468</v>
       </c>
-      <c r="B62" s="46">
-        <v>36468</v>
+      <c r="B62" s="124">
+        <v>36352</v>
       </c>
       <c r="C62" s="56">
         <v>32</v>
@@ -47310,8 +47361,8 @@
       <c r="A63" s="46">
         <v>36493</v>
       </c>
-      <c r="B63" s="46">
-        <v>36493</v>
+      <c r="B63" s="124">
+        <v>36360</v>
       </c>
       <c r="C63" s="56">
         <v>32</v>
@@ -47352,8 +47403,8 @@
       <c r="A64" s="46">
         <v>36503</v>
       </c>
-      <c r="B64" s="46">
-        <v>36503</v>
+      <c r="B64" s="124">
+        <v>36364</v>
       </c>
       <c r="C64" s="56">
         <v>32</v>
@@ -47394,8 +47445,8 @@
       <c r="A65" s="46">
         <v>36512</v>
       </c>
-      <c r="B65" s="46">
-        <v>36512</v>
+      <c r="B65" s="124">
+        <v>36368</v>
       </c>
       <c r="C65" s="56">
         <v>32</v>
@@ -47436,8 +47487,8 @@
       <c r="A66" s="46">
         <v>36516</v>
       </c>
-      <c r="B66" s="46">
-        <v>36516</v>
+      <c r="B66" s="124">
+        <v>36370</v>
       </c>
       <c r="C66" s="56">
         <v>32</v>
@@ -47478,8 +47529,8 @@
       <c r="A67" s="46">
         <v>36527</v>
       </c>
-      <c r="B67" s="46">
-        <v>36527</v>
+      <c r="B67" s="124">
+        <v>36381</v>
       </c>
       <c r="C67" s="56">
         <v>32</v>
@@ -47520,8 +47571,8 @@
       <c r="A68" s="46">
         <v>36586</v>
       </c>
-      <c r="B68" s="46">
-        <v>36586</v>
+      <c r="B68" s="124">
+        <v>36385</v>
       </c>
       <c r="C68" s="56">
         <v>32</v>
@@ -47562,8 +47613,8 @@
       <c r="A69" s="46">
         <v>36596</v>
       </c>
-      <c r="B69" s="46">
-        <v>36596</v>
+      <c r="B69" s="124">
+        <v>36390</v>
       </c>
       <c r="C69" s="56">
         <v>32</v>
@@ -47604,8 +47655,8 @@
       <c r="A70" s="46">
         <v>36614</v>
       </c>
-      <c r="B70" s="46">
-        <v>36614</v>
+      <c r="B70" s="124">
+        <v>36394</v>
       </c>
       <c r="C70" s="56">
         <v>32</v>
@@ -47646,8 +47697,8 @@
       <c r="A71" s="46">
         <v>36623</v>
       </c>
-      <c r="B71" s="46">
-        <v>36623</v>
+      <c r="B71" s="124">
+        <v>36407</v>
       </c>
       <c r="C71" s="56">
         <v>32</v>
@@ -47688,8 +47739,8 @@
       <c r="A72" s="46">
         <v>36664</v>
       </c>
-      <c r="B72" s="46">
-        <v>36664</v>
+      <c r="B72" s="124">
+        <v>36413</v>
       </c>
       <c r="C72" s="56">
         <v>32</v>
@@ -47730,8 +47781,8 @@
       <c r="A73" s="46">
         <v>36676</v>
       </c>
-      <c r="B73" s="46">
-        <v>36676</v>
+      <c r="B73" s="124">
+        <v>36420</v>
       </c>
       <c r="C73" s="56">
         <v>36</v>
@@ -47772,8 +47823,8 @@
       <c r="A74" s="46">
         <v>36685</v>
       </c>
-      <c r="B74" s="46">
-        <v>36685</v>
+      <c r="B74" s="124">
+        <v>36428</v>
       </c>
       <c r="C74" s="56">
         <v>36</v>
@@ -47814,8 +47865,8 @@
       <c r="A75" s="46">
         <v>36703</v>
       </c>
-      <c r="B75" s="46">
-        <v>36703</v>
+      <c r="B75" s="124">
+        <v>36433</v>
       </c>
       <c r="C75" s="56">
         <v>25</v>
@@ -47854,8 +47905,8 @@
       <c r="A76" s="46">
         <v>36712</v>
       </c>
-      <c r="B76" s="46">
-        <v>36712</v>
+      <c r="B76" s="124">
+        <v>36439</v>
       </c>
       <c r="C76" s="56">
         <v>25</v>
@@ -47896,8 +47947,8 @@
       <c r="A77" s="46">
         <v>36733</v>
       </c>
-      <c r="B77" s="46">
-        <v>36733</v>
+      <c r="B77" s="124">
+        <v>36444</v>
       </c>
       <c r="C77" s="56">
         <v>25</v>
@@ -47938,8 +47989,8 @@
       <c r="A78" s="46">
         <v>36757</v>
       </c>
-      <c r="B78" s="46">
-        <v>36757</v>
+      <c r="B78" s="124">
+        <v>36456</v>
       </c>
       <c r="C78" s="56">
         <v>25</v>
@@ -47980,8 +48031,8 @@
       <c r="A79" s="46">
         <v>36766</v>
       </c>
-      <c r="B79" s="46">
-        <v>36766</v>
+      <c r="B79" s="124">
+        <v>36460</v>
       </c>
       <c r="C79" s="56">
         <v>25</v>
@@ -48020,8 +48071,8 @@
       <c r="A80" s="46">
         <v>36778</v>
       </c>
-      <c r="B80" s="46">
-        <v>36778</v>
+      <c r="B80" s="124">
+        <v>36474</v>
       </c>
       <c r="C80" s="56">
         <v>25</v>
@@ -48062,8 +48113,8 @@
       <c r="A81" s="46">
         <v>36781</v>
       </c>
-      <c r="B81" s="46">
-        <v>36781</v>
+      <c r="B81" s="124">
+        <v>36505</v>
       </c>
       <c r="C81" s="56">
         <v>25</v>
@@ -48104,8 +48155,8 @@
       <c r="A82" s="46">
         <v>36784</v>
       </c>
-      <c r="B82" s="46">
-        <v>36784</v>
+      <c r="B82" s="124">
+        <v>36513</v>
       </c>
       <c r="C82" s="56">
         <v>25</v>
@@ -48146,8 +48197,8 @@
       <c r="A83" s="46">
         <v>36798</v>
       </c>
-      <c r="B83" s="46">
-        <v>36798</v>
+      <c r="B83" s="124">
+        <v>36519</v>
       </c>
       <c r="C83" s="56">
         <v>25</v>
@@ -48183,8 +48234,8 @@
       <c r="A84" s="46">
         <v>36812</v>
       </c>
-      <c r="B84" s="46">
-        <v>36812</v>
+      <c r="B84" s="124">
+        <v>36531</v>
       </c>
       <c r="C84" s="56">
         <v>14</v>
@@ -48225,8 +48276,8 @@
       <c r="A85" s="46">
         <v>36827</v>
       </c>
-      <c r="B85" s="46">
-        <v>36827</v>
+      <c r="B85" s="124">
+        <v>36536</v>
       </c>
       <c r="C85" s="56">
         <v>14</v>
@@ -48267,8 +48318,8 @@
       <c r="A86" s="46">
         <v>36835</v>
       </c>
-      <c r="B86" s="46">
-        <v>36835</v>
+      <c r="B86" s="124">
+        <v>36548</v>
       </c>
       <c r="C86" s="56">
         <v>20</v>
@@ -48309,8 +48360,8 @@
       <c r="A87" s="46">
         <v>36860</v>
       </c>
-      <c r="B87" s="46">
-        <v>36860</v>
+      <c r="B87" s="124">
+        <v>36556</v>
       </c>
       <c r="C87" s="56">
         <v>14</v>
@@ -48349,8 +48400,8 @@
       <c r="A88" s="46">
         <v>36896</v>
       </c>
-      <c r="B88" s="46">
-        <v>36896</v>
+      <c r="B88" s="124">
+        <v>36566</v>
       </c>
       <c r="C88" s="56">
         <v>14</v>
@@ -48391,8 +48442,8 @@
       <c r="A89" s="46">
         <v>36911</v>
       </c>
-      <c r="B89" s="46">
-        <v>36911</v>
+      <c r="B89" s="124">
+        <v>36576</v>
       </c>
       <c r="C89" s="56">
         <v>18</v>
@@ -48433,8 +48484,8 @@
       <c r="A90" s="46">
         <v>36931</v>
       </c>
-      <c r="B90" s="46">
-        <v>36931</v>
+      <c r="B90" s="124">
+        <v>36582</v>
       </c>
       <c r="C90" s="56">
         <v>30</v>
@@ -48475,8 +48526,8 @@
       <c r="A91" s="46">
         <v>36935</v>
       </c>
-      <c r="B91" s="46">
-        <v>36935</v>
+      <c r="B91" s="124">
+        <v>36590</v>
       </c>
       <c r="C91" s="56">
         <v>30</v>
@@ -48517,8 +48568,8 @@
       <c r="A92" s="46">
         <v>36946</v>
       </c>
-      <c r="B92" s="46">
-        <v>36946</v>
+      <c r="B92" s="124">
+        <v>36602</v>
       </c>
       <c r="C92" s="56">
         <v>30</v>
@@ -48559,8 +48610,8 @@
       <c r="A93" s="46">
         <v>36953</v>
       </c>
-      <c r="B93" s="46">
-        <v>36953</v>
+      <c r="B93" s="124">
+        <v>36622</v>
       </c>
       <c r="C93" s="56">
         <v>30</v>
@@ -48601,8 +48652,8 @@
       <c r="A94" s="46">
         <v>36998</v>
       </c>
-      <c r="B94" s="46">
-        <v>36998</v>
+      <c r="B94" s="124">
+        <v>36629</v>
       </c>
       <c r="C94" s="56">
         <v>30</v>
@@ -48643,8 +48694,8 @@
       <c r="A95" s="46">
         <v>37018</v>
       </c>
-      <c r="B95" s="46">
-        <v>37018</v>
+      <c r="B95" s="124">
+        <v>36632</v>
       </c>
       <c r="C95" s="56">
         <v>30</v>
@@ -48685,8 +48736,8 @@
       <c r="A96" s="46">
         <v>37044</v>
       </c>
-      <c r="B96" s="46">
-        <v>37044</v>
+      <c r="B96" s="124">
+        <v>36645</v>
       </c>
       <c r="C96" s="56">
         <v>30</v>
@@ -48727,8 +48778,8 @@
       <c r="A97" s="46">
         <v>37074</v>
       </c>
-      <c r="B97" s="46">
-        <v>37074</v>
+      <c r="B97" s="124">
+        <v>36651</v>
       </c>
       <c r="C97" s="56">
         <v>30</v>
@@ -48770,8 +48821,8 @@
       <c r="A98" s="46">
         <v>37103</v>
       </c>
-      <c r="B98" s="46">
-        <v>37103</v>
+      <c r="B98" s="124">
+        <v>36659</v>
       </c>
       <c r="C98" s="56">
         <v>30</v>
@@ -48813,8 +48864,8 @@
       <c r="A99" s="46">
         <v>37166</v>
       </c>
-      <c r="B99" s="46">
-        <v>37166</v>
+      <c r="B99" s="124">
+        <v>36668</v>
       </c>
       <c r="C99" s="56"/>
       <c r="D99" s="71">
@@ -48854,8 +48905,8 @@
       <c r="A100" s="46">
         <v>37190</v>
       </c>
-      <c r="B100" s="46">
-        <v>37190</v>
+      <c r="B100" s="124">
+        <v>36670</v>
       </c>
       <c r="C100" s="56"/>
       <c r="D100" s="71">
@@ -48895,8 +48946,8 @@
       <c r="A101" s="46">
         <v>37217</v>
       </c>
-      <c r="B101" s="46">
-        <v>37217</v>
+      <c r="B101" s="124">
+        <v>36679</v>
       </c>
       <c r="C101" s="56"/>
       <c r="D101" s="71">
@@ -48936,8 +48987,8 @@
       <c r="A102" s="46">
         <v>37237</v>
       </c>
-      <c r="B102" s="46">
-        <v>37237</v>
+      <c r="B102" s="124">
+        <v>36688</v>
       </c>
       <c r="C102" s="56"/>
       <c r="D102" s="71">
@@ -48977,8 +49028,8 @@
       <c r="A103" s="46">
         <v>37267</v>
       </c>
-      <c r="B103" s="46">
-        <v>37267</v>
+      <c r="B103" s="124">
+        <v>36720</v>
       </c>
       <c r="C103" s="56"/>
       <c r="D103" s="71">
@@ -49018,8 +49069,8 @@
       <c r="A104" s="46">
         <v>37299</v>
       </c>
-      <c r="B104" s="46">
-        <v>37299</v>
+      <c r="B104" s="124">
+        <v>36735</v>
       </c>
       <c r="C104" s="56"/>
       <c r="D104" s="71">
@@ -49059,8 +49110,8 @@
       <c r="A105" s="46">
         <v>37325</v>
       </c>
-      <c r="B105" s="46">
-        <v>37325</v>
+      <c r="B105" s="124">
+        <v>36749</v>
       </c>
       <c r="C105" s="56"/>
       <c r="D105" s="71">
@@ -49100,8 +49151,8 @@
       <c r="A106" s="46">
         <v>37356</v>
       </c>
-      <c r="B106" s="46">
-        <v>37356</v>
+      <c r="B106" s="124">
+        <v>36754</v>
       </c>
       <c r="C106" s="56"/>
       <c r="D106" s="71">
@@ -49141,8 +49192,8 @@
       <c r="A107" s="46">
         <v>37377</v>
       </c>
-      <c r="B107" s="46">
-        <v>37377</v>
+      <c r="B107" s="124">
+        <v>36760</v>
       </c>
       <c r="C107" s="56"/>
       <c r="D107" s="71">
@@ -49182,8 +49233,8 @@
       <c r="A108" s="46">
         <v>37410</v>
       </c>
-      <c r="B108" s="46">
-        <v>37410</v>
+      <c r="B108" s="124">
+        <v>36793</v>
       </c>
       <c r="C108" s="56"/>
       <c r="D108" s="71">
@@ -49218,25 +49269,25 @@
         <v>2016.5244069135204</v>
       </c>
       <c r="M108" s="61"/>
-      <c r="U108" s="115" t="s">
+      <c r="U108" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="V108" s="116"/>
-      <c r="W108" s="116" t="s">
+      <c r="V108" s="84"/>
+      <c r="W108" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="X108" s="116"/>
-      <c r="Y108" s="116" t="s">
+      <c r="X108" s="84"/>
+      <c r="Y108" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="Z108" s="116"/>
+      <c r="Z108" s="84"/>
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" thickTop="1">
       <c r="A109" s="46">
         <v>37438</v>
       </c>
-      <c r="B109" s="46">
-        <v>37438</v>
+      <c r="B109" s="124">
+        <v>36799</v>
       </c>
       <c r="C109" s="56"/>
       <c r="D109" s="71">
@@ -49273,25 +49324,25 @@
       <c r="M109" s="61"/>
       <c r="R109"/>
       <c r="S109" s="73"/>
-      <c r="U109" s="117" t="s">
+      <c r="U109" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="V109" s="122"/>
-      <c r="W109" s="117" t="s">
+      <c r="V109" s="86"/>
+      <c r="W109" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="X109" s="122"/>
-      <c r="Y109" s="118" t="s">
+      <c r="X109" s="86"/>
+      <c r="Y109" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="Z109" s="118"/>
+      <c r="Z109" s="87"/>
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1">
       <c r="A110" s="46">
         <v>37468</v>
       </c>
-      <c r="B110" s="46">
-        <v>37468</v>
+      <c r="B110" s="124">
+        <v>36808</v>
       </c>
       <c r="C110" s="56"/>
       <c r="D110" s="71">
@@ -49328,25 +49379,25 @@
       <c r="M110" s="61"/>
       <c r="R110"/>
       <c r="S110" s="74"/>
-      <c r="U110" s="119" t="s">
+      <c r="U110" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="V110" s="119"/>
-      <c r="W110" s="119" t="s">
+      <c r="V110" s="88"/>
+      <c r="W110" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="X110" s="119"/>
-      <c r="Y110" s="119" t="s">
+      <c r="X110" s="88"/>
+      <c r="Y110" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="Z110" s="119"/>
+      <c r="Z110" s="88"/>
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1">
       <c r="A111" s="46">
         <v>37504</v>
       </c>
-      <c r="B111" s="46">
-        <v>37504</v>
+      <c r="B111" s="124">
+        <v>36824</v>
       </c>
       <c r="C111" s="56"/>
       <c r="D111" s="71">
@@ -49383,25 +49434,25 @@
       <c r="M111" s="61"/>
       <c r="R111"/>
       <c r="S111" s="75"/>
-      <c r="U111" s="94" t="s">
+      <c r="U111" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="V111" s="94"/>
-      <c r="W111" s="94" t="s">
+      <c r="V111" s="108"/>
+      <c r="W111" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="X111" s="94"/>
-      <c r="Y111" s="94" t="s">
+      <c r="X111" s="108"/>
+      <c r="Y111" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="Z111" s="94"/>
+      <c r="Z111" s="108"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1">
       <c r="A112" s="46">
         <v>37517</v>
       </c>
-      <c r="B112" s="46">
-        <v>37517</v>
+      <c r="B112" s="124">
+        <v>36843</v>
       </c>
       <c r="C112" s="56"/>
       <c r="D112" s="71">
@@ -49438,25 +49489,25 @@
       <c r="M112" s="61"/>
       <c r="R112"/>
       <c r="S112" s="75"/>
-      <c r="U112" s="96" t="s">
+      <c r="U112" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="V112" s="96"/>
-      <c r="W112" s="96" t="s">
+      <c r="V112" s="110"/>
+      <c r="W112" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="X112" s="96"/>
-      <c r="Y112" s="96" t="s">
+      <c r="X112" s="110"/>
+      <c r="Y112" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="Z112" s="96"/>
+      <c r="Z112" s="110"/>
     </row>
     <row r="113" spans="1:29" ht="16.5" thickBot="1">
       <c r="A113" s="46">
         <v>37531</v>
       </c>
-      <c r="B113" s="46">
-        <v>37531</v>
+      <c r="B113" s="124">
+        <v>36845</v>
       </c>
       <c r="C113" s="56"/>
       <c r="D113" s="70">
@@ -49493,25 +49544,25 @@
       <c r="M113" s="61"/>
       <c r="R113"/>
       <c r="S113" s="75"/>
-      <c r="U113" s="97" t="s">
+      <c r="U113" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="V113" s="98"/>
-      <c r="W113" s="97" t="s">
+      <c r="V113" s="112"/>
+      <c r="W113" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="X113" s="98"/>
-      <c r="Y113" s="98" t="s">
+      <c r="X113" s="112"/>
+      <c r="Y113" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="Z113" s="98"/>
+      <c r="Z113" s="112"/>
     </row>
     <row r="114" spans="1:29" ht="16.5" customHeight="1" thickBot="1">
       <c r="A114" s="46">
         <v>37566</v>
       </c>
-      <c r="B114" s="46">
-        <v>37566</v>
+      <c r="B114" s="124">
+        <v>36857</v>
       </c>
       <c r="C114" s="56"/>
       <c r="D114" s="71">
@@ -49555,8 +49606,8 @@
       <c r="A115" s="46">
         <v>37594</v>
       </c>
-      <c r="B115" s="46">
-        <v>37594</v>
+      <c r="B115" s="124">
+        <v>36887</v>
       </c>
       <c r="C115" s="56"/>
       <c r="D115" s="71">
@@ -49591,29 +49642,29 @@
         <v>2043.9609368042982</v>
       </c>
       <c r="M115" s="61"/>
-      <c r="R115" s="102" t="s">
+      <c r="R115" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="S115" s="102"/>
-      <c r="T115" s="102"/>
-      <c r="U115" s="102"/>
-      <c r="V115" s="102"/>
-      <c r="W115" s="102"/>
-      <c r="X115" s="102"/>
-      <c r="Y115" s="102"/>
-      <c r="Z115" s="102"/>
-      <c r="AA115" s="105" t="s">
+      <c r="S115" s="99"/>
+      <c r="T115" s="99"/>
+      <c r="U115" s="99"/>
+      <c r="V115" s="99"/>
+      <c r="W115" s="99"/>
+      <c r="X115" s="99"/>
+      <c r="Y115" s="99"/>
+      <c r="Z115" s="99"/>
+      <c r="AA115" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="AB115" s="105"/>
-      <c r="AC115" s="105"/>
+      <c r="AB115" s="102"/>
+      <c r="AC115" s="102"/>
     </row>
     <row r="116" spans="1:29" ht="15.75" customHeight="1">
       <c r="A116" s="46">
         <v>37628</v>
       </c>
-      <c r="B116" s="46">
-        <v>37628</v>
+      <c r="B116" s="124">
+        <v>36902</v>
       </c>
       <c r="C116" s="56"/>
       <c r="D116" s="71">
@@ -49648,25 +49699,25 @@
         <v>2062.9866810979825</v>
       </c>
       <c r="M116" s="61"/>
-      <c r="R116" s="103"/>
-      <c r="S116" s="103"/>
-      <c r="T116" s="103"/>
-      <c r="U116" s="103"/>
-      <c r="V116" s="103"/>
-      <c r="W116" s="103"/>
-      <c r="X116" s="103"/>
-      <c r="Y116" s="103"/>
-      <c r="Z116" s="103"/>
-      <c r="AA116" s="106"/>
-      <c r="AB116" s="106"/>
-      <c r="AC116" s="106"/>
+      <c r="R116" s="100"/>
+      <c r="S116" s="100"/>
+      <c r="T116" s="100"/>
+      <c r="U116" s="100"/>
+      <c r="V116" s="100"/>
+      <c r="W116" s="100"/>
+      <c r="X116" s="100"/>
+      <c r="Y116" s="100"/>
+      <c r="Z116" s="100"/>
+      <c r="AA116" s="103"/>
+      <c r="AB116" s="103"/>
+      <c r="AC116" s="103"/>
     </row>
     <row r="117" spans="1:29" ht="15.75" customHeight="1">
       <c r="A117" s="46">
         <v>37657</v>
       </c>
-      <c r="B117" s="46">
-        <v>37657</v>
+      <c r="B117" s="124">
+        <v>36909</v>
       </c>
       <c r="C117" s="56"/>
       <c r="D117" s="71"/>
@@ -49699,25 +49750,25 @@
         <v>1964.8104553941066</v>
       </c>
       <c r="M117" s="61"/>
-      <c r="R117" s="103"/>
-      <c r="S117" s="103"/>
-      <c r="T117" s="103"/>
-      <c r="U117" s="103"/>
-      <c r="V117" s="103"/>
-      <c r="W117" s="103"/>
-      <c r="X117" s="103"/>
-      <c r="Y117" s="103"/>
-      <c r="Z117" s="103"/>
-      <c r="AA117" s="106"/>
-      <c r="AB117" s="106"/>
-      <c r="AC117" s="106"/>
+      <c r="R117" s="100"/>
+      <c r="S117" s="100"/>
+      <c r="T117" s="100"/>
+      <c r="U117" s="100"/>
+      <c r="V117" s="100"/>
+      <c r="W117" s="100"/>
+      <c r="X117" s="100"/>
+      <c r="Y117" s="100"/>
+      <c r="Z117" s="100"/>
+      <c r="AA117" s="103"/>
+      <c r="AB117" s="103"/>
+      <c r="AC117" s="103"/>
     </row>
     <row r="118" spans="1:29" ht="15.75" customHeight="1">
       <c r="A118" s="46">
         <v>37685</v>
       </c>
-      <c r="B118" s="46">
-        <v>37685</v>
+      <c r="B118" s="124">
+        <v>36933</v>
       </c>
       <c r="C118" s="56"/>
       <c r="D118" s="71">
@@ -49752,25 +49803,25 @@
         <v>1723.6846830669779</v>
       </c>
       <c r="M118" s="61"/>
-      <c r="R118" s="103"/>
-      <c r="S118" s="103"/>
-      <c r="T118" s="103"/>
-      <c r="U118" s="103"/>
-      <c r="V118" s="103"/>
-      <c r="W118" s="103"/>
-      <c r="X118" s="103"/>
-      <c r="Y118" s="103"/>
-      <c r="Z118" s="103"/>
-      <c r="AA118" s="106"/>
-      <c r="AB118" s="106"/>
-      <c r="AC118" s="106"/>
+      <c r="R118" s="100"/>
+      <c r="S118" s="100"/>
+      <c r="T118" s="100"/>
+      <c r="U118" s="100"/>
+      <c r="V118" s="100"/>
+      <c r="W118" s="100"/>
+      <c r="X118" s="100"/>
+      <c r="Y118" s="100"/>
+      <c r="Z118" s="100"/>
+      <c r="AA118" s="103"/>
+      <c r="AB118" s="103"/>
+      <c r="AC118" s="103"/>
     </row>
     <row r="119" spans="1:29" ht="15.75" customHeight="1">
       <c r="A119" s="46">
         <v>37714</v>
       </c>
-      <c r="B119" s="46">
-        <v>37714</v>
+      <c r="B119" s="124">
+        <v>36935</v>
       </c>
       <c r="C119" s="56"/>
       <c r="D119" s="71">
@@ -49805,25 +49856,25 @@
         <v>1556.6508313539193</v>
       </c>
       <c r="M119" s="61"/>
-      <c r="R119" s="103"/>
-      <c r="S119" s="103"/>
-      <c r="T119" s="103"/>
-      <c r="U119" s="103"/>
-      <c r="V119" s="103"/>
-      <c r="W119" s="103"/>
-      <c r="X119" s="103"/>
-      <c r="Y119" s="103"/>
-      <c r="Z119" s="103"/>
-      <c r="AA119" s="106"/>
-      <c r="AB119" s="106"/>
-      <c r="AC119" s="106"/>
+      <c r="R119" s="100"/>
+      <c r="S119" s="100"/>
+      <c r="T119" s="100"/>
+      <c r="U119" s="100"/>
+      <c r="V119" s="100"/>
+      <c r="W119" s="100"/>
+      <c r="X119" s="100"/>
+      <c r="Y119" s="100"/>
+      <c r="Z119" s="100"/>
+      <c r="AA119" s="103"/>
+      <c r="AB119" s="103"/>
+      <c r="AC119" s="103"/>
     </row>
     <row r="120" spans="1:29" ht="15.75" customHeight="1">
       <c r="A120" s="46">
         <v>37750</v>
       </c>
-      <c r="B120" s="46">
-        <v>37750</v>
+      <c r="B120" s="124">
+        <v>36948</v>
       </c>
       <c r="C120" s="56"/>
       <c r="D120" s="71">
@@ -49858,25 +49909,25 @@
         <v>1653.9242483404919</v>
       </c>
       <c r="M120" s="61"/>
-      <c r="R120" s="103"/>
-      <c r="S120" s="103"/>
-      <c r="T120" s="103"/>
-      <c r="U120" s="103"/>
-      <c r="V120" s="103"/>
-      <c r="W120" s="103"/>
-      <c r="X120" s="103"/>
-      <c r="Y120" s="103"/>
-      <c r="Z120" s="103"/>
-      <c r="AA120" s="106"/>
-      <c r="AB120" s="106"/>
-      <c r="AC120" s="106"/>
+      <c r="R120" s="100"/>
+      <c r="S120" s="100"/>
+      <c r="T120" s="100"/>
+      <c r="U120" s="100"/>
+      <c r="V120" s="100"/>
+      <c r="W120" s="100"/>
+      <c r="X120" s="100"/>
+      <c r="Y120" s="100"/>
+      <c r="Z120" s="100"/>
+      <c r="AA120" s="103"/>
+      <c r="AB120" s="103"/>
+      <c r="AC120" s="103"/>
     </row>
     <row r="121" spans="1:29" ht="15.75" customHeight="1">
       <c r="A121" s="46">
         <v>37783</v>
       </c>
-      <c r="B121" s="46">
-        <v>37783</v>
+      <c r="B121" s="124">
+        <v>36949</v>
       </c>
       <c r="C121" s="56"/>
       <c r="D121" s="71">
@@ -49911,25 +49962,25 @@
         <v>1675.9837374764047</v>
       </c>
       <c r="M121" s="61"/>
-      <c r="R121" s="103"/>
-      <c r="S121" s="103"/>
-      <c r="T121" s="103"/>
-      <c r="U121" s="103"/>
-      <c r="V121" s="103"/>
-      <c r="W121" s="103"/>
-      <c r="X121" s="103"/>
-      <c r="Y121" s="103"/>
-      <c r="Z121" s="103"/>
-      <c r="AA121" s="106"/>
-      <c r="AB121" s="106"/>
-      <c r="AC121" s="106"/>
+      <c r="R121" s="100"/>
+      <c r="S121" s="100"/>
+      <c r="T121" s="100"/>
+      <c r="U121" s="100"/>
+      <c r="V121" s="100"/>
+      <c r="W121" s="100"/>
+      <c r="X121" s="100"/>
+      <c r="Y121" s="100"/>
+      <c r="Z121" s="100"/>
+      <c r="AA121" s="103"/>
+      <c r="AB121" s="103"/>
+      <c r="AC121" s="103"/>
     </row>
     <row r="122" spans="1:29" ht="18" customHeight="1">
       <c r="A122" s="46">
         <v>37816</v>
       </c>
-      <c r="B122" s="46">
-        <v>37816</v>
+      <c r="B122" s="124">
+        <v>36963</v>
       </c>
       <c r="C122" s="56"/>
       <c r="D122" s="71">
@@ -49963,25 +50014,25 @@
         <v>1329.8016843249118</v>
       </c>
       <c r="M122" s="61"/>
-      <c r="R122" s="104"/>
-      <c r="S122" s="104"/>
-      <c r="T122" s="104"/>
-      <c r="U122" s="104"/>
-      <c r="V122" s="104"/>
-      <c r="W122" s="104"/>
-      <c r="X122" s="104"/>
-      <c r="Y122" s="104"/>
-      <c r="Z122" s="104"/>
-      <c r="AA122" s="107"/>
-      <c r="AB122" s="107"/>
-      <c r="AC122" s="107"/>
+      <c r="R122" s="101"/>
+      <c r="S122" s="101"/>
+      <c r="T122" s="101"/>
+      <c r="U122" s="101"/>
+      <c r="V122" s="101"/>
+      <c r="W122" s="101"/>
+      <c r="X122" s="101"/>
+      <c r="Y122" s="101"/>
+      <c r="Z122" s="101"/>
+      <c r="AA122" s="104"/>
+      <c r="AB122" s="104"/>
+      <c r="AC122" s="104"/>
     </row>
     <row r="123" spans="1:29" ht="16.5" customHeight="1" thickBot="1">
       <c r="A123" s="46">
         <v>37852</v>
       </c>
-      <c r="B123" s="46">
-        <v>37852</v>
+      <c r="B123" s="124">
+        <v>36970</v>
       </c>
       <c r="C123" s="56"/>
       <c r="D123" s="71">
@@ -50015,27 +50066,27 @@
         <v>1677.1060078363082</v>
       </c>
       <c r="M123" s="61"/>
-      <c r="R123" s="100"/>
-      <c r="S123" s="100"/>
-      <c r="T123" s="100"/>
-      <c r="U123" s="100"/>
-      <c r="V123" s="100"/>
-      <c r="W123" s="100"/>
-      <c r="X123" s="100"/>
-      <c r="Y123" s="100"/>
-      <c r="Z123" s="100"/>
-      <c r="AA123" s="101" t="s">
+      <c r="R123" s="97"/>
+      <c r="S123" s="97"/>
+      <c r="T123" s="97"/>
+      <c r="U123" s="97"/>
+      <c r="V123" s="97"/>
+      <c r="W123" s="97"/>
+      <c r="X123" s="97"/>
+      <c r="Y123" s="97"/>
+      <c r="Z123" s="97"/>
+      <c r="AA123" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="AB123" s="101"/>
-      <c r="AC123" s="101"/>
+      <c r="AB123" s="98"/>
+      <c r="AC123" s="98"/>
     </row>
     <row r="124" spans="1:29" ht="15.75" customHeight="1" thickTop="1">
       <c r="A124" s="46">
         <v>37883</v>
       </c>
-      <c r="B124" s="46">
-        <v>37883</v>
+      <c r="B124" s="124">
+        <v>36972</v>
       </c>
       <c r="C124" s="56"/>
       <c r="D124" s="71">
@@ -50069,29 +50120,29 @@
         <v>1574.3356661415696</v>
       </c>
       <c r="M124" s="61"/>
-      <c r="R124" s="108" t="s">
+      <c r="R124" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="S124" s="108"/>
-      <c r="T124" s="108"/>
-      <c r="U124" s="108"/>
-      <c r="V124" s="108"/>
-      <c r="W124" s="108"/>
-      <c r="X124" s="108"/>
-      <c r="Y124" s="108"/>
-      <c r="Z124" s="108"/>
-      <c r="AA124" s="87" t="s">
+      <c r="S124" s="105"/>
+      <c r="T124" s="105"/>
+      <c r="U124" s="105"/>
+      <c r="V124" s="105"/>
+      <c r="W124" s="105"/>
+      <c r="X124" s="105"/>
+      <c r="Y124" s="105"/>
+      <c r="Z124" s="105"/>
+      <c r="AA124" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="AB124" s="87"/>
-      <c r="AC124" s="87"/>
+      <c r="AB124" s="106"/>
+      <c r="AC124" s="106"/>
     </row>
     <row r="125" spans="1:29" ht="15.75" customHeight="1">
       <c r="A125" s="46">
         <v>37924</v>
       </c>
-      <c r="B125" s="46">
-        <v>37924</v>
+      <c r="B125" s="124">
+        <v>37004</v>
       </c>
       <c r="C125" s="56"/>
       <c r="D125" s="71">
@@ -50125,25 +50176,25 @@
         <v>1607.3788693581614</v>
       </c>
       <c r="M125" s="61"/>
-      <c r="R125" s="103"/>
-      <c r="S125" s="103"/>
-      <c r="T125" s="103"/>
-      <c r="U125" s="103"/>
-      <c r="V125" s="103"/>
-      <c r="W125" s="103"/>
-      <c r="X125" s="103"/>
-      <c r="Y125" s="103"/>
-      <c r="Z125" s="103"/>
-      <c r="AA125" s="88"/>
-      <c r="AB125" s="88"/>
-      <c r="AC125" s="88"/>
+      <c r="R125" s="100"/>
+      <c r="S125" s="100"/>
+      <c r="T125" s="100"/>
+      <c r="U125" s="100"/>
+      <c r="V125" s="100"/>
+      <c r="W125" s="100"/>
+      <c r="X125" s="100"/>
+      <c r="Y125" s="100"/>
+      <c r="Z125" s="100"/>
+      <c r="AA125" s="107"/>
+      <c r="AB125" s="107"/>
+      <c r="AC125" s="107"/>
     </row>
     <row r="126" spans="1:29" ht="15.75" customHeight="1">
       <c r="A126" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B126" s="46">
-        <v>37984</v>
+      <c r="B126" s="124">
+        <v>37019</v>
       </c>
       <c r="C126" s="56"/>
       <c r="D126" s="71">
@@ -50177,25 +50228,25 @@
         <v>1601.727170118382</v>
       </c>
       <c r="M126" s="61"/>
-      <c r="R126" s="103"/>
-      <c r="S126" s="103"/>
-      <c r="T126" s="103"/>
-      <c r="U126" s="103"/>
-      <c r="V126" s="103"/>
-      <c r="W126" s="103"/>
-      <c r="X126" s="103"/>
-      <c r="Y126" s="103"/>
-      <c r="Z126" s="103"/>
-      <c r="AA126" s="88"/>
-      <c r="AB126" s="88"/>
-      <c r="AC126" s="88"/>
+      <c r="R126" s="100"/>
+      <c r="S126" s="100"/>
+      <c r="T126" s="100"/>
+      <c r="U126" s="100"/>
+      <c r="V126" s="100"/>
+      <c r="W126" s="100"/>
+      <c r="X126" s="100"/>
+      <c r="Y126" s="100"/>
+      <c r="Z126" s="100"/>
+      <c r="AA126" s="107"/>
+      <c r="AB126" s="107"/>
+      <c r="AC126" s="107"/>
     </row>
     <row r="127" spans="1:29" ht="21.75" customHeight="1">
       <c r="A127" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="B127" s="46">
-        <v>38017</v>
+      <c r="B127" s="124">
+        <v>37045</v>
       </c>
       <c r="C127" s="56"/>
       <c r="D127" s="71">
@@ -50229,25 +50280,25 @@
         <v>1578.1633826373281</v>
       </c>
       <c r="M127" s="61"/>
-      <c r="R127" s="103"/>
-      <c r="S127" s="103"/>
-      <c r="T127" s="103"/>
-      <c r="U127" s="103"/>
-      <c r="V127" s="103"/>
-      <c r="W127" s="103"/>
-      <c r="X127" s="103"/>
-      <c r="Y127" s="103"/>
-      <c r="Z127" s="103"/>
-      <c r="AA127" s="88"/>
-      <c r="AB127" s="88"/>
-      <c r="AC127" s="88"/>
+      <c r="R127" s="100"/>
+      <c r="S127" s="100"/>
+      <c r="T127" s="100"/>
+      <c r="U127" s="100"/>
+      <c r="V127" s="100"/>
+      <c r="W127" s="100"/>
+      <c r="X127" s="100"/>
+      <c r="Y127" s="100"/>
+      <c r="Z127" s="100"/>
+      <c r="AA127" s="107"/>
+      <c r="AB127" s="107"/>
+      <c r="AC127" s="107"/>
     </row>
     <row r="128" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A128" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B128" s="46">
-        <v>38047</v>
+      <c r="B128" s="124">
+        <v>37073</v>
       </c>
       <c r="C128" s="56"/>
       <c r="D128" s="71">
@@ -50281,27 +50332,27 @@
         <v>1535.3782407274191</v>
       </c>
       <c r="M128" s="61"/>
-      <c r="R128" s="95"/>
-      <c r="S128" s="95"/>
-      <c r="T128" s="95"/>
-      <c r="U128" s="95"/>
-      <c r="V128" s="95"/>
-      <c r="W128" s="95"/>
-      <c r="X128" s="95"/>
-      <c r="Y128" s="95"/>
-      <c r="Z128" s="95"/>
-      <c r="AA128" s="99" t="s">
+      <c r="R128" s="109"/>
+      <c r="S128" s="109"/>
+      <c r="T128" s="109"/>
+      <c r="U128" s="109"/>
+      <c r="V128" s="109"/>
+      <c r="W128" s="109"/>
+      <c r="X128" s="109"/>
+      <c r="Y128" s="109"/>
+      <c r="Z128" s="109"/>
+      <c r="AA128" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="AB128" s="99"/>
-      <c r="AC128" s="99"/>
+      <c r="AB128" s="96"/>
+      <c r="AC128" s="96"/>
     </row>
     <row r="129" spans="1:29" ht="16.5" customHeight="1" thickTop="1">
       <c r="A129" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B129" s="46">
-        <v>38076</v>
+      <c r="B129" s="124">
+        <v>37104</v>
       </c>
       <c r="C129" s="56"/>
       <c r="D129" s="71">
@@ -50335,29 +50386,29 @@
         <v>1513.7643769277336</v>
       </c>
       <c r="M129" s="61"/>
-      <c r="R129" s="84" t="s">
+      <c r="R129" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="S129" s="84"/>
-      <c r="T129" s="84"/>
-      <c r="U129" s="84"/>
-      <c r="V129" s="84"/>
-      <c r="W129" s="84"/>
-      <c r="X129" s="84"/>
-      <c r="Y129" s="84"/>
-      <c r="Z129" s="84"/>
-      <c r="AA129" s="87" t="s">
+      <c r="S129" s="113"/>
+      <c r="T129" s="113"/>
+      <c r="U129" s="113"/>
+      <c r="V129" s="113"/>
+      <c r="W129" s="113"/>
+      <c r="X129" s="113"/>
+      <c r="Y129" s="113"/>
+      <c r="Z129" s="113"/>
+      <c r="AA129" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="AB129" s="87"/>
-      <c r="AC129" s="87"/>
+      <c r="AB129" s="106"/>
+      <c r="AC129" s="106"/>
     </row>
     <row r="130" spans="1:29">
       <c r="A130" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="B130" s="46">
-        <v>38106</v>
+      <c r="B130" s="124">
+        <v>37167</v>
       </c>
       <c r="C130" s="56"/>
       <c r="D130" s="71">
@@ -50391,25 +50442,25 @@
         <v>1485.1259916005599</v>
       </c>
       <c r="M130" s="61"/>
-      <c r="R130" s="85"/>
-      <c r="S130" s="85"/>
-      <c r="T130" s="85"/>
-      <c r="U130" s="85"/>
-      <c r="V130" s="85"/>
-      <c r="W130" s="85"/>
-      <c r="X130" s="85"/>
-      <c r="Y130" s="85"/>
-      <c r="Z130" s="85"/>
-      <c r="AA130" s="88"/>
-      <c r="AB130" s="88"/>
-      <c r="AC130" s="88"/>
+      <c r="R130" s="114"/>
+      <c r="S130" s="114"/>
+      <c r="T130" s="114"/>
+      <c r="U130" s="114"/>
+      <c r="V130" s="114"/>
+      <c r="W130" s="114"/>
+      <c r="X130" s="114"/>
+      <c r="Y130" s="114"/>
+      <c r="Z130" s="114"/>
+      <c r="AA130" s="107"/>
+      <c r="AB130" s="107"/>
+      <c r="AC130" s="107"/>
     </row>
     <row r="131" spans="1:29">
       <c r="A131" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B131" s="46">
-        <v>38138</v>
+      <c r="B131" s="124">
+        <v>37187</v>
       </c>
       <c r="C131" s="56"/>
       <c r="D131" s="71">
@@ -50443,25 +50494,25 @@
         <v>1484.0190763944429</v>
       </c>
       <c r="M131" s="61"/>
-      <c r="R131" s="86"/>
-      <c r="S131" s="86"/>
-      <c r="T131" s="86"/>
-      <c r="U131" s="86"/>
-      <c r="V131" s="86"/>
-      <c r="W131" s="86"/>
-      <c r="X131" s="86"/>
-      <c r="Y131" s="86"/>
-      <c r="Z131" s="86"/>
-      <c r="AA131" s="89"/>
-      <c r="AB131" s="89"/>
-      <c r="AC131" s="89"/>
+      <c r="R131" s="115"/>
+      <c r="S131" s="115"/>
+      <c r="T131" s="115"/>
+      <c r="U131" s="115"/>
+      <c r="V131" s="115"/>
+      <c r="W131" s="115"/>
+      <c r="X131" s="115"/>
+      <c r="Y131" s="115"/>
+      <c r="Z131" s="115"/>
+      <c r="AA131" s="116"/>
+      <c r="AB131" s="116"/>
+      <c r="AC131" s="116"/>
     </row>
     <row r="132" spans="1:29">
       <c r="A132" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="B132" s="46">
-        <v>38171</v>
+      <c r="B132" s="124">
+        <v>37194</v>
       </c>
       <c r="C132" s="56"/>
       <c r="D132" s="71">
@@ -50495,27 +50546,27 @@
         <v>1824.7824674152437</v>
       </c>
       <c r="M132" s="61"/>
-      <c r="R132" s="90"/>
-      <c r="S132" s="90"/>
-      <c r="T132" s="90"/>
-      <c r="U132" s="90"/>
-      <c r="V132" s="90"/>
-      <c r="W132" s="90"/>
-      <c r="X132" s="90"/>
-      <c r="Y132" s="90"/>
-      <c r="Z132" s="90"/>
-      <c r="AA132" s="91" t="s">
+      <c r="R132" s="117"/>
+      <c r="S132" s="117"/>
+      <c r="T132" s="117"/>
+      <c r="U132" s="117"/>
+      <c r="V132" s="117"/>
+      <c r="W132" s="117"/>
+      <c r="X132" s="117"/>
+      <c r="Y132" s="117"/>
+      <c r="Z132" s="117"/>
+      <c r="AA132" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="AB132" s="91"/>
-      <c r="AC132" s="91"/>
+      <c r="AB132" s="118"/>
+      <c r="AC132" s="118"/>
     </row>
     <row r="133" spans="1:29" ht="16.5" thickBot="1">
       <c r="A133" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="46">
-        <v>38213</v>
+      <c r="B133" s="124">
+        <v>37220</v>
       </c>
       <c r="C133" s="56"/>
       <c r="D133" s="71">
@@ -50549,27 +50600,27 @@
         <v>1331.3515954244431</v>
       </c>
       <c r="M133" s="61"/>
-      <c r="R133" s="92"/>
-      <c r="S133" s="92"/>
-      <c r="T133" s="92"/>
-      <c r="U133" s="92"/>
-      <c r="V133" s="92"/>
-      <c r="W133" s="92"/>
-      <c r="X133" s="92"/>
-      <c r="Y133" s="92"/>
-      <c r="Z133" s="92"/>
-      <c r="AA133" s="93" t="s">
+      <c r="R133" s="119"/>
+      <c r="S133" s="119"/>
+      <c r="T133" s="119"/>
+      <c r="U133" s="119"/>
+      <c r="V133" s="119"/>
+      <c r="W133" s="119"/>
+      <c r="X133" s="119"/>
+      <c r="Y133" s="119"/>
+      <c r="Z133" s="119"/>
+      <c r="AA133" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="AB133" s="93"/>
-      <c r="AC133" s="93"/>
+      <c r="AB133" s="120"/>
+      <c r="AC133" s="120"/>
     </row>
     <row r="134" spans="1:29">
       <c r="A134" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="B134" s="46">
-        <v>38246</v>
+      <c r="B134" s="124">
+        <v>37240</v>
       </c>
       <c r="C134" s="56"/>
       <c r="D134" s="71">
@@ -50608,8 +50659,8 @@
       <c r="A135" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="B135" s="46">
-        <v>38307</v>
+      <c r="B135" s="124">
+        <v>37269</v>
       </c>
       <c r="C135" s="56"/>
       <c r="D135" s="71">
@@ -50648,8 +50699,8 @@
       <c r="A136" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="B136" s="46">
-        <v>38352</v>
+      <c r="B136" s="124">
+        <v>37304</v>
       </c>
       <c r="C136" s="56"/>
       <c r="D136" s="71">
@@ -50688,8 +50739,8 @@
       <c r="A137" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="B137" s="46">
-        <v>38388</v>
+      <c r="B137" s="124">
+        <v>37328</v>
       </c>
       <c r="C137" s="56"/>
       <c r="D137" s="71">
@@ -50728,8 +50779,8 @@
       <c r="A138" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="B138" s="46">
-        <v>38417</v>
+      <c r="B138" s="124">
+        <v>37337</v>
       </c>
       <c r="C138" s="56"/>
       <c r="D138" s="71">
@@ -50768,8 +50819,8 @@
       <c r="A139" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="B139" s="46">
-        <v>38531</v>
+      <c r="B139" s="124">
+        <v>37340</v>
       </c>
       <c r="C139" s="56"/>
       <c r="D139" s="71">
@@ -50808,8 +50859,8 @@
       <c r="A140" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B140" s="46">
-        <v>38538</v>
+      <c r="B140" s="124">
+        <v>37357</v>
       </c>
       <c r="C140" s="56"/>
       <c r="D140" s="71">
@@ -50848,8 +50899,8 @@
       <c r="A141" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="B141" s="46">
-        <v>38569</v>
+      <c r="B141" s="124">
+        <v>37378</v>
       </c>
       <c r="C141" s="56"/>
       <c r="D141" s="71">
@@ -50888,8 +50939,8 @@
       <c r="A142" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="B142" s="46">
-        <v>38605</v>
+      <c r="B142" s="124">
+        <v>37409</v>
       </c>
       <c r="C142" s="56"/>
       <c r="D142" s="71">
@@ -50928,8 +50979,8 @@
       <c r="A143" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B143" s="46">
-        <v>38635</v>
+      <c r="B143" s="124">
+        <v>37439</v>
       </c>
       <c r="C143" s="56"/>
       <c r="D143" s="71">
@@ -50968,8 +51019,8 @@
       <c r="A144" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B144" s="46">
-        <v>38660</v>
+      <c r="B144" s="124">
+        <v>37470</v>
       </c>
       <c r="C144" s="56"/>
       <c r="D144" s="71">
@@ -51008,8 +51059,8 @@
       <c r="A145" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B145" s="46">
-        <v>38695</v>
+      <c r="B145" s="124">
+        <v>37500</v>
       </c>
       <c r="C145" s="56"/>
       <c r="D145" s="71">
@@ -51048,8 +51099,8 @@
       <c r="A146" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B146" s="46">
-        <v>38726</v>
+      <c r="B146" s="124">
+        <v>37530</v>
       </c>
       <c r="C146" s="56"/>
       <c r="D146" s="71">
@@ -51088,8 +51139,8 @@
       <c r="A147" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B147" s="46">
-        <v>38755</v>
+      <c r="B147" s="124">
+        <v>37569</v>
       </c>
       <c r="C147" s="56"/>
       <c r="D147" s="71">
@@ -51128,8 +51179,8 @@
       <c r="A148" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B148" s="46">
-        <v>38782</v>
+      <c r="B148" s="124">
+        <v>37595</v>
       </c>
       <c r="C148" s="56"/>
       <c r="D148" s="71">
@@ -51168,8 +51219,8 @@
       <c r="A149" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="B149" s="46">
-        <v>38812</v>
+      <c r="B149" s="124">
+        <v>37629</v>
       </c>
       <c r="C149" s="56"/>
       <c r="D149" s="71">
@@ -51208,8 +51259,8 @@
       <c r="A150" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="B150" s="46">
-        <v>38842</v>
+      <c r="B150" s="124">
+        <v>37655</v>
       </c>
       <c r="C150" s="56"/>
       <c r="D150" s="71">
@@ -51248,8 +51299,8 @@
       <c r="A151" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="B151" s="46">
-        <v>38873</v>
+      <c r="B151" s="124">
+        <v>37686</v>
       </c>
       <c r="C151" s="56"/>
       <c r="D151" s="71">
@@ -51288,8 +51339,8 @@
       <c r="A152" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="B152" s="46">
-        <v>38903</v>
+      <c r="B152" s="124">
+        <v>37716</v>
       </c>
       <c r="C152" s="56"/>
       <c r="D152" s="71">
@@ -51328,8 +51379,8 @@
       <c r="A153" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="B153" s="46">
-        <v>38934</v>
+      <c r="B153" s="124">
+        <v>37750</v>
       </c>
       <c r="C153" s="56"/>
       <c r="D153" s="71">
@@ -51368,8 +51419,8 @@
       <c r="A154" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="B154" s="46">
-        <v>38965</v>
+      <c r="B154" s="124">
+        <v>37784</v>
       </c>
       <c r="C154" s="56"/>
       <c r="D154" s="71">
@@ -51408,8 +51459,8 @@
       <c r="A155" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="B155" s="46">
-        <v>38995</v>
+      <c r="B155" s="124">
+        <v>37818</v>
       </c>
       <c r="C155" s="56"/>
       <c r="D155" s="71">
@@ -51448,8 +51499,8 @@
       <c r="A156" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="B156" s="46">
-        <v>39026</v>
+      <c r="B156" s="124">
+        <v>37853</v>
       </c>
       <c r="C156" s="56"/>
       <c r="D156" s="71">
@@ -51488,8 +51539,8 @@
       <c r="A157" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="B157" s="46">
-        <v>39056</v>
+      <c r="B157" s="124">
+        <v>37882</v>
       </c>
       <c r="C157" s="56"/>
       <c r="D157" s="71">
@@ -51528,8 +51579,8 @@
       <c r="A158" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="B158" s="46">
-        <v>39087</v>
+      <c r="B158" s="124">
+        <v>37924</v>
       </c>
       <c r="C158" s="56"/>
       <c r="D158" s="71">
@@ -51568,8 +51619,8 @@
       <c r="A159" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="B159" s="46">
-        <v>39118</v>
+      <c r="B159" s="124">
+        <v>37985</v>
       </c>
       <c r="C159" s="56"/>
       <c r="D159" s="71">
@@ -51608,8 +51659,8 @@
       <c r="A160" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="B160" s="46">
-        <v>39146</v>
+      <c r="B160" s="124">
+        <v>38048</v>
       </c>
       <c r="C160" s="56"/>
       <c r="D160" s="71">
@@ -51648,8 +51699,8 @@
       <c r="A161" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="B161" s="46">
-        <v>39177</v>
+      <c r="B161" s="124">
+        <v>38077</v>
       </c>
       <c r="C161" s="56"/>
       <c r="D161" s="71">
@@ -51688,8 +51739,8 @@
       <c r="A162" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="B162" s="46">
-        <v>39207</v>
+      <c r="B162" s="124">
+        <v>38107</v>
       </c>
       <c r="C162" s="56"/>
       <c r="D162" s="71">
@@ -51728,8 +51779,8 @@
       <c r="A163" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B163" s="46">
-        <v>39238</v>
+      <c r="B163" s="124">
+        <v>38140</v>
       </c>
       <c r="C163" s="56"/>
       <c r="D163" s="71">
@@ -51770,8 +51821,8 @@
       <c r="A164" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="B164" s="46">
-        <v>39268</v>
+      <c r="B164" s="124">
+        <v>38171</v>
       </c>
       <c r="C164" s="56"/>
       <c r="D164" s="71">
@@ -51812,8 +51863,8 @@
       <c r="A165" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="B165" s="46">
-        <v>39299</v>
+      <c r="B165" s="124">
+        <v>38215</v>
       </c>
       <c r="C165" s="56"/>
       <c r="D165" s="71">
@@ -51854,8 +51905,8 @@
       <c r="A166" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="B166" s="46">
-        <v>39330</v>
+      <c r="B166" s="124">
+        <v>38244</v>
       </c>
       <c r="C166" s="56"/>
       <c r="D166" s="71">
@@ -51896,8 +51947,8 @@
       <c r="A167" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="B167" s="46">
-        <v>39360</v>
+      <c r="B167" s="124">
+        <v>38303</v>
       </c>
       <c r="C167" s="56"/>
       <c r="D167" s="71">
@@ -51938,8 +51989,8 @@
       <c r="A168" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="B168" s="46">
-        <v>39391</v>
+      <c r="B168" s="124">
+        <v>38351</v>
       </c>
       <c r="C168" s="56"/>
       <c r="D168" s="71">
@@ -51980,8 +52031,8 @@
       <c r="A169" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="B169" s="46">
-        <v>39421</v>
+      <c r="B169" s="124">
+        <v>38386</v>
       </c>
       <c r="C169" s="56"/>
       <c r="D169" s="71">
@@ -52022,8 +52073,8 @@
       <c r="A170" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="B170" s="46">
-        <v>39452</v>
+      <c r="B170" s="124">
+        <v>38416</v>
       </c>
       <c r="C170" s="56"/>
       <c r="D170" s="71">
@@ -52064,8 +52115,8 @@
       <c r="A171" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="B171" s="46">
-        <v>39483</v>
+      <c r="B171" s="124">
+        <v>38535</v>
       </c>
       <c r="C171" s="56"/>
       <c r="D171" s="70"/>
@@ -52104,8 +52155,8 @@
       <c r="A172" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="B172" s="46">
-        <v>39512</v>
+      <c r="B172" s="124">
+        <v>38539</v>
       </c>
       <c r="C172" s="56"/>
       <c r="D172" s="72">
@@ -52146,8 +52197,8 @@
       <c r="A173" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="B173" s="46">
-        <v>39543</v>
+      <c r="B173" s="124">
+        <v>38570</v>
       </c>
       <c r="C173" s="56"/>
       <c r="D173" s="72"/>
@@ -52186,8 +52237,8 @@
       <c r="A174" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="B174" s="46">
-        <v>39573</v>
+      <c r="B174" s="124">
+        <v>38605</v>
       </c>
       <c r="C174" s="56"/>
       <c r="D174" s="72">
@@ -52228,8 +52279,8 @@
       <c r="A175" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="B175" s="46">
-        <v>39665</v>
+      <c r="B175" s="124">
+        <v>38635</v>
       </c>
       <c r="C175" s="56"/>
       <c r="D175" s="72">
@@ -52270,8 +52321,8 @@
       <c r="A176" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="B176" s="46">
-        <v>39697</v>
+      <c r="B176" s="124">
+        <v>38661</v>
       </c>
       <c r="C176" s="56"/>
       <c r="D176" s="72">
@@ -52312,8 +52363,8 @@
       <c r="A177" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="B177" s="46">
-        <v>39729</v>
+      <c r="B177" s="124">
+        <v>38695</v>
       </c>
       <c r="C177" s="56"/>
       <c r="D177" s="72">
@@ -52354,7 +52405,9 @@
       <c r="A178" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="B178" s="46"/>
+      <c r="B178" s="124">
+        <v>38726</v>
+      </c>
       <c r="C178" s="56"/>
       <c r="D178" s="72">
         <v>85</v>
@@ -52387,7 +52440,9 @@
       <c r="A179" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="B179" s="46"/>
+      <c r="B179" s="124">
+        <v>38754</v>
+      </c>
       <c r="C179" s="56"/>
       <c r="D179" s="72">
         <v>85</v>
@@ -52420,7 +52475,9 @@
       <c r="A180" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="B180" s="46"/>
+      <c r="B180" s="124">
+        <v>38783</v>
+      </c>
       <c r="C180" s="56"/>
       <c r="D180" s="72">
         <v>85</v>
@@ -52453,7 +52510,9 @@
       <c r="A181" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="B181" s="46"/>
+      <c r="B181" s="124">
+        <v>38812</v>
+      </c>
       <c r="C181" s="56"/>
       <c r="D181" s="72">
         <v>87</v>
@@ -53213,25 +53272,12 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="Y108:Z108"/>
-    <mergeCell ref="U109:V109"/>
-    <mergeCell ref="W109:X109"/>
-    <mergeCell ref="Y109:Z109"/>
-    <mergeCell ref="U110:V110"/>
-    <mergeCell ref="W110:X110"/>
-    <mergeCell ref="Y110:Z110"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="U108:V108"/>
-    <mergeCell ref="W108:X108"/>
-    <mergeCell ref="AA128:AC128"/>
-    <mergeCell ref="R123:Z123"/>
-    <mergeCell ref="AA123:AC123"/>
-    <mergeCell ref="R115:Z122"/>
-    <mergeCell ref="AA115:AC122"/>
-    <mergeCell ref="R124:Z127"/>
-    <mergeCell ref="AA124:AC127"/>
+    <mergeCell ref="R129:Z131"/>
+    <mergeCell ref="AA129:AC131"/>
+    <mergeCell ref="R132:Z132"/>
+    <mergeCell ref="AA132:AC132"/>
+    <mergeCell ref="R133:Z133"/>
+    <mergeCell ref="AA133:AC133"/>
     <mergeCell ref="U111:V111"/>
     <mergeCell ref="W111:X111"/>
     <mergeCell ref="Y111:Z111"/>
@@ -53242,12 +53288,25 @@
     <mergeCell ref="U113:V113"/>
     <mergeCell ref="W113:X113"/>
     <mergeCell ref="Y113:Z113"/>
-    <mergeCell ref="R129:Z131"/>
-    <mergeCell ref="AA129:AC131"/>
-    <mergeCell ref="R132:Z132"/>
-    <mergeCell ref="AA132:AC132"/>
-    <mergeCell ref="R133:Z133"/>
-    <mergeCell ref="AA133:AC133"/>
+    <mergeCell ref="AA128:AC128"/>
+    <mergeCell ref="R123:Z123"/>
+    <mergeCell ref="AA123:AC123"/>
+    <mergeCell ref="R115:Z122"/>
+    <mergeCell ref="AA115:AC122"/>
+    <mergeCell ref="R124:Z127"/>
+    <mergeCell ref="AA124:AC127"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="U108:V108"/>
+    <mergeCell ref="W108:X108"/>
+    <mergeCell ref="Y108:Z108"/>
+    <mergeCell ref="U109:V109"/>
+    <mergeCell ref="W109:X109"/>
+    <mergeCell ref="Y109:Z109"/>
+    <mergeCell ref="U110:V110"/>
+    <mergeCell ref="W110:X110"/>
+    <mergeCell ref="Y110:Z110"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.27" top="0.16" bottom="0.19" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -53285,16 +53344,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="121"/>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
+      <c r="A1" s="122"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
     </row>
     <row r="2" spans="1:8" ht="18.75">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="121" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
       <c r="E2" s="35"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
@@ -53673,11 +53732,11 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75">
-      <c r="A35" s="120" t="s">
+      <c r="A35" s="121" t="s">
         <v>144</v>
       </c>
-      <c r="B35" s="120"/>
-      <c r="C35" s="120"/>
+      <c r="B35" s="121"/>
+      <c r="C35" s="121"/>
     </row>
     <row r="36" spans="1:3" ht="15.75">
       <c r="A36" s="5" t="s">
@@ -53916,22 +53975,22 @@
       <c r="C57" s="4">
         <v>127.3</v>
       </c>
-      <c r="E57" s="121"/>
-      <c r="F57" s="121"/>
-      <c r="G57" s="121"/>
-      <c r="H57" s="121"/>
-      <c r="I57" s="121"/>
-      <c r="J57" s="121"/>
-      <c r="K57" s="121"/>
-      <c r="L57" s="121"/>
-      <c r="M57" s="121"/>
-      <c r="N57" s="121"/>
-      <c r="O57" s="121"/>
-      <c r="P57" s="121"/>
-      <c r="Q57" s="121"/>
-      <c r="R57" s="121"/>
-      <c r="S57" s="121"/>
-      <c r="T57" s="121"/>
+      <c r="E57" s="122"/>
+      <c r="F57" s="122"/>
+      <c r="G57" s="122"/>
+      <c r="H57" s="122"/>
+      <c r="I57" s="122"/>
+      <c r="J57" s="122"/>
+      <c r="K57" s="122"/>
+      <c r="L57" s="122"/>
+      <c r="M57" s="122"/>
+      <c r="N57" s="122"/>
+      <c r="O57" s="122"/>
+      <c r="P57" s="122"/>
+      <c r="Q57" s="122"/>
+      <c r="R57" s="122"/>
+      <c r="S57" s="122"/>
+      <c r="T57" s="122"/>
     </row>
     <row r="58" spans="1:20" ht="18.75">
       <c r="A58" s="6" t="s">
@@ -53943,24 +54002,24 @@
       <c r="C58" s="4">
         <v>127.2</v>
       </c>
-      <c r="E58" s="120" t="s">
+      <c r="E58" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="F58" s="120"/>
-      <c r="G58" s="120"/>
-      <c r="H58" s="120"/>
-      <c r="I58" s="120"/>
-      <c r="J58" s="120"/>
-      <c r="K58" s="120"/>
-      <c r="L58" s="120"/>
-      <c r="M58" s="120"/>
-      <c r="N58" s="120"/>
-      <c r="O58" s="120"/>
-      <c r="P58" s="120"/>
-      <c r="Q58" s="120"/>
-      <c r="R58" s="120"/>
-      <c r="S58" s="120"/>
-      <c r="T58" s="120"/>
+      <c r="F58" s="121"/>
+      <c r="G58" s="121"/>
+      <c r="H58" s="121"/>
+      <c r="I58" s="121"/>
+      <c r="J58" s="121"/>
+      <c r="K58" s="121"/>
+      <c r="L58" s="121"/>
+      <c r="M58" s="121"/>
+      <c r="N58" s="121"/>
+      <c r="O58" s="121"/>
+      <c r="P58" s="121"/>
+      <c r="Q58" s="121"/>
+      <c r="R58" s="121"/>
+      <c r="S58" s="121"/>
+      <c r="T58" s="121"/>
     </row>
     <row r="59" spans="1:20" ht="15.75">
       <c r="A59" s="6" t="s">
@@ -54540,11 +54599,11 @@
       </c>
     </row>
     <row r="68" spans="1:20" ht="18.75">
-      <c r="A68" s="120" t="s">
+      <c r="A68" s="121" t="s">
         <v>198</v>
       </c>
-      <c r="B68" s="120"/>
-      <c r="C68" s="120"/>
+      <c r="B68" s="121"/>
+      <c r="C68" s="121"/>
       <c r="E68" s="29" t="s">
         <v>199</v>
       </c>
@@ -55075,11 +55134,11 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="18.75">
-      <c r="A101" s="120" t="s">
+      <c r="A101" s="121" t="s">
         <v>232</v>
       </c>
-      <c r="B101" s="120"/>
-      <c r="C101" s="120"/>
+      <c r="B101" s="121"/>
+      <c r="C101" s="121"/>
     </row>
     <row r="102" spans="1:3" ht="15.75">
       <c r="A102" s="5" t="s">
@@ -55430,11 +55489,11 @@
       </c>
     </row>
     <row r="134" spans="1:3" ht="18.75">
-      <c r="A134" s="120" t="s">
+      <c r="A134" s="121" t="s">
         <v>263</v>
       </c>
-      <c r="B134" s="120"/>
-      <c r="C134" s="120"/>
+      <c r="B134" s="121"/>
+      <c r="C134" s="121"/>
     </row>
     <row r="135" spans="1:3" ht="15.75">
       <c r="A135" s="5" t="s">
@@ -55781,11 +55840,11 @@
       </c>
     </row>
     <row r="167" spans="1:3" ht="18.75">
-      <c r="A167" s="120" t="s">
+      <c r="A167" s="121" t="s">
         <v>294</v>
       </c>
-      <c r="B167" s="120"/>
-      <c r="C167" s="120"/>
+      <c r="B167" s="121"/>
+      <c r="C167" s="121"/>
     </row>
     <row r="168" spans="1:3" ht="15.75">
       <c r="A168" s="5" t="s">
@@ -56136,11 +56195,11 @@
       </c>
     </row>
     <row r="200" spans="1:3" ht="18.75">
-      <c r="A200" s="120" t="s">
+      <c r="A200" s="121" t="s">
         <v>325</v>
       </c>
-      <c r="B200" s="120"/>
-      <c r="C200" s="120"/>
+      <c r="B200" s="121"/>
+      <c r="C200" s="121"/>
     </row>
     <row r="201" spans="1:3" ht="15.75">
       <c r="A201" s="5" t="s">
@@ -56472,11 +56531,11 @@
       </c>
     </row>
     <row r="232" spans="1:3" ht="18.75">
-      <c r="A232" s="120" t="s">
+      <c r="A232" s="121" t="s">
         <v>355</v>
       </c>
-      <c r="B232" s="120"/>
-      <c r="C232" s="120"/>
+      <c r="B232" s="121"/>
+      <c r="C232" s="121"/>
     </row>
     <row r="233" spans="1:3" ht="15.75">
       <c r="A233" s="5" t="s">
@@ -56820,11 +56879,11 @@
       </c>
     </row>
     <row r="264" spans="1:3" ht="18.75">
-      <c r="A264" s="120" t="s">
+      <c r="A264" s="121" t="s">
         <v>385</v>
       </c>
-      <c r="B264" s="120"/>
-      <c r="C264" s="120"/>
+      <c r="B264" s="121"/>
+      <c r="C264" s="121"/>
     </row>
     <row r="265" spans="1:3" ht="15.75">
       <c r="A265" s="5" t="s">
@@ -57164,11 +57223,11 @@
       </c>
     </row>
     <row r="296" spans="1:3" ht="18.75">
-      <c r="A296" s="120" t="s">
+      <c r="A296" s="121" t="s">
         <v>415</v>
       </c>
-      <c r="B296" s="120"/>
-      <c r="C296" s="120"/>
+      <c r="B296" s="121"/>
+      <c r="C296" s="121"/>
     </row>
     <row r="297" spans="1:3" ht="15.75">
       <c r="A297" s="5" t="s">
@@ -57512,11 +57571,11 @@
       </c>
     </row>
     <row r="328" spans="1:3" ht="18.75">
-      <c r="A328" s="120" t="s">
+      <c r="A328" s="121" t="s">
         <v>446</v>
       </c>
-      <c r="B328" s="120"/>
-      <c r="C328" s="120"/>
+      <c r="B328" s="121"/>
+      <c r="C328" s="121"/>
     </row>
     <row r="329" spans="1:3" ht="15.75">
       <c r="A329" s="5" t="s">
@@ -57860,11 +57919,11 @@
       </c>
     </row>
     <row r="360" spans="1:3" ht="18.75">
-      <c r="A360" s="120" t="s">
+      <c r="A360" s="121" t="s">
         <v>476</v>
       </c>
-      <c r="B360" s="120"/>
-      <c r="C360" s="120"/>
+      <c r="B360" s="121"/>
+      <c r="C360" s="121"/>
     </row>
     <row r="361" spans="1:3" ht="15.75">
       <c r="A361" s="5" t="s">
@@ -58190,6 +58249,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="E57:T57"/>
+    <mergeCell ref="E58:T58"/>
     <mergeCell ref="A296:C296"/>
     <mergeCell ref="A328:C328"/>
     <mergeCell ref="A360:C360"/>
@@ -58199,12 +58264,6 @@
     <mergeCell ref="A167:C167"/>
     <mergeCell ref="A200:C200"/>
     <mergeCell ref="A232:C232"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="E57:T57"/>
-    <mergeCell ref="E58:T58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -58244,16 +58303,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="121"/>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
+      <c r="A1" s="122"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
     </row>
     <row r="2" spans="1:8" ht="18.75">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="121" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
       <c r="E2" s="35"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
@@ -58632,11 +58691,11 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75">
-      <c r="A35" s="120" t="s">
+      <c r="A35" s="121" t="s">
         <v>144</v>
       </c>
-      <c r="B35" s="120"/>
-      <c r="C35" s="120"/>
+      <c r="B35" s="121"/>
+      <c r="C35" s="121"/>
     </row>
     <row r="36" spans="1:3" ht="15.75">
       <c r="A36" s="29" t="s">
@@ -58879,22 +58938,22 @@
       <c r="C57" s="4">
         <v>119.7</v>
       </c>
-      <c r="E57" s="121"/>
-      <c r="F57" s="121"/>
-      <c r="G57" s="121"/>
-      <c r="H57" s="121"/>
-      <c r="I57" s="121"/>
-      <c r="J57" s="121"/>
-      <c r="K57" s="121"/>
-      <c r="L57" s="121"/>
-      <c r="M57" s="121"/>
-      <c r="N57" s="121"/>
-      <c r="O57" s="121"/>
-      <c r="P57" s="121"/>
-      <c r="Q57" s="121"/>
-      <c r="R57" s="121"/>
-      <c r="S57" s="121"/>
-      <c r="T57" s="121"/>
+      <c r="E57" s="122"/>
+      <c r="F57" s="122"/>
+      <c r="G57" s="122"/>
+      <c r="H57" s="122"/>
+      <c r="I57" s="122"/>
+      <c r="J57" s="122"/>
+      <c r="K57" s="122"/>
+      <c r="L57" s="122"/>
+      <c r="M57" s="122"/>
+      <c r="N57" s="122"/>
+      <c r="O57" s="122"/>
+      <c r="P57" s="122"/>
+      <c r="Q57" s="122"/>
+      <c r="R57" s="122"/>
+      <c r="S57" s="122"/>
+      <c r="T57" s="122"/>
     </row>
     <row r="58" spans="1:20" ht="18.75">
       <c r="A58" s="29" t="s">
@@ -58906,24 +58965,24 @@
       <c r="C58" s="4">
         <v>119.1</v>
       </c>
-      <c r="E58" s="120" t="s">
+      <c r="E58" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="F58" s="120"/>
-      <c r="G58" s="120"/>
-      <c r="H58" s="120"/>
-      <c r="I58" s="120"/>
-      <c r="J58" s="120"/>
-      <c r="K58" s="120"/>
-      <c r="L58" s="120"/>
-      <c r="M58" s="120"/>
-      <c r="N58" s="120"/>
-      <c r="O58" s="120"/>
-      <c r="P58" s="120"/>
-      <c r="Q58" s="120"/>
-      <c r="R58" s="120"/>
-      <c r="S58" s="120"/>
-      <c r="T58" s="120"/>
+      <c r="F58" s="121"/>
+      <c r="G58" s="121"/>
+      <c r="H58" s="121"/>
+      <c r="I58" s="121"/>
+      <c r="J58" s="121"/>
+      <c r="K58" s="121"/>
+      <c r="L58" s="121"/>
+      <c r="M58" s="121"/>
+      <c r="N58" s="121"/>
+      <c r="O58" s="121"/>
+      <c r="P58" s="121"/>
+      <c r="Q58" s="121"/>
+      <c r="R58" s="121"/>
+      <c r="S58" s="121"/>
+      <c r="T58" s="121"/>
     </row>
     <row r="59" spans="1:20" ht="15.75">
       <c r="A59" s="29" t="s">
@@ -59380,11 +59439,11 @@
       <c r="T67" s="16"/>
     </row>
     <row r="68" spans="1:20" ht="18.75">
-      <c r="A68" s="120" t="s">
+      <c r="A68" s="121" t="s">
         <v>198</v>
       </c>
-      <c r="B68" s="120"/>
-      <c r="C68" s="120"/>
+      <c r="B68" s="121"/>
+      <c r="C68" s="121"/>
       <c r="E68" s="6"/>
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
@@ -59803,11 +59862,11 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="18.75">
-      <c r="A101" s="120" t="s">
+      <c r="A101" s="121" t="s">
         <v>232</v>
       </c>
-      <c r="B101" s="120"/>
-      <c r="C101" s="120"/>
+      <c r="B101" s="121"/>
+      <c r="C101" s="121"/>
     </row>
     <row r="102" spans="1:3" ht="15.75">
       <c r="A102" s="29" t="s">
@@ -60162,11 +60221,11 @@
       </c>
     </row>
     <row r="134" spans="1:3" ht="18.75">
-      <c r="A134" s="120" t="s">
+      <c r="A134" s="121" t="s">
         <v>263</v>
       </c>
-      <c r="B134" s="120"/>
-      <c r="C134" s="120"/>
+      <c r="B134" s="121"/>
+      <c r="C134" s="121"/>
     </row>
     <row r="135" spans="1:3" ht="15.75">
       <c r="A135" s="29" t="s">
@@ -60513,11 +60572,11 @@
       <c r="C166" s="4"/>
     </row>
     <row r="167" spans="1:3" ht="18.75">
-      <c r="A167" s="120" t="s">
+      <c r="A167" s="121" t="s">
         <v>294</v>
       </c>
-      <c r="B167" s="120"/>
-      <c r="C167" s="120"/>
+      <c r="B167" s="121"/>
+      <c r="C167" s="121"/>
     </row>
     <row r="168" spans="1:3" ht="15.75">
       <c r="A168" s="29" t="s">
@@ -60862,11 +60921,11 @@
       </c>
     </row>
     <row r="200" spans="1:3" ht="18.75">
-      <c r="A200" s="120" t="s">
+      <c r="A200" s="121" t="s">
         <v>325</v>
       </c>
-      <c r="B200" s="120"/>
-      <c r="C200" s="120"/>
+      <c r="B200" s="121"/>
+      <c r="C200" s="121"/>
     </row>
     <row r="201" spans="1:3" ht="15.75">
       <c r="A201" s="29" t="s">
@@ -61106,11 +61165,11 @@
       <c r="C231" s="4"/>
     </row>
     <row r="232" spans="1:3" ht="18.75">
-      <c r="A232" s="120" t="s">
+      <c r="A232" s="121" t="s">
         <v>355</v>
       </c>
-      <c r="B232" s="120"/>
-      <c r="C232" s="120"/>
+      <c r="B232" s="121"/>
+      <c r="C232" s="121"/>
     </row>
     <row r="233" spans="1:3" ht="15.75">
       <c r="A233" s="29" t="s">
@@ -61334,11 +61393,11 @@
       <c r="C263" s="4"/>
     </row>
     <row r="264" spans="1:3" ht="18.75">
-      <c r="A264" s="120" t="s">
+      <c r="A264" s="121" t="s">
         <v>385</v>
       </c>
-      <c r="B264" s="120"/>
-      <c r="C264" s="120"/>
+      <c r="B264" s="121"/>
+      <c r="C264" s="121"/>
     </row>
     <row r="265" spans="1:3" ht="15.75">
       <c r="A265" s="29" t="s">
@@ -61562,11 +61621,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="18.75">
-      <c r="A296" s="120" t="s">
+      <c r="A296" s="121" t="s">
         <v>415</v>
       </c>
-      <c r="B296" s="120"/>
-      <c r="C296" s="120"/>
+      <c r="B296" s="121"/>
+      <c r="C296" s="121"/>
     </row>
     <row r="297" spans="1:3" ht="15.75">
       <c r="A297" s="29" t="s">
@@ -61790,11 +61849,11 @@
       <c r="C327" s="4"/>
     </row>
     <row r="328" spans="1:3" ht="18.75">
-      <c r="A328" s="120" t="s">
+      <c r="A328" s="121" t="s">
         <v>446</v>
       </c>
-      <c r="B328" s="120"/>
-      <c r="C328" s="120"/>
+      <c r="B328" s="121"/>
+      <c r="C328" s="121"/>
     </row>
     <row r="329" spans="1:3" ht="15.75">
       <c r="A329" s="29" t="s">
@@ -62018,11 +62077,11 @@
       <c r="C359" s="4"/>
     </row>
     <row r="360" spans="1:3" ht="18.75">
-      <c r="A360" s="120" t="s">
+      <c r="A360" s="121" t="s">
         <v>476</v>
       </c>
-      <c r="B360" s="120"/>
-      <c r="C360" s="120"/>
+      <c r="B360" s="121"/>
+      <c r="C360" s="121"/>
     </row>
     <row r="361" spans="1:3" ht="15.75">
       <c r="A361" s="29" t="s">
@@ -62240,6 +62299,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E58:T58"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="E57:T57"/>
     <mergeCell ref="A264:C264"/>
     <mergeCell ref="A296:C296"/>
     <mergeCell ref="A328:C328"/>
@@ -62250,11 +62314,6 @@
     <mergeCell ref="A167:C167"/>
     <mergeCell ref="A200:C200"/>
     <mergeCell ref="A232:C232"/>
-    <mergeCell ref="E58:T58"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="E57:T57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datasets/well1.xlsx
+++ b/datasets/well1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliyu\Documents\Machine Learning\Work\back-allocation-using-machine-learning\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB2CB6A-2577-4EBF-A98B-108205A27D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B923A44D-188F-42DA-BA1E-08CC024976F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full History" sheetId="4" r:id="rId1"/>
@@ -3777,39 +3777,56 @@
     <xf numFmtId="1" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="8" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="20" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3841,61 +3858,44 @@
     <xf numFmtId="0" fontId="11" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="20" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -44490,9 +44490,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -44530,9 +44530,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -44565,26 +44565,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -44617,26 +44600,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -44813,65 +44779,65 @@
   <dimension ref="A1:AC210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="17" customWidth="1"/>
-    <col min="3" max="4" width="7.42578125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="17" customWidth="1"/>
+    <col min="3" max="4" width="7.44140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="17" customWidth="1"/>
     <col min="7" max="7" width="10" style="17" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="28"/>
-    <col min="11" max="11" width="10.85546875" style="17" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" style="17" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" style="17" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="17" customWidth="1"/>
-    <col min="15" max="23" width="9.140625" style="17"/>
-    <col min="24" max="24" width="10.42578125" style="17" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" style="17" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="17" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="17"/>
+    <col min="8" max="8" width="11.109375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" style="17" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="28"/>
+    <col min="11" max="11" width="10.88671875" style="17" customWidth="1"/>
+    <col min="12" max="12" width="7.5546875" style="17" customWidth="1"/>
+    <col min="13" max="13" width="6.44140625" style="17" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="17" customWidth="1"/>
+    <col min="15" max="23" width="9.109375" style="17"/>
+    <col min="24" max="24" width="10.44140625" style="17" customWidth="1"/>
+    <col min="25" max="25" width="10.109375" style="17" customWidth="1"/>
+    <col min="26" max="26" width="11.44140625" style="17" customWidth="1"/>
+    <col min="27" max="16384" width="9.109375" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39.75" customHeight="1">
-      <c r="A1" s="90"/>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="92"/>
+      <c r="A1" s="112"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="114"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="93" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="94"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="116"/>
     </row>
     <row r="3" spans="1:13" s="18" customFormat="1" ht="36" customHeight="1">
       <c r="A3" s="24" t="s">
@@ -44918,7 +44884,7 @@
       <c r="A4" s="36">
         <v>36178</v>
       </c>
-      <c r="B4" s="123">
+      <c r="B4" s="84">
         <v>36179</v>
       </c>
       <c r="C4" s="37">
@@ -44957,7 +44923,7 @@
       <c r="A5" s="46">
         <v>36196</v>
       </c>
-      <c r="B5" s="124">
+      <c r="B5" s="85">
         <v>36180</v>
       </c>
       <c r="C5" s="47">
@@ -44997,7 +44963,7 @@
       <c r="A6" s="46">
         <v>36197</v>
       </c>
-      <c r="B6" s="124">
+      <c r="B6" s="85">
         <v>36181</v>
       </c>
       <c r="C6" s="47">
@@ -45037,7 +45003,7 @@
       <c r="A7" s="46">
         <v>36199</v>
       </c>
-      <c r="B7" s="124">
+      <c r="B7" s="85">
         <v>36182</v>
       </c>
       <c r="C7" s="47">
@@ -45077,7 +45043,7 @@
       <c r="A8" s="46">
         <v>36200</v>
       </c>
-      <c r="B8" s="124">
+      <c r="B8" s="85">
         <v>36185</v>
       </c>
       <c r="C8" s="47">
@@ -45117,7 +45083,7 @@
       <c r="A9" s="46">
         <v>36202</v>
       </c>
-      <c r="B9" s="124">
+      <c r="B9" s="85">
         <v>36186</v>
       </c>
       <c r="C9" s="47">
@@ -45157,7 +45123,7 @@
       <c r="A10" s="46">
         <v>36207</v>
       </c>
-      <c r="B10" s="124">
+      <c r="B10" s="85">
         <v>36187</v>
       </c>
       <c r="C10" s="47">
@@ -45197,7 +45163,7 @@
       <c r="A11" s="46">
         <v>36208</v>
       </c>
-      <c r="B11" s="124">
+      <c r="B11" s="85">
         <v>36188</v>
       </c>
       <c r="C11" s="47">
@@ -45237,7 +45203,7 @@
       <c r="A12" s="46">
         <v>36209</v>
       </c>
-      <c r="B12" s="124">
+      <c r="B12" s="85">
         <v>36191</v>
       </c>
       <c r="C12" s="47">
@@ -45277,7 +45243,7 @@
       <c r="A13" s="46">
         <v>36214</v>
       </c>
-      <c r="B13" s="124">
+      <c r="B13" s="85">
         <v>36193</v>
       </c>
       <c r="C13" s="47">
@@ -45317,7 +45283,7 @@
       <c r="A14" s="46">
         <v>36216</v>
       </c>
-      <c r="B14" s="124">
+      <c r="B14" s="85">
         <v>36194</v>
       </c>
       <c r="C14" s="47">
@@ -45357,7 +45323,7 @@
       <c r="A15" s="46">
         <v>36217</v>
       </c>
-      <c r="B15" s="124">
+      <c r="B15" s="85">
         <v>36197</v>
       </c>
       <c r="C15" s="47">
@@ -45397,7 +45363,7 @@
       <c r="A16" s="46">
         <v>36227</v>
       </c>
-      <c r="B16" s="124">
+      <c r="B16" s="85">
         <v>36199</v>
       </c>
       <c r="C16" s="47">
@@ -45439,7 +45405,7 @@
       <c r="A17" s="46">
         <v>36242</v>
       </c>
-      <c r="B17" s="124">
+      <c r="B17" s="85">
         <v>36201</v>
       </c>
       <c r="C17" s="47">
@@ -45479,7 +45445,7 @@
       <c r="A18" s="46">
         <v>36243</v>
       </c>
-      <c r="B18" s="124">
+      <c r="B18" s="85">
         <v>36207</v>
       </c>
       <c r="C18" s="47">
@@ -45521,7 +45487,7 @@
       <c r="A19" s="46">
         <v>36245</v>
       </c>
-      <c r="B19" s="124">
+      <c r="B19" s="85">
         <v>36208</v>
       </c>
       <c r="C19" s="47">
@@ -45563,7 +45529,7 @@
       <c r="A20" s="46">
         <v>36248</v>
       </c>
-      <c r="B20" s="124">
+      <c r="B20" s="85">
         <v>36209</v>
       </c>
       <c r="C20" s="47">
@@ -45605,7 +45571,7 @@
       <c r="A21" s="46">
         <v>36251</v>
       </c>
-      <c r="B21" s="124">
+      <c r="B21" s="85">
         <v>36211</v>
       </c>
       <c r="C21" s="47">
@@ -45647,7 +45613,7 @@
       <c r="A22" s="46">
         <v>36256</v>
       </c>
-      <c r="B22" s="124">
+      <c r="B22" s="85">
         <v>36213</v>
       </c>
       <c r="C22" s="47">
@@ -45689,7 +45655,7 @@
       <c r="A23" s="46">
         <v>36261</v>
       </c>
-      <c r="B23" s="124">
+      <c r="B23" s="85">
         <v>36217</v>
       </c>
       <c r="C23" s="47">
@@ -45731,7 +45697,7 @@
       <c r="A24" s="46">
         <v>36267</v>
       </c>
-      <c r="B24" s="124">
+      <c r="B24" s="85">
         <v>36218</v>
       </c>
       <c r="C24" s="47">
@@ -45773,7 +45739,7 @@
       <c r="A25" s="46">
         <v>36272</v>
       </c>
-      <c r="B25" s="124">
+      <c r="B25" s="85">
         <v>36222</v>
       </c>
       <c r="C25" s="47">
@@ -45815,7 +45781,7 @@
       <c r="A26" s="46">
         <v>36275</v>
       </c>
-      <c r="B26" s="124">
+      <c r="B26" s="85">
         <v>36226</v>
       </c>
       <c r="C26" s="47">
@@ -45857,7 +45823,7 @@
       <c r="A27" s="46">
         <v>36281</v>
       </c>
-      <c r="B27" s="124">
+      <c r="B27" s="85">
         <v>36227</v>
       </c>
       <c r="C27" s="47">
@@ -45899,7 +45865,7 @@
       <c r="A28" s="46">
         <v>36284</v>
       </c>
-      <c r="B28" s="124">
+      <c r="B28" s="85">
         <v>36228</v>
       </c>
       <c r="C28" s="47">
@@ -45941,7 +45907,7 @@
       <c r="A29" s="46">
         <v>36288</v>
       </c>
-      <c r="B29" s="124">
+      <c r="B29" s="85">
         <v>36233</v>
       </c>
       <c r="C29" s="47">
@@ -45983,7 +45949,7 @@
       <c r="A30" s="46">
         <v>36291</v>
       </c>
-      <c r="B30" s="124">
+      <c r="B30" s="85">
         <v>36234</v>
       </c>
       <c r="C30" s="47">
@@ -46023,7 +45989,7 @@
       <c r="A31" s="46">
         <v>36294</v>
       </c>
-      <c r="B31" s="124">
+      <c r="B31" s="85">
         <v>36235</v>
       </c>
       <c r="C31" s="47">
@@ -46065,7 +46031,7 @@
       <c r="A32" s="46">
         <v>36298</v>
       </c>
-      <c r="B32" s="124">
+      <c r="B32" s="85">
         <v>36236</v>
       </c>
       <c r="C32" s="47">
@@ -46107,7 +46073,7 @@
       <c r="A33" s="46">
         <v>36299</v>
       </c>
-      <c r="B33" s="124">
+      <c r="B33" s="85">
         <v>36244</v>
       </c>
       <c r="C33" s="47">
@@ -46147,7 +46113,7 @@
       <c r="A34" s="46">
         <v>36300</v>
       </c>
-      <c r="B34" s="124">
+      <c r="B34" s="85">
         <v>36249</v>
       </c>
       <c r="C34" s="47">
@@ -46189,7 +46155,7 @@
       <c r="A35" s="46">
         <v>36304</v>
       </c>
-      <c r="B35" s="124">
+      <c r="B35" s="85">
         <v>36251</v>
       </c>
       <c r="C35" s="47">
@@ -46231,7 +46197,7 @@
       <c r="A36" s="46">
         <v>36307</v>
       </c>
-      <c r="B36" s="124">
+      <c r="B36" s="85">
         <v>36257</v>
       </c>
       <c r="C36" s="47">
@@ -46273,7 +46239,7 @@
       <c r="A37" s="46">
         <v>36311</v>
       </c>
-      <c r="B37" s="124">
+      <c r="B37" s="85">
         <v>36262</v>
       </c>
       <c r="C37" s="47">
@@ -46315,7 +46281,7 @@
       <c r="A38" s="46">
         <v>36316</v>
       </c>
-      <c r="B38" s="124">
+      <c r="B38" s="85">
         <v>36265</v>
       </c>
       <c r="C38" s="47">
@@ -46357,7 +46323,7 @@
       <c r="A39" s="46">
         <v>36321</v>
       </c>
-      <c r="B39" s="124">
+      <c r="B39" s="85">
         <v>36268</v>
       </c>
       <c r="C39" s="47">
@@ -46399,7 +46365,7 @@
       <c r="A40" s="46">
         <v>36325</v>
       </c>
-      <c r="B40" s="124">
+      <c r="B40" s="85">
         <v>36269</v>
       </c>
       <c r="C40" s="47">
@@ -46441,7 +46407,7 @@
       <c r="A41" s="46">
         <v>36330</v>
       </c>
-      <c r="B41" s="124">
+      <c r="B41" s="85">
         <v>36272</v>
       </c>
       <c r="C41" s="47">
@@ -46483,7 +46449,7 @@
       <c r="A42" s="46">
         <v>36331</v>
       </c>
-      <c r="B42" s="124">
+      <c r="B42" s="85">
         <v>36276</v>
       </c>
       <c r="C42" s="47">
@@ -46523,7 +46489,7 @@
       <c r="A43" s="46">
         <v>36335</v>
       </c>
-      <c r="B43" s="124">
+      <c r="B43" s="85">
         <v>36280</v>
       </c>
       <c r="C43" s="47">
@@ -46565,7 +46531,7 @@
       <c r="A44" s="46">
         <v>36338</v>
       </c>
-      <c r="B44" s="124">
+      <c r="B44" s="85">
         <v>36285</v>
       </c>
       <c r="C44" s="47">
@@ -46607,7 +46573,7 @@
       <c r="A45" s="46">
         <v>36342</v>
       </c>
-      <c r="B45" s="124">
+      <c r="B45" s="85">
         <v>36288</v>
       </c>
       <c r="C45" s="47">
@@ -46649,7 +46615,7 @@
       <c r="A46" s="46">
         <v>36346</v>
       </c>
-      <c r="B46" s="124">
+      <c r="B46" s="85">
         <v>36291</v>
       </c>
       <c r="C46" s="47">
@@ -46691,7 +46657,7 @@
       <c r="A47" s="46">
         <v>36354</v>
       </c>
-      <c r="B47" s="124">
+      <c r="B47" s="85">
         <v>36295</v>
       </c>
       <c r="C47" s="47">
@@ -46733,7 +46699,7 @@
       <c r="A48" s="46">
         <v>36361</v>
       </c>
-      <c r="B48" s="124">
+      <c r="B48" s="85">
         <v>36298</v>
       </c>
       <c r="C48" s="47">
@@ -46775,7 +46741,7 @@
       <c r="A49" s="46">
         <v>36365</v>
       </c>
-      <c r="B49" s="124">
+      <c r="B49" s="85">
         <v>36303</v>
       </c>
       <c r="C49" s="47">
@@ -46817,7 +46783,7 @@
       <c r="A50" s="46">
         <v>36369</v>
       </c>
-      <c r="B50" s="124">
+      <c r="B50" s="85">
         <v>36306</v>
       </c>
       <c r="C50" s="47">
@@ -46857,7 +46823,7 @@
       <c r="A51" s="46">
         <v>36375</v>
       </c>
-      <c r="B51" s="124">
+      <c r="B51" s="85">
         <v>36310</v>
       </c>
       <c r="C51" s="56">
@@ -46899,7 +46865,7 @@
       <c r="A52" s="46">
         <v>36377</v>
       </c>
-      <c r="B52" s="124">
+      <c r="B52" s="85">
         <v>36315</v>
       </c>
       <c r="C52" s="56">
@@ -46941,7 +46907,7 @@
       <c r="A53" s="46">
         <v>36382</v>
       </c>
-      <c r="B53" s="124">
+      <c r="B53" s="85">
         <v>36320</v>
       </c>
       <c r="C53" s="56">
@@ -46983,7 +46949,7 @@
       <c r="A54" s="46">
         <v>36386</v>
       </c>
-      <c r="B54" s="124">
+      <c r="B54" s="85">
         <v>36324</v>
       </c>
       <c r="C54" s="56">
@@ -47025,7 +46991,7 @@
       <c r="A55" s="46">
         <v>36403</v>
       </c>
-      <c r="B55" s="124">
+      <c r="B55" s="85">
         <v>36327</v>
       </c>
       <c r="C55" s="56">
@@ -47067,7 +47033,7 @@
       <c r="A56" s="46">
         <v>36412</v>
       </c>
-      <c r="B56" s="124">
+      <c r="B56" s="85">
         <v>36331</v>
       </c>
       <c r="C56" s="56">
@@ -47109,7 +47075,7 @@
       <c r="A57" s="46">
         <v>36416</v>
       </c>
-      <c r="B57" s="124">
+      <c r="B57" s="85">
         <v>36335</v>
       </c>
       <c r="C57" s="56">
@@ -47151,7 +47117,7 @@
       <c r="A58" s="46">
         <v>36419</v>
       </c>
-      <c r="B58" s="124">
+      <c r="B58" s="85">
         <v>36339</v>
       </c>
       <c r="C58" s="56">
@@ -47193,7 +47159,7 @@
       <c r="A59" s="46">
         <v>36430</v>
       </c>
-      <c r="B59" s="124">
+      <c r="B59" s="85">
         <v>36343</v>
       </c>
       <c r="C59" s="56">
@@ -47235,7 +47201,7 @@
       <c r="A60" s="46">
         <v>36449</v>
       </c>
-      <c r="B60" s="124">
+      <c r="B60" s="85">
         <v>36347</v>
       </c>
       <c r="C60" s="56">
@@ -47277,7 +47243,7 @@
       <c r="A61" s="46">
         <v>36454</v>
       </c>
-      <c r="B61" s="124">
+      <c r="B61" s="85">
         <v>36350</v>
       </c>
       <c r="C61" s="56">
@@ -47319,7 +47285,7 @@
       <c r="A62" s="46">
         <v>36468</v>
       </c>
-      <c r="B62" s="124">
+      <c r="B62" s="85">
         <v>36352</v>
       </c>
       <c r="C62" s="56">
@@ -47361,7 +47327,7 @@
       <c r="A63" s="46">
         <v>36493</v>
       </c>
-      <c r="B63" s="124">
+      <c r="B63" s="85">
         <v>36360</v>
       </c>
       <c r="C63" s="56">
@@ -47403,7 +47369,7 @@
       <c r="A64" s="46">
         <v>36503</v>
       </c>
-      <c r="B64" s="124">
+      <c r="B64" s="85">
         <v>36364</v>
       </c>
       <c r="C64" s="56">
@@ -47445,7 +47411,7 @@
       <c r="A65" s="46">
         <v>36512</v>
       </c>
-      <c r="B65" s="124">
+      <c r="B65" s="85">
         <v>36368</v>
       </c>
       <c r="C65" s="56">
@@ -47487,7 +47453,7 @@
       <c r="A66" s="46">
         <v>36516</v>
       </c>
-      <c r="B66" s="124">
+      <c r="B66" s="85">
         <v>36370</v>
       </c>
       <c r="C66" s="56">
@@ -47529,7 +47495,7 @@
       <c r="A67" s="46">
         <v>36527</v>
       </c>
-      <c r="B67" s="124">
+      <c r="B67" s="85">
         <v>36381</v>
       </c>
       <c r="C67" s="56">
@@ -47571,7 +47537,7 @@
       <c r="A68" s="46">
         <v>36586</v>
       </c>
-      <c r="B68" s="124">
+      <c r="B68" s="85">
         <v>36385</v>
       </c>
       <c r="C68" s="56">
@@ -47613,7 +47579,7 @@
       <c r="A69" s="46">
         <v>36596</v>
       </c>
-      <c r="B69" s="124">
+      <c r="B69" s="85">
         <v>36390</v>
       </c>
       <c r="C69" s="56">
@@ -47655,7 +47621,7 @@
       <c r="A70" s="46">
         <v>36614</v>
       </c>
-      <c r="B70" s="124">
+      <c r="B70" s="85">
         <v>36394</v>
       </c>
       <c r="C70" s="56">
@@ -47697,7 +47663,7 @@
       <c r="A71" s="46">
         <v>36623</v>
       </c>
-      <c r="B71" s="124">
+      <c r="B71" s="85">
         <v>36407</v>
       </c>
       <c r="C71" s="56">
@@ -47739,7 +47705,7 @@
       <c r="A72" s="46">
         <v>36664</v>
       </c>
-      <c r="B72" s="124">
+      <c r="B72" s="85">
         <v>36413</v>
       </c>
       <c r="C72" s="56">
@@ -47781,7 +47747,7 @@
       <c r="A73" s="46">
         <v>36676</v>
       </c>
-      <c r="B73" s="124">
+      <c r="B73" s="85">
         <v>36420</v>
       </c>
       <c r="C73" s="56">
@@ -47823,7 +47789,7 @@
       <c r="A74" s="46">
         <v>36685</v>
       </c>
-      <c r="B74" s="124">
+      <c r="B74" s="85">
         <v>36428</v>
       </c>
       <c r="C74" s="56">
@@ -47865,7 +47831,7 @@
       <c r="A75" s="46">
         <v>36703</v>
       </c>
-      <c r="B75" s="124">
+      <c r="B75" s="85">
         <v>36433</v>
       </c>
       <c r="C75" s="56">
@@ -47905,7 +47871,7 @@
       <c r="A76" s="46">
         <v>36712</v>
       </c>
-      <c r="B76" s="124">
+      <c r="B76" s="85">
         <v>36439</v>
       </c>
       <c r="C76" s="56">
@@ -47947,7 +47913,7 @@
       <c r="A77" s="46">
         <v>36733</v>
       </c>
-      <c r="B77" s="124">
+      <c r="B77" s="85">
         <v>36444</v>
       </c>
       <c r="C77" s="56">
@@ -47989,7 +47955,7 @@
       <c r="A78" s="46">
         <v>36757</v>
       </c>
-      <c r="B78" s="124">
+      <c r="B78" s="85">
         <v>36456</v>
       </c>
       <c r="C78" s="56">
@@ -48031,7 +47997,7 @@
       <c r="A79" s="46">
         <v>36766</v>
       </c>
-      <c r="B79" s="124">
+      <c r="B79" s="85">
         <v>36460</v>
       </c>
       <c r="C79" s="56">
@@ -48071,7 +48037,7 @@
       <c r="A80" s="46">
         <v>36778</v>
       </c>
-      <c r="B80" s="124">
+      <c r="B80" s="85">
         <v>36474</v>
       </c>
       <c r="C80" s="56">
@@ -48113,7 +48079,7 @@
       <c r="A81" s="46">
         <v>36781</v>
       </c>
-      <c r="B81" s="124">
+      <c r="B81" s="85">
         <v>36505</v>
       </c>
       <c r="C81" s="56">
@@ -48155,7 +48121,7 @@
       <c r="A82" s="46">
         <v>36784</v>
       </c>
-      <c r="B82" s="124">
+      <c r="B82" s="85">
         <v>36513</v>
       </c>
       <c r="C82" s="56">
@@ -48197,7 +48163,7 @@
       <c r="A83" s="46">
         <v>36798</v>
       </c>
-      <c r="B83" s="124">
+      <c r="B83" s="85">
         <v>36519</v>
       </c>
       <c r="C83" s="56">
@@ -48234,7 +48200,7 @@
       <c r="A84" s="46">
         <v>36812</v>
       </c>
-      <c r="B84" s="124">
+      <c r="B84" s="85">
         <v>36531</v>
       </c>
       <c r="C84" s="56">
@@ -48276,7 +48242,7 @@
       <c r="A85" s="46">
         <v>36827</v>
       </c>
-      <c r="B85" s="124">
+      <c r="B85" s="85">
         <v>36536</v>
       </c>
       <c r="C85" s="56">
@@ -48318,7 +48284,7 @@
       <c r="A86" s="46">
         <v>36835</v>
       </c>
-      <c r="B86" s="124">
+      <c r="B86" s="85">
         <v>36548</v>
       </c>
       <c r="C86" s="56">
@@ -48360,7 +48326,7 @@
       <c r="A87" s="46">
         <v>36860</v>
       </c>
-      <c r="B87" s="124">
+      <c r="B87" s="85">
         <v>36556</v>
       </c>
       <c r="C87" s="56">
@@ -48400,7 +48366,7 @@
       <c r="A88" s="46">
         <v>36896</v>
       </c>
-      <c r="B88" s="124">
+      <c r="B88" s="85">
         <v>36566</v>
       </c>
       <c r="C88" s="56">
@@ -48442,7 +48408,7 @@
       <c r="A89" s="46">
         <v>36911</v>
       </c>
-      <c r="B89" s="124">
+      <c r="B89" s="85">
         <v>36576</v>
       </c>
       <c r="C89" s="56">
@@ -48484,7 +48450,7 @@
       <c r="A90" s="46">
         <v>36931</v>
       </c>
-      <c r="B90" s="124">
+      <c r="B90" s="85">
         <v>36582</v>
       </c>
       <c r="C90" s="56">
@@ -48526,7 +48492,7 @@
       <c r="A91" s="46">
         <v>36935</v>
       </c>
-      <c r="B91" s="124">
+      <c r="B91" s="85">
         <v>36590</v>
       </c>
       <c r="C91" s="56">
@@ -48568,7 +48534,7 @@
       <c r="A92" s="46">
         <v>36946</v>
       </c>
-      <c r="B92" s="124">
+      <c r="B92" s="85">
         <v>36602</v>
       </c>
       <c r="C92" s="56">
@@ -48610,7 +48576,7 @@
       <c r="A93" s="46">
         <v>36953</v>
       </c>
-      <c r="B93" s="124">
+      <c r="B93" s="85">
         <v>36622</v>
       </c>
       <c r="C93" s="56">
@@ -48652,7 +48618,7 @@
       <c r="A94" s="46">
         <v>36998</v>
       </c>
-      <c r="B94" s="124">
+      <c r="B94" s="85">
         <v>36629</v>
       </c>
       <c r="C94" s="56">
@@ -48694,7 +48660,7 @@
       <c r="A95" s="46">
         <v>37018</v>
       </c>
-      <c r="B95" s="124">
+      <c r="B95" s="85">
         <v>36632</v>
       </c>
       <c r="C95" s="56">
@@ -48736,7 +48702,7 @@
       <c r="A96" s="46">
         <v>37044</v>
       </c>
-      <c r="B96" s="124">
+      <c r="B96" s="85">
         <v>36645</v>
       </c>
       <c r="C96" s="56">
@@ -48778,7 +48744,7 @@
       <c r="A97" s="46">
         <v>37074</v>
       </c>
-      <c r="B97" s="124">
+      <c r="B97" s="85">
         <v>36651</v>
       </c>
       <c r="C97" s="56">
@@ -48821,7 +48787,7 @@
       <c r="A98" s="46">
         <v>37103</v>
       </c>
-      <c r="B98" s="124">
+      <c r="B98" s="85">
         <v>36659</v>
       </c>
       <c r="C98" s="56">
@@ -48864,7 +48830,7 @@
       <c r="A99" s="46">
         <v>37166</v>
       </c>
-      <c r="B99" s="124">
+      <c r="B99" s="85">
         <v>36668</v>
       </c>
       <c r="C99" s="56"/>
@@ -48905,7 +48871,7 @@
       <c r="A100" s="46">
         <v>37190</v>
       </c>
-      <c r="B100" s="124">
+      <c r="B100" s="85">
         <v>36670</v>
       </c>
       <c r="C100" s="56"/>
@@ -48946,7 +48912,7 @@
       <c r="A101" s="46">
         <v>37217</v>
       </c>
-      <c r="B101" s="124">
+      <c r="B101" s="85">
         <v>36679</v>
       </c>
       <c r="C101" s="56"/>
@@ -48987,7 +48953,7 @@
       <c r="A102" s="46">
         <v>37237</v>
       </c>
-      <c r="B102" s="124">
+      <c r="B102" s="85">
         <v>36688</v>
       </c>
       <c r="C102" s="56"/>
@@ -49028,7 +48994,7 @@
       <c r="A103" s="46">
         <v>37267</v>
       </c>
-      <c r="B103" s="124">
+      <c r="B103" s="85">
         <v>36720</v>
       </c>
       <c r="C103" s="56"/>
@@ -49069,7 +49035,7 @@
       <c r="A104" s="46">
         <v>37299</v>
       </c>
-      <c r="B104" s="124">
+      <c r="B104" s="85">
         <v>36735</v>
       </c>
       <c r="C104" s="56"/>
@@ -49110,7 +49076,7 @@
       <c r="A105" s="46">
         <v>37325</v>
       </c>
-      <c r="B105" s="124">
+      <c r="B105" s="85">
         <v>36749</v>
       </c>
       <c r="C105" s="56"/>
@@ -49151,7 +49117,7 @@
       <c r="A106" s="46">
         <v>37356</v>
       </c>
-      <c r="B106" s="124">
+      <c r="B106" s="85">
         <v>36754</v>
       </c>
       <c r="C106" s="56"/>
@@ -49188,11 +49154,11 @@
       </c>
       <c r="M106" s="61"/>
     </row>
-    <row r="107" spans="1:26" ht="16.5" thickBot="1">
+    <row r="107" spans="1:26" ht="16.2" thickBot="1">
       <c r="A107" s="46">
         <v>37377</v>
       </c>
-      <c r="B107" s="124">
+      <c r="B107" s="85">
         <v>36760</v>
       </c>
       <c r="C107" s="56"/>
@@ -49233,7 +49199,7 @@
       <c r="A108" s="46">
         <v>37410</v>
       </c>
-      <c r="B108" s="124">
+      <c r="B108" s="85">
         <v>36793</v>
       </c>
       <c r="C108" s="56"/>
@@ -49269,24 +49235,24 @@
         <v>2016.5244069135204</v>
       </c>
       <c r="M108" s="61"/>
-      <c r="U108" s="95" t="s">
+      <c r="U108" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="V108" s="84"/>
-      <c r="W108" s="84" t="s">
+      <c r="V108" s="118"/>
+      <c r="W108" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="X108" s="84"/>
-      <c r="Y108" s="84" t="s">
+      <c r="X108" s="118"/>
+      <c r="Y108" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="Z108" s="84"/>
+      <c r="Z108" s="118"/>
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" thickTop="1">
       <c r="A109" s="46">
         <v>37438</v>
       </c>
-      <c r="B109" s="124">
+      <c r="B109" s="85">
         <v>36799</v>
       </c>
       <c r="C109" s="56"/>
@@ -49324,24 +49290,24 @@
       <c r="M109" s="61"/>
       <c r="R109"/>
       <c r="S109" s="73"/>
-      <c r="U109" s="85" t="s">
+      <c r="U109" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="V109" s="86"/>
-      <c r="W109" s="85" t="s">
+      <c r="V109" s="120"/>
+      <c r="W109" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="X109" s="86"/>
-      <c r="Y109" s="87" t="s">
+      <c r="X109" s="120"/>
+      <c r="Y109" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="Z109" s="87"/>
+      <c r="Z109" s="121"/>
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1">
       <c r="A110" s="46">
         <v>37468</v>
       </c>
-      <c r="B110" s="124">
+      <c r="B110" s="85">
         <v>36808</v>
       </c>
       <c r="C110" s="56"/>
@@ -49379,24 +49345,24 @@
       <c r="M110" s="61"/>
       <c r="R110"/>
       <c r="S110" s="74"/>
-      <c r="U110" s="88" t="s">
+      <c r="U110" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="V110" s="88"/>
-      <c r="W110" s="88" t="s">
+      <c r="V110" s="122"/>
+      <c r="W110" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="X110" s="88"/>
-      <c r="Y110" s="88" t="s">
+      <c r="X110" s="122"/>
+      <c r="Y110" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="Z110" s="88"/>
+      <c r="Z110" s="122"/>
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1">
       <c r="A111" s="46">
         <v>37504</v>
       </c>
-      <c r="B111" s="124">
+      <c r="B111" s="85">
         <v>36824</v>
       </c>
       <c r="C111" s="56"/>
@@ -49434,24 +49400,24 @@
       <c r="M111" s="61"/>
       <c r="R111"/>
       <c r="S111" s="75"/>
-      <c r="U111" s="108" t="s">
+      <c r="U111" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="V111" s="108"/>
-      <c r="W111" s="108" t="s">
+      <c r="V111" s="96"/>
+      <c r="W111" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="X111" s="108"/>
-      <c r="Y111" s="108" t="s">
+      <c r="X111" s="96"/>
+      <c r="Y111" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="Z111" s="108"/>
+      <c r="Z111" s="96"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1">
       <c r="A112" s="46">
         <v>37517</v>
       </c>
-      <c r="B112" s="124">
+      <c r="B112" s="85">
         <v>36843</v>
       </c>
       <c r="C112" s="56"/>
@@ -49489,24 +49455,24 @@
       <c r="M112" s="61"/>
       <c r="R112"/>
       <c r="S112" s="75"/>
-      <c r="U112" s="110" t="s">
+      <c r="U112" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="V112" s="110"/>
-      <c r="W112" s="110" t="s">
+      <c r="V112" s="98"/>
+      <c r="W112" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="X112" s="110"/>
-      <c r="Y112" s="110" t="s">
+      <c r="X112" s="98"/>
+      <c r="Y112" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="Z112" s="110"/>
-    </row>
-    <row r="113" spans="1:29" ht="16.5" thickBot="1">
+      <c r="Z112" s="98"/>
+    </row>
+    <row r="113" spans="1:29" ht="16.2" thickBot="1">
       <c r="A113" s="46">
         <v>37531</v>
       </c>
-      <c r="B113" s="124">
+      <c r="B113" s="85">
         <v>36845</v>
       </c>
       <c r="C113" s="56"/>
@@ -49544,24 +49510,24 @@
       <c r="M113" s="61"/>
       <c r="R113"/>
       <c r="S113" s="75"/>
-      <c r="U113" s="111" t="s">
+      <c r="U113" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="V113" s="112"/>
-      <c r="W113" s="111" t="s">
+      <c r="V113" s="100"/>
+      <c r="W113" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="X113" s="112"/>
-      <c r="Y113" s="112" t="s">
+      <c r="X113" s="100"/>
+      <c r="Y113" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="Z113" s="112"/>
+      <c r="Z113" s="100"/>
     </row>
     <row r="114" spans="1:29" ht="16.5" customHeight="1" thickBot="1">
       <c r="A114" s="46">
         <v>37566</v>
       </c>
-      <c r="B114" s="124">
+      <c r="B114" s="85">
         <v>36857</v>
       </c>
       <c r="C114" s="56"/>
@@ -49606,7 +49572,7 @@
       <c r="A115" s="46">
         <v>37594</v>
       </c>
-      <c r="B115" s="124">
+      <c r="B115" s="85">
         <v>36887</v>
       </c>
       <c r="C115" s="56"/>
@@ -49642,28 +49608,28 @@
         <v>2043.9609368042982</v>
       </c>
       <c r="M115" s="61"/>
-      <c r="R115" s="99" t="s">
+      <c r="R115" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="S115" s="99"/>
-      <c r="T115" s="99"/>
-      <c r="U115" s="99"/>
-      <c r="V115" s="99"/>
-      <c r="W115" s="99"/>
-      <c r="X115" s="99"/>
-      <c r="Y115" s="99"/>
-      <c r="Z115" s="99"/>
-      <c r="AA115" s="102" t="s">
+      <c r="S115" s="104"/>
+      <c r="T115" s="104"/>
+      <c r="U115" s="104"/>
+      <c r="V115" s="104"/>
+      <c r="W115" s="104"/>
+      <c r="X115" s="104"/>
+      <c r="Y115" s="104"/>
+      <c r="Z115" s="104"/>
+      <c r="AA115" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="AB115" s="102"/>
-      <c r="AC115" s="102"/>
+      <c r="AB115" s="107"/>
+      <c r="AC115" s="107"/>
     </row>
     <row r="116" spans="1:29" ht="15.75" customHeight="1">
       <c r="A116" s="46">
         <v>37628</v>
       </c>
-      <c r="B116" s="124">
+      <c r="B116" s="85">
         <v>36902</v>
       </c>
       <c r="C116" s="56"/>
@@ -49699,24 +49665,24 @@
         <v>2062.9866810979825</v>
       </c>
       <c r="M116" s="61"/>
-      <c r="R116" s="100"/>
-      <c r="S116" s="100"/>
-      <c r="T116" s="100"/>
-      <c r="U116" s="100"/>
-      <c r="V116" s="100"/>
-      <c r="W116" s="100"/>
-      <c r="X116" s="100"/>
-      <c r="Y116" s="100"/>
-      <c r="Z116" s="100"/>
-      <c r="AA116" s="103"/>
-      <c r="AB116" s="103"/>
-      <c r="AC116" s="103"/>
+      <c r="R116" s="105"/>
+      <c r="S116" s="105"/>
+      <c r="T116" s="105"/>
+      <c r="U116" s="105"/>
+      <c r="V116" s="105"/>
+      <c r="W116" s="105"/>
+      <c r="X116" s="105"/>
+      <c r="Y116" s="105"/>
+      <c r="Z116" s="105"/>
+      <c r="AA116" s="108"/>
+      <c r="AB116" s="108"/>
+      <c r="AC116" s="108"/>
     </row>
     <row r="117" spans="1:29" ht="15.75" customHeight="1">
       <c r="A117" s="46">
         <v>37657</v>
       </c>
-      <c r="B117" s="124">
+      <c r="B117" s="85">
         <v>36909</v>
       </c>
       <c r="C117" s="56"/>
@@ -49750,24 +49716,24 @@
         <v>1964.8104553941066</v>
       </c>
       <c r="M117" s="61"/>
-      <c r="R117" s="100"/>
-      <c r="S117" s="100"/>
-      <c r="T117" s="100"/>
-      <c r="U117" s="100"/>
-      <c r="V117" s="100"/>
-      <c r="W117" s="100"/>
-      <c r="X117" s="100"/>
-      <c r="Y117" s="100"/>
-      <c r="Z117" s="100"/>
-      <c r="AA117" s="103"/>
-      <c r="AB117" s="103"/>
-      <c r="AC117" s="103"/>
+      <c r="R117" s="105"/>
+      <c r="S117" s="105"/>
+      <c r="T117" s="105"/>
+      <c r="U117" s="105"/>
+      <c r="V117" s="105"/>
+      <c r="W117" s="105"/>
+      <c r="X117" s="105"/>
+      <c r="Y117" s="105"/>
+      <c r="Z117" s="105"/>
+      <c r="AA117" s="108"/>
+      <c r="AB117" s="108"/>
+      <c r="AC117" s="108"/>
     </row>
     <row r="118" spans="1:29" ht="15.75" customHeight="1">
       <c r="A118" s="46">
         <v>37685</v>
       </c>
-      <c r="B118" s="124">
+      <c r="B118" s="85">
         <v>36933</v>
       </c>
       <c r="C118" s="56"/>
@@ -49803,24 +49769,24 @@
         <v>1723.6846830669779</v>
       </c>
       <c r="M118" s="61"/>
-      <c r="R118" s="100"/>
-      <c r="S118" s="100"/>
-      <c r="T118" s="100"/>
-      <c r="U118" s="100"/>
-      <c r="V118" s="100"/>
-      <c r="W118" s="100"/>
-      <c r="X118" s="100"/>
-      <c r="Y118" s="100"/>
-      <c r="Z118" s="100"/>
-      <c r="AA118" s="103"/>
-      <c r="AB118" s="103"/>
-      <c r="AC118" s="103"/>
+      <c r="R118" s="105"/>
+      <c r="S118" s="105"/>
+      <c r="T118" s="105"/>
+      <c r="U118" s="105"/>
+      <c r="V118" s="105"/>
+      <c r="W118" s="105"/>
+      <c r="X118" s="105"/>
+      <c r="Y118" s="105"/>
+      <c r="Z118" s="105"/>
+      <c r="AA118" s="108"/>
+      <c r="AB118" s="108"/>
+      <c r="AC118" s="108"/>
     </row>
     <row r="119" spans="1:29" ht="15.75" customHeight="1">
       <c r="A119" s="46">
         <v>37714</v>
       </c>
-      <c r="B119" s="124">
+      <c r="B119" s="85">
         <v>36935</v>
       </c>
       <c r="C119" s="56"/>
@@ -49856,24 +49822,24 @@
         <v>1556.6508313539193</v>
       </c>
       <c r="M119" s="61"/>
-      <c r="R119" s="100"/>
-      <c r="S119" s="100"/>
-      <c r="T119" s="100"/>
-      <c r="U119" s="100"/>
-      <c r="V119" s="100"/>
-      <c r="W119" s="100"/>
-      <c r="X119" s="100"/>
-      <c r="Y119" s="100"/>
-      <c r="Z119" s="100"/>
-      <c r="AA119" s="103"/>
-      <c r="AB119" s="103"/>
-      <c r="AC119" s="103"/>
+      <c r="R119" s="105"/>
+      <c r="S119" s="105"/>
+      <c r="T119" s="105"/>
+      <c r="U119" s="105"/>
+      <c r="V119" s="105"/>
+      <c r="W119" s="105"/>
+      <c r="X119" s="105"/>
+      <c r="Y119" s="105"/>
+      <c r="Z119" s="105"/>
+      <c r="AA119" s="108"/>
+      <c r="AB119" s="108"/>
+      <c r="AC119" s="108"/>
     </row>
     <row r="120" spans="1:29" ht="15.75" customHeight="1">
       <c r="A120" s="46">
         <v>37750</v>
       </c>
-      <c r="B120" s="124">
+      <c r="B120" s="85">
         <v>36948</v>
       </c>
       <c r="C120" s="56"/>
@@ -49909,24 +49875,24 @@
         <v>1653.9242483404919</v>
       </c>
       <c r="M120" s="61"/>
-      <c r="R120" s="100"/>
-      <c r="S120" s="100"/>
-      <c r="T120" s="100"/>
-      <c r="U120" s="100"/>
-      <c r="V120" s="100"/>
-      <c r="W120" s="100"/>
-      <c r="X120" s="100"/>
-      <c r="Y120" s="100"/>
-      <c r="Z120" s="100"/>
-      <c r="AA120" s="103"/>
-      <c r="AB120" s="103"/>
-      <c r="AC120" s="103"/>
+      <c r="R120" s="105"/>
+      <c r="S120" s="105"/>
+      <c r="T120" s="105"/>
+      <c r="U120" s="105"/>
+      <c r="V120" s="105"/>
+      <c r="W120" s="105"/>
+      <c r="X120" s="105"/>
+      <c r="Y120" s="105"/>
+      <c r="Z120" s="105"/>
+      <c r="AA120" s="108"/>
+      <c r="AB120" s="108"/>
+      <c r="AC120" s="108"/>
     </row>
     <row r="121" spans="1:29" ht="15.75" customHeight="1">
       <c r="A121" s="46">
         <v>37783</v>
       </c>
-      <c r="B121" s="124">
+      <c r="B121" s="85">
         <v>36949</v>
       </c>
       <c r="C121" s="56"/>
@@ -49962,24 +49928,24 @@
         <v>1675.9837374764047</v>
       </c>
       <c r="M121" s="61"/>
-      <c r="R121" s="100"/>
-      <c r="S121" s="100"/>
-      <c r="T121" s="100"/>
-      <c r="U121" s="100"/>
-      <c r="V121" s="100"/>
-      <c r="W121" s="100"/>
-      <c r="X121" s="100"/>
-      <c r="Y121" s="100"/>
-      <c r="Z121" s="100"/>
-      <c r="AA121" s="103"/>
-      <c r="AB121" s="103"/>
-      <c r="AC121" s="103"/>
+      <c r="R121" s="105"/>
+      <c r="S121" s="105"/>
+      <c r="T121" s="105"/>
+      <c r="U121" s="105"/>
+      <c r="V121" s="105"/>
+      <c r="W121" s="105"/>
+      <c r="X121" s="105"/>
+      <c r="Y121" s="105"/>
+      <c r="Z121" s="105"/>
+      <c r="AA121" s="108"/>
+      <c r="AB121" s="108"/>
+      <c r="AC121" s="108"/>
     </row>
     <row r="122" spans="1:29" ht="18" customHeight="1">
       <c r="A122" s="46">
         <v>37816</v>
       </c>
-      <c r="B122" s="124">
+      <c r="B122" s="85">
         <v>36963</v>
       </c>
       <c r="C122" s="56"/>
@@ -50014,24 +49980,24 @@
         <v>1329.8016843249118</v>
       </c>
       <c r="M122" s="61"/>
-      <c r="R122" s="101"/>
-      <c r="S122" s="101"/>
-      <c r="T122" s="101"/>
-      <c r="U122" s="101"/>
-      <c r="V122" s="101"/>
-      <c r="W122" s="101"/>
-      <c r="X122" s="101"/>
-      <c r="Y122" s="101"/>
-      <c r="Z122" s="101"/>
-      <c r="AA122" s="104"/>
-      <c r="AB122" s="104"/>
-      <c r="AC122" s="104"/>
+      <c r="R122" s="106"/>
+      <c r="S122" s="106"/>
+      <c r="T122" s="106"/>
+      <c r="U122" s="106"/>
+      <c r="V122" s="106"/>
+      <c r="W122" s="106"/>
+      <c r="X122" s="106"/>
+      <c r="Y122" s="106"/>
+      <c r="Z122" s="106"/>
+      <c r="AA122" s="109"/>
+      <c r="AB122" s="109"/>
+      <c r="AC122" s="109"/>
     </row>
     <row r="123" spans="1:29" ht="16.5" customHeight="1" thickBot="1">
       <c r="A123" s="46">
         <v>37852</v>
       </c>
-      <c r="B123" s="124">
+      <c r="B123" s="85">
         <v>36970</v>
       </c>
       <c r="C123" s="56"/>
@@ -50066,26 +50032,26 @@
         <v>1677.1060078363082</v>
       </c>
       <c r="M123" s="61"/>
-      <c r="R123" s="97"/>
-      <c r="S123" s="97"/>
-      <c r="T123" s="97"/>
-      <c r="U123" s="97"/>
-      <c r="V123" s="97"/>
-      <c r="W123" s="97"/>
-      <c r="X123" s="97"/>
-      <c r="Y123" s="97"/>
-      <c r="Z123" s="97"/>
-      <c r="AA123" s="98" t="s">
+      <c r="R123" s="102"/>
+      <c r="S123" s="102"/>
+      <c r="T123" s="102"/>
+      <c r="U123" s="102"/>
+      <c r="V123" s="102"/>
+      <c r="W123" s="102"/>
+      <c r="X123" s="102"/>
+      <c r="Y123" s="102"/>
+      <c r="Z123" s="102"/>
+      <c r="AA123" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="AB123" s="98"/>
-      <c r="AC123" s="98"/>
+      <c r="AB123" s="103"/>
+      <c r="AC123" s="103"/>
     </row>
     <row r="124" spans="1:29" ht="15.75" customHeight="1" thickTop="1">
       <c r="A124" s="46">
         <v>37883</v>
       </c>
-      <c r="B124" s="124">
+      <c r="B124" s="85">
         <v>36972</v>
       </c>
       <c r="C124" s="56"/>
@@ -50120,28 +50086,28 @@
         <v>1574.3356661415696</v>
       </c>
       <c r="M124" s="61"/>
-      <c r="R124" s="105" t="s">
+      <c r="R124" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="S124" s="105"/>
-      <c r="T124" s="105"/>
-      <c r="U124" s="105"/>
-      <c r="V124" s="105"/>
-      <c r="W124" s="105"/>
-      <c r="X124" s="105"/>
-      <c r="Y124" s="105"/>
-      <c r="Z124" s="105"/>
-      <c r="AA124" s="106" t="s">
+      <c r="S124" s="110"/>
+      <c r="T124" s="110"/>
+      <c r="U124" s="110"/>
+      <c r="V124" s="110"/>
+      <c r="W124" s="110"/>
+      <c r="X124" s="110"/>
+      <c r="Y124" s="110"/>
+      <c r="Z124" s="110"/>
+      <c r="AA124" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="AB124" s="106"/>
-      <c r="AC124" s="106"/>
+      <c r="AB124" s="89"/>
+      <c r="AC124" s="89"/>
     </row>
     <row r="125" spans="1:29" ht="15.75" customHeight="1">
       <c r="A125" s="46">
         <v>37924</v>
       </c>
-      <c r="B125" s="124">
+      <c r="B125" s="85">
         <v>37004</v>
       </c>
       <c r="C125" s="56"/>
@@ -50176,24 +50142,24 @@
         <v>1607.3788693581614</v>
       </c>
       <c r="M125" s="61"/>
-      <c r="R125" s="100"/>
-      <c r="S125" s="100"/>
-      <c r="T125" s="100"/>
-      <c r="U125" s="100"/>
-      <c r="V125" s="100"/>
-      <c r="W125" s="100"/>
-      <c r="X125" s="100"/>
-      <c r="Y125" s="100"/>
-      <c r="Z125" s="100"/>
-      <c r="AA125" s="107"/>
-      <c r="AB125" s="107"/>
-      <c r="AC125" s="107"/>
+      <c r="R125" s="105"/>
+      <c r="S125" s="105"/>
+      <c r="T125" s="105"/>
+      <c r="U125" s="105"/>
+      <c r="V125" s="105"/>
+      <c r="W125" s="105"/>
+      <c r="X125" s="105"/>
+      <c r="Y125" s="105"/>
+      <c r="Z125" s="105"/>
+      <c r="AA125" s="90"/>
+      <c r="AB125" s="90"/>
+      <c r="AC125" s="90"/>
     </row>
     <row r="126" spans="1:29" ht="15.75" customHeight="1">
       <c r="A126" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B126" s="124">
+      <c r="B126" s="85">
         <v>37019</v>
       </c>
       <c r="C126" s="56"/>
@@ -50228,24 +50194,24 @@
         <v>1601.727170118382</v>
       </c>
       <c r="M126" s="61"/>
-      <c r="R126" s="100"/>
-      <c r="S126" s="100"/>
-      <c r="T126" s="100"/>
-      <c r="U126" s="100"/>
-      <c r="V126" s="100"/>
-      <c r="W126" s="100"/>
-      <c r="X126" s="100"/>
-      <c r="Y126" s="100"/>
-      <c r="Z126" s="100"/>
-      <c r="AA126" s="107"/>
-      <c r="AB126" s="107"/>
-      <c r="AC126" s="107"/>
+      <c r="R126" s="105"/>
+      <c r="S126" s="105"/>
+      <c r="T126" s="105"/>
+      <c r="U126" s="105"/>
+      <c r="V126" s="105"/>
+      <c r="W126" s="105"/>
+      <c r="X126" s="105"/>
+      <c r="Y126" s="105"/>
+      <c r="Z126" s="105"/>
+      <c r="AA126" s="90"/>
+      <c r="AB126" s="90"/>
+      <c r="AC126" s="90"/>
     </row>
     <row r="127" spans="1:29" ht="21.75" customHeight="1">
       <c r="A127" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="B127" s="124">
+      <c r="B127" s="85">
         <v>37045</v>
       </c>
       <c r="C127" s="56"/>
@@ -50280,24 +50246,24 @@
         <v>1578.1633826373281</v>
       </c>
       <c r="M127" s="61"/>
-      <c r="R127" s="100"/>
-      <c r="S127" s="100"/>
-      <c r="T127" s="100"/>
-      <c r="U127" s="100"/>
-      <c r="V127" s="100"/>
-      <c r="W127" s="100"/>
-      <c r="X127" s="100"/>
-      <c r="Y127" s="100"/>
-      <c r="Z127" s="100"/>
-      <c r="AA127" s="107"/>
-      <c r="AB127" s="107"/>
-      <c r="AC127" s="107"/>
+      <c r="R127" s="105"/>
+      <c r="S127" s="105"/>
+      <c r="T127" s="105"/>
+      <c r="U127" s="105"/>
+      <c r="V127" s="105"/>
+      <c r="W127" s="105"/>
+      <c r="X127" s="105"/>
+      <c r="Y127" s="105"/>
+      <c r="Z127" s="105"/>
+      <c r="AA127" s="90"/>
+      <c r="AB127" s="90"/>
+      <c r="AC127" s="90"/>
     </row>
     <row r="128" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A128" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B128" s="124">
+      <c r="B128" s="85">
         <v>37073</v>
       </c>
       <c r="C128" s="56"/>
@@ -50332,26 +50298,26 @@
         <v>1535.3782407274191</v>
       </c>
       <c r="M128" s="61"/>
-      <c r="R128" s="109"/>
-      <c r="S128" s="109"/>
-      <c r="T128" s="109"/>
-      <c r="U128" s="109"/>
-      <c r="V128" s="109"/>
-      <c r="W128" s="109"/>
-      <c r="X128" s="109"/>
-      <c r="Y128" s="109"/>
-      <c r="Z128" s="109"/>
-      <c r="AA128" s="96" t="s">
+      <c r="R128" s="97"/>
+      <c r="S128" s="97"/>
+      <c r="T128" s="97"/>
+      <c r="U128" s="97"/>
+      <c r="V128" s="97"/>
+      <c r="W128" s="97"/>
+      <c r="X128" s="97"/>
+      <c r="Y128" s="97"/>
+      <c r="Z128" s="97"/>
+      <c r="AA128" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="AB128" s="96"/>
-      <c r="AC128" s="96"/>
+      <c r="AB128" s="101"/>
+      <c r="AC128" s="101"/>
     </row>
     <row r="129" spans="1:29" ht="16.5" customHeight="1" thickTop="1">
       <c r="A129" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B129" s="124">
+      <c r="B129" s="85">
         <v>37104</v>
       </c>
       <c r="C129" s="56"/>
@@ -50386,28 +50352,28 @@
         <v>1513.7643769277336</v>
       </c>
       <c r="M129" s="61"/>
-      <c r="R129" s="113" t="s">
+      <c r="R129" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="S129" s="113"/>
-      <c r="T129" s="113"/>
-      <c r="U129" s="113"/>
-      <c r="V129" s="113"/>
-      <c r="W129" s="113"/>
-      <c r="X129" s="113"/>
-      <c r="Y129" s="113"/>
-      <c r="Z129" s="113"/>
-      <c r="AA129" s="106" t="s">
+      <c r="S129" s="86"/>
+      <c r="T129" s="86"/>
+      <c r="U129" s="86"/>
+      <c r="V129" s="86"/>
+      <c r="W129" s="86"/>
+      <c r="X129" s="86"/>
+      <c r="Y129" s="86"/>
+      <c r="Z129" s="86"/>
+      <c r="AA129" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="AB129" s="106"/>
-      <c r="AC129" s="106"/>
+      <c r="AB129" s="89"/>
+      <c r="AC129" s="89"/>
     </row>
     <row r="130" spans="1:29">
       <c r="A130" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="B130" s="124">
+      <c r="B130" s="85">
         <v>37167</v>
       </c>
       <c r="C130" s="56"/>
@@ -50442,24 +50408,24 @@
         <v>1485.1259916005599</v>
       </c>
       <c r="M130" s="61"/>
-      <c r="R130" s="114"/>
-      <c r="S130" s="114"/>
-      <c r="T130" s="114"/>
-      <c r="U130" s="114"/>
-      <c r="V130" s="114"/>
-      <c r="W130" s="114"/>
-      <c r="X130" s="114"/>
-      <c r="Y130" s="114"/>
-      <c r="Z130" s="114"/>
-      <c r="AA130" s="107"/>
-      <c r="AB130" s="107"/>
-      <c r="AC130" s="107"/>
+      <c r="R130" s="87"/>
+      <c r="S130" s="87"/>
+      <c r="T130" s="87"/>
+      <c r="U130" s="87"/>
+      <c r="V130" s="87"/>
+      <c r="W130" s="87"/>
+      <c r="X130" s="87"/>
+      <c r="Y130" s="87"/>
+      <c r="Z130" s="87"/>
+      <c r="AA130" s="90"/>
+      <c r="AB130" s="90"/>
+      <c r="AC130" s="90"/>
     </row>
     <row r="131" spans="1:29">
       <c r="A131" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B131" s="124">
+      <c r="B131" s="85">
         <v>37187</v>
       </c>
       <c r="C131" s="56"/>
@@ -50494,24 +50460,24 @@
         <v>1484.0190763944429</v>
       </c>
       <c r="M131" s="61"/>
-      <c r="R131" s="115"/>
-      <c r="S131" s="115"/>
-      <c r="T131" s="115"/>
-      <c r="U131" s="115"/>
-      <c r="V131" s="115"/>
-      <c r="W131" s="115"/>
-      <c r="X131" s="115"/>
-      <c r="Y131" s="115"/>
-      <c r="Z131" s="115"/>
-      <c r="AA131" s="116"/>
-      <c r="AB131" s="116"/>
-      <c r="AC131" s="116"/>
+      <c r="R131" s="88"/>
+      <c r="S131" s="88"/>
+      <c r="T131" s="88"/>
+      <c r="U131" s="88"/>
+      <c r="V131" s="88"/>
+      <c r="W131" s="88"/>
+      <c r="X131" s="88"/>
+      <c r="Y131" s="88"/>
+      <c r="Z131" s="88"/>
+      <c r="AA131" s="91"/>
+      <c r="AB131" s="91"/>
+      <c r="AC131" s="91"/>
     </row>
     <row r="132" spans="1:29">
       <c r="A132" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="B132" s="124">
+      <c r="B132" s="85">
         <v>37194</v>
       </c>
       <c r="C132" s="56"/>
@@ -50546,26 +50512,26 @@
         <v>1824.7824674152437</v>
       </c>
       <c r="M132" s="61"/>
-      <c r="R132" s="117"/>
-      <c r="S132" s="117"/>
-      <c r="T132" s="117"/>
-      <c r="U132" s="117"/>
-      <c r="V132" s="117"/>
-      <c r="W132" s="117"/>
-      <c r="X132" s="117"/>
-      <c r="Y132" s="117"/>
-      <c r="Z132" s="117"/>
-      <c r="AA132" s="118" t="s">
+      <c r="R132" s="92"/>
+      <c r="S132" s="92"/>
+      <c r="T132" s="92"/>
+      <c r="U132" s="92"/>
+      <c r="V132" s="92"/>
+      <c r="W132" s="92"/>
+      <c r="X132" s="92"/>
+      <c r="Y132" s="92"/>
+      <c r="Z132" s="92"/>
+      <c r="AA132" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="AB132" s="118"/>
-      <c r="AC132" s="118"/>
-    </row>
-    <row r="133" spans="1:29" ht="16.5" thickBot="1">
+      <c r="AB132" s="93"/>
+      <c r="AC132" s="93"/>
+    </row>
+    <row r="133" spans="1:29" ht="16.2" thickBot="1">
       <c r="A133" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="124">
+      <c r="B133" s="85">
         <v>37220</v>
       </c>
       <c r="C133" s="56"/>
@@ -50600,26 +50566,26 @@
         <v>1331.3515954244431</v>
       </c>
       <c r="M133" s="61"/>
-      <c r="R133" s="119"/>
-      <c r="S133" s="119"/>
-      <c r="T133" s="119"/>
-      <c r="U133" s="119"/>
-      <c r="V133" s="119"/>
-      <c r="W133" s="119"/>
-      <c r="X133" s="119"/>
-      <c r="Y133" s="119"/>
-      <c r="Z133" s="119"/>
-      <c r="AA133" s="120" t="s">
+      <c r="R133" s="94"/>
+      <c r="S133" s="94"/>
+      <c r="T133" s="94"/>
+      <c r="U133" s="94"/>
+      <c r="V133" s="94"/>
+      <c r="W133" s="94"/>
+      <c r="X133" s="94"/>
+      <c r="Y133" s="94"/>
+      <c r="Z133" s="94"/>
+      <c r="AA133" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="AB133" s="120"/>
-      <c r="AC133" s="120"/>
+      <c r="AB133" s="95"/>
+      <c r="AC133" s="95"/>
     </row>
     <row r="134" spans="1:29">
       <c r="A134" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="B134" s="124">
+      <c r="B134" s="85">
         <v>37240</v>
       </c>
       <c r="C134" s="56"/>
@@ -50659,7 +50625,7 @@
       <c r="A135" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="B135" s="124">
+      <c r="B135" s="85">
         <v>37269</v>
       </c>
       <c r="C135" s="56"/>
@@ -50699,7 +50665,7 @@
       <c r="A136" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="B136" s="124">
+      <c r="B136" s="85">
         <v>37304</v>
       </c>
       <c r="C136" s="56"/>
@@ -50739,7 +50705,7 @@
       <c r="A137" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="B137" s="124">
+      <c r="B137" s="85">
         <v>37328</v>
       </c>
       <c r="C137" s="56"/>
@@ -50779,7 +50745,7 @@
       <c r="A138" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="B138" s="124">
+      <c r="B138" s="85">
         <v>37337</v>
       </c>
       <c r="C138" s="56"/>
@@ -50819,7 +50785,7 @@
       <c r="A139" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="B139" s="124">
+      <c r="B139" s="85">
         <v>37340</v>
       </c>
       <c r="C139" s="56"/>
@@ -50859,7 +50825,7 @@
       <c r="A140" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B140" s="124">
+      <c r="B140" s="85">
         <v>37357</v>
       </c>
       <c r="C140" s="56"/>
@@ -50899,7 +50865,7 @@
       <c r="A141" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="B141" s="124">
+      <c r="B141" s="85">
         <v>37378</v>
       </c>
       <c r="C141" s="56"/>
@@ -50939,7 +50905,7 @@
       <c r="A142" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="B142" s="124">
+      <c r="B142" s="85">
         <v>37409</v>
       </c>
       <c r="C142" s="56"/>
@@ -50979,7 +50945,7 @@
       <c r="A143" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B143" s="124">
+      <c r="B143" s="85">
         <v>37439</v>
       </c>
       <c r="C143" s="56"/>
@@ -51019,7 +50985,7 @@
       <c r="A144" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B144" s="124">
+      <c r="B144" s="85">
         <v>37470</v>
       </c>
       <c r="C144" s="56"/>
@@ -51059,7 +51025,7 @@
       <c r="A145" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B145" s="124">
+      <c r="B145" s="85">
         <v>37500</v>
       </c>
       <c r="C145" s="56"/>
@@ -51099,7 +51065,7 @@
       <c r="A146" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B146" s="124">
+      <c r="B146" s="85">
         <v>37530</v>
       </c>
       <c r="C146" s="56"/>
@@ -51139,7 +51105,7 @@
       <c r="A147" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B147" s="124">
+      <c r="B147" s="85">
         <v>37569</v>
       </c>
       <c r="C147" s="56"/>
@@ -51179,7 +51145,7 @@
       <c r="A148" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B148" s="124">
+      <c r="B148" s="85">
         <v>37595</v>
       </c>
       <c r="C148" s="56"/>
@@ -51219,7 +51185,7 @@
       <c r="A149" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="B149" s="124">
+      <c r="B149" s="85">
         <v>37629</v>
       </c>
       <c r="C149" s="56"/>
@@ -51259,7 +51225,7 @@
       <c r="A150" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="B150" s="124">
+      <c r="B150" s="85">
         <v>37655</v>
       </c>
       <c r="C150" s="56"/>
@@ -51299,7 +51265,7 @@
       <c r="A151" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="B151" s="124">
+      <c r="B151" s="85">
         <v>37686</v>
       </c>
       <c r="C151" s="56"/>
@@ -51339,7 +51305,7 @@
       <c r="A152" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="B152" s="124">
+      <c r="B152" s="85">
         <v>37716</v>
       </c>
       <c r="C152" s="56"/>
@@ -51379,7 +51345,7 @@
       <c r="A153" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="B153" s="124">
+      <c r="B153" s="85">
         <v>37750</v>
       </c>
       <c r="C153" s="56"/>
@@ -51419,7 +51385,7 @@
       <c r="A154" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="B154" s="124">
+      <c r="B154" s="85">
         <v>37784</v>
       </c>
       <c r="C154" s="56"/>
@@ -51459,7 +51425,7 @@
       <c r="A155" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="B155" s="124">
+      <c r="B155" s="85">
         <v>37818</v>
       </c>
       <c r="C155" s="56"/>
@@ -51499,7 +51465,7 @@
       <c r="A156" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="B156" s="124">
+      <c r="B156" s="85">
         <v>37853</v>
       </c>
       <c r="C156" s="56"/>
@@ -51539,7 +51505,7 @@
       <c r="A157" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="B157" s="124">
+      <c r="B157" s="85">
         <v>37882</v>
       </c>
       <c r="C157" s="56"/>
@@ -51579,7 +51545,7 @@
       <c r="A158" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="B158" s="124">
+      <c r="B158" s="85">
         <v>37924</v>
       </c>
       <c r="C158" s="56"/>
@@ -51619,7 +51585,7 @@
       <c r="A159" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="B159" s="124">
+      <c r="B159" s="85">
         <v>37985</v>
       </c>
       <c r="C159" s="56"/>
@@ -51659,7 +51625,7 @@
       <c r="A160" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="B160" s="124">
+      <c r="B160" s="85">
         <v>38048</v>
       </c>
       <c r="C160" s="56"/>
@@ -51699,7 +51665,7 @@
       <c r="A161" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="B161" s="124">
+      <c r="B161" s="85">
         <v>38077</v>
       </c>
       <c r="C161" s="56"/>
@@ -51739,7 +51705,7 @@
       <c r="A162" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="B162" s="124">
+      <c r="B162" s="85">
         <v>38107</v>
       </c>
       <c r="C162" s="56"/>
@@ -51779,7 +51745,7 @@
       <c r="A163" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B163" s="124">
+      <c r="B163" s="85">
         <v>38140</v>
       </c>
       <c r="C163" s="56"/>
@@ -51821,7 +51787,7 @@
       <c r="A164" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="B164" s="124">
+      <c r="B164" s="85">
         <v>38171</v>
       </c>
       <c r="C164" s="56"/>
@@ -51863,7 +51829,7 @@
       <c r="A165" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="B165" s="124">
+      <c r="B165" s="85">
         <v>38215</v>
       </c>
       <c r="C165" s="56"/>
@@ -51905,7 +51871,7 @@
       <c r="A166" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="B166" s="124">
+      <c r="B166" s="85">
         <v>38244</v>
       </c>
       <c r="C166" s="56"/>
@@ -51947,7 +51913,7 @@
       <c r="A167" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="B167" s="124">
+      <c r="B167" s="85">
         <v>38303</v>
       </c>
       <c r="C167" s="56"/>
@@ -51989,7 +51955,7 @@
       <c r="A168" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="B168" s="124">
+      <c r="B168" s="85">
         <v>38351</v>
       </c>
       <c r="C168" s="56"/>
@@ -52031,7 +51997,7 @@
       <c r="A169" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="B169" s="124">
+      <c r="B169" s="85">
         <v>38386</v>
       </c>
       <c r="C169" s="56"/>
@@ -52073,7 +52039,7 @@
       <c r="A170" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="B170" s="124">
+      <c r="B170" s="85">
         <v>38416</v>
       </c>
       <c r="C170" s="56"/>
@@ -52115,7 +52081,7 @@
       <c r="A171" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="B171" s="124">
+      <c r="B171" s="85">
         <v>38535</v>
       </c>
       <c r="C171" s="56"/>
@@ -52155,7 +52121,7 @@
       <c r="A172" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="B172" s="124">
+      <c r="B172" s="85">
         <v>38539</v>
       </c>
       <c r="C172" s="56"/>
@@ -52197,7 +52163,7 @@
       <c r="A173" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="B173" s="124">
+      <c r="B173" s="85">
         <v>38570</v>
       </c>
       <c r="C173" s="56"/>
@@ -52237,7 +52203,7 @@
       <c r="A174" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="B174" s="124">
+      <c r="B174" s="85">
         <v>38605</v>
       </c>
       <c r="C174" s="56"/>
@@ -52279,7 +52245,7 @@
       <c r="A175" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="B175" s="124">
+      <c r="B175" s="85">
         <v>38635</v>
       </c>
       <c r="C175" s="56"/>
@@ -52321,7 +52287,7 @@
       <c r="A176" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="B176" s="124">
+      <c r="B176" s="85">
         <v>38661</v>
       </c>
       <c r="C176" s="56"/>
@@ -52363,7 +52329,7 @@
       <c r="A177" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="B177" s="124">
+      <c r="B177" s="85">
         <v>38695</v>
       </c>
       <c r="C177" s="56"/>
@@ -52405,7 +52371,7 @@
       <c r="A178" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="B178" s="124">
+      <c r="B178" s="85">
         <v>38726</v>
       </c>
       <c r="C178" s="56"/>
@@ -52440,7 +52406,7 @@
       <c r="A179" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="B179" s="124">
+      <c r="B179" s="85">
         <v>38754</v>
       </c>
       <c r="C179" s="56"/>
@@ -52475,7 +52441,7 @@
       <c r="A180" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="B180" s="124">
+      <c r="B180" s="85">
         <v>38783</v>
       </c>
       <c r="C180" s="56"/>
@@ -52510,7 +52476,7 @@
       <c r="A181" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="B181" s="124">
+      <c r="B181" s="85">
         <v>38812</v>
       </c>
       <c r="C181" s="56"/>
@@ -53272,12 +53238,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="R129:Z131"/>
-    <mergeCell ref="AA129:AC131"/>
-    <mergeCell ref="R132:Z132"/>
-    <mergeCell ref="AA132:AC132"/>
-    <mergeCell ref="R133:Z133"/>
-    <mergeCell ref="AA133:AC133"/>
+    <mergeCell ref="Y108:Z108"/>
+    <mergeCell ref="U109:V109"/>
+    <mergeCell ref="W109:X109"/>
+    <mergeCell ref="Y109:Z109"/>
+    <mergeCell ref="U110:V110"/>
+    <mergeCell ref="W110:X110"/>
+    <mergeCell ref="Y110:Z110"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="U108:V108"/>
+    <mergeCell ref="W108:X108"/>
+    <mergeCell ref="AA128:AC128"/>
+    <mergeCell ref="R123:Z123"/>
+    <mergeCell ref="AA123:AC123"/>
+    <mergeCell ref="R115:Z122"/>
+    <mergeCell ref="AA115:AC122"/>
+    <mergeCell ref="R124:Z127"/>
+    <mergeCell ref="AA124:AC127"/>
     <mergeCell ref="U111:V111"/>
     <mergeCell ref="W111:X111"/>
     <mergeCell ref="Y111:Z111"/>
@@ -53288,25 +53267,12 @@
     <mergeCell ref="U113:V113"/>
     <mergeCell ref="W113:X113"/>
     <mergeCell ref="Y113:Z113"/>
-    <mergeCell ref="AA128:AC128"/>
-    <mergeCell ref="R123:Z123"/>
-    <mergeCell ref="AA123:AC123"/>
-    <mergeCell ref="R115:Z122"/>
-    <mergeCell ref="AA115:AC122"/>
-    <mergeCell ref="R124:Z127"/>
-    <mergeCell ref="AA124:AC127"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="U108:V108"/>
-    <mergeCell ref="W108:X108"/>
-    <mergeCell ref="Y108:Z108"/>
-    <mergeCell ref="U109:V109"/>
-    <mergeCell ref="W109:X109"/>
-    <mergeCell ref="Y109:Z109"/>
-    <mergeCell ref="U110:V110"/>
-    <mergeCell ref="W110:X110"/>
-    <mergeCell ref="Y110:Z110"/>
+    <mergeCell ref="R129:Z131"/>
+    <mergeCell ref="AA129:AC131"/>
+    <mergeCell ref="R132:Z132"/>
+    <mergeCell ref="AA132:AC132"/>
+    <mergeCell ref="R133:Z133"/>
+    <mergeCell ref="AA133:AC133"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.27" top="0.16" bottom="0.19" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -53325,41 +53291,41 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="1" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+    <col min="9" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="17" width="12.7109375" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="15" max="17" width="12.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="122"/>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75">
-      <c r="A2" s="121" t="s">
+    <row r="1" spans="1:8" ht="17.399999999999999">
+      <c r="A1" s="124"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.399999999999999">
+      <c r="A2" s="123" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
       <c r="E2" s="35"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -53374,7 +53340,7 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="10" t="s">
         <v>113</v>
       </c>
@@ -53389,7 +53355,7 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="10" t="s">
         <v>114</v>
       </c>
@@ -53404,7 +53370,7 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="10" t="s">
         <v>115</v>
       </c>
@@ -53419,7 +53385,7 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75">
+    <row r="7" spans="1:8" ht="15.6">
       <c r="A7" s="10" t="s">
         <v>116</v>
       </c>
@@ -53434,7 +53400,7 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75">
+    <row r="8" spans="1:8" ht="15.6">
       <c r="A8" s="10" t="s">
         <v>117</v>
       </c>
@@ -53445,7 +53411,7 @@
         <v>129.19999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75">
+    <row r="9" spans="1:8" ht="15.6">
       <c r="A9" s="10" t="s">
         <v>118</v>
       </c>
@@ -53456,7 +53422,7 @@
         <v>129.19999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75">
+    <row r="10" spans="1:8" ht="15.6">
       <c r="A10" s="10" t="s">
         <v>119</v>
       </c>
@@ -53467,7 +53433,7 @@
         <v>128.9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75">
+    <row r="11" spans="1:8" ht="15.6">
       <c r="A11" s="10" t="s">
         <v>120</v>
       </c>
@@ -53478,7 +53444,7 @@
         <v>128.80000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="10" t="s">
         <v>121</v>
       </c>
@@ -53489,7 +53455,7 @@
         <v>128.80000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="10" t="s">
         <v>122</v>
       </c>
@@ -53500,7 +53466,7 @@
         <v>128.80000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="10" t="s">
         <v>123</v>
       </c>
@@ -53511,7 +53477,7 @@
         <v>128.80000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75">
+    <row r="15" spans="1:8" ht="15.6">
       <c r="A15" s="10" t="s">
         <v>124</v>
       </c>
@@ -53522,7 +53488,7 @@
         <v>129.4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="10" t="s">
         <v>125</v>
       </c>
@@ -53533,7 +53499,7 @@
         <v>129.9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75">
+    <row r="17" spans="1:3" ht="15.6">
       <c r="A17" s="10" t="s">
         <v>126</v>
       </c>
@@ -53544,7 +53510,7 @@
         <v>130.30000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75">
+    <row r="18" spans="1:3" ht="15.6">
       <c r="A18" s="10" t="s">
         <v>127</v>
       </c>
@@ -53555,7 +53521,7 @@
         <v>130.4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75">
+    <row r="19" spans="1:3" ht="15.6">
       <c r="A19" s="10" t="s">
         <v>128</v>
       </c>
@@ -53566,7 +53532,7 @@
         <v>130.4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75">
+    <row r="20" spans="1:3" ht="15.6">
       <c r="A20" s="10" t="s">
         <v>129</v>
       </c>
@@ -53577,7 +53543,7 @@
         <v>130.30000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75">
+    <row r="21" spans="1:3" ht="15.6">
       <c r="A21" s="10" t="s">
         <v>130</v>
       </c>
@@ -53588,7 +53554,7 @@
         <v>130.1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75">
+    <row r="22" spans="1:3" ht="15.6">
       <c r="A22" s="10" t="s">
         <v>131</v>
       </c>
@@ -53599,7 +53565,7 @@
         <v>129.80000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75">
+    <row r="23" spans="1:3" ht="15.6">
       <c r="A23" s="10" t="s">
         <v>132</v>
       </c>
@@ -53610,7 +53576,7 @@
         <v>129.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75">
+    <row r="24" spans="1:3" ht="15.6">
       <c r="A24" s="10" t="s">
         <v>133</v>
       </c>
@@ -53621,7 +53587,7 @@
         <v>129.4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75">
+    <row r="25" spans="1:3" ht="15.6">
       <c r="A25" s="10" t="s">
         <v>134</v>
       </c>
@@ -53632,7 +53598,7 @@
         <v>129.6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75">
+    <row r="26" spans="1:3" ht="15.6">
       <c r="A26" s="10" t="s">
         <v>135</v>
       </c>
@@ -53643,7 +53609,7 @@
         <v>129.80000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75">
+    <row r="27" spans="1:3" ht="15.6">
       <c r="A27" s="10" t="s">
         <v>136</v>
       </c>
@@ -53654,7 +53620,7 @@
         <v>129.9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75">
+    <row r="28" spans="1:3" ht="15.6">
       <c r="A28" s="10" t="s">
         <v>137</v>
       </c>
@@ -53665,7 +53631,7 @@
         <v>129.80000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75">
+    <row r="29" spans="1:3" ht="15.6">
       <c r="A29" s="10" t="s">
         <v>138</v>
       </c>
@@ -53676,7 +53642,7 @@
         <v>129.69999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75">
+    <row r="30" spans="1:3" ht="15.6">
       <c r="A30" s="10" t="s">
         <v>139</v>
       </c>
@@ -53687,7 +53653,7 @@
         <v>130.1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75">
+    <row r="31" spans="1:3" ht="15.6">
       <c r="A31" s="10" t="s">
         <v>140</v>
       </c>
@@ -53698,7 +53664,7 @@
         <v>130.30000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75">
+    <row r="32" spans="1:3" ht="15.6">
       <c r="A32" s="10" t="s">
         <v>141</v>
       </c>
@@ -53709,7 +53675,7 @@
         <v>130.4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75">
+    <row r="33" spans="1:3" ht="15.6">
       <c r="A33" s="10" t="s">
         <v>142</v>
       </c>
@@ -53720,7 +53686,7 @@
         <v>130.30000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75">
+    <row r="34" spans="1:3" ht="15.6">
       <c r="A34" s="10" t="s">
         <v>143</v>
       </c>
@@ -53731,14 +53697,14 @@
         <v>130.5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18.75">
-      <c r="A35" s="121" t="s">
+    <row r="35" spans="1:3" ht="17.399999999999999">
+      <c r="A35" s="123" t="s">
         <v>144</v>
       </c>
-      <c r="B35" s="121"/>
-      <c r="C35" s="121"/>
-    </row>
-    <row r="36" spans="1:3" ht="15.75">
+      <c r="B35" s="123"/>
+      <c r="C35" s="123"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.6">
       <c r="A36" s="5" t="s">
         <v>0</v>
       </c>
@@ -53749,7 +53715,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75">
+    <row r="37" spans="1:3" ht="15.6">
       <c r="A37" s="6" t="s">
         <v>145</v>
       </c>
@@ -53760,7 +53726,7 @@
         <v>130.9</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75">
+    <row r="38" spans="1:3" ht="15.6">
       <c r="A38" s="6" t="s">
         <v>146</v>
       </c>
@@ -53771,7 +53737,7 @@
         <v>130.69999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75">
+    <row r="39" spans="1:3" ht="15.6">
       <c r="A39" s="6" t="s">
         <v>147</v>
       </c>
@@ -53782,7 +53748,7 @@
         <v>130.80000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75">
+    <row r="40" spans="1:3" ht="15.6">
       <c r="A40" s="6" t="s">
         <v>148</v>
       </c>
@@ -53793,7 +53759,7 @@
         <v>130.5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75">
+    <row r="41" spans="1:3" ht="15.6">
       <c r="A41" s="6" t="s">
         <v>149</v>
       </c>
@@ -53804,7 +53770,7 @@
         <v>129.69999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75">
+    <row r="42" spans="1:3" ht="15.6">
       <c r="A42" s="6" t="s">
         <v>150</v>
       </c>
@@ -53815,7 +53781,7 @@
         <v>129.9</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75">
+    <row r="43" spans="1:3" ht="15.6">
       <c r="A43" s="6" t="s">
         <v>151</v>
       </c>
@@ -53826,7 +53792,7 @@
         <v>130.5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75">
+    <row r="44" spans="1:3" ht="15.6">
       <c r="A44" s="6" t="s">
         <v>152</v>
       </c>
@@ -53837,7 +53803,7 @@
         <v>131.4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75">
+    <row r="45" spans="1:3" ht="15.6">
       <c r="A45" s="6" t="s">
         <v>153</v>
       </c>
@@ -53848,7 +53814,7 @@
         <v>131.30000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75">
+    <row r="46" spans="1:3" ht="15.6">
       <c r="A46" s="6" t="s">
         <v>154</v>
       </c>
@@ -53859,7 +53825,7 @@
         <v>131.30000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75">
+    <row r="47" spans="1:3" ht="15.6">
       <c r="A47" s="6" t="s">
         <v>155</v>
       </c>
@@ -53870,14 +53836,14 @@
         <v>131.30000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75">
+    <row r="48" spans="1:3" ht="15.6">
       <c r="A48" s="6" t="s">
         <v>156</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="1:20" ht="15.75">
+    <row r="49" spans="1:20" ht="15.6">
       <c r="A49" s="6" t="s">
         <v>157</v>
       </c>
@@ -53888,7 +53854,7 @@
         <v>131.30000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="15.75">
+    <row r="50" spans="1:20" ht="15.6">
       <c r="A50" s="6" t="s">
         <v>158</v>
       </c>
@@ -53899,7 +53865,7 @@
         <v>131.30000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="15.75">
+    <row r="51" spans="1:20" ht="15.6">
       <c r="A51" s="6" t="s">
         <v>159</v>
       </c>
@@ -53910,7 +53876,7 @@
         <v>131.30000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="15.75">
+    <row r="52" spans="1:20" ht="15.6">
       <c r="A52" s="6" t="s">
         <v>160</v>
       </c>
@@ -53921,7 +53887,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="15.75">
+    <row r="53" spans="1:20" ht="15.6">
       <c r="A53" s="6" t="s">
         <v>161</v>
       </c>
@@ -53932,7 +53898,7 @@
         <v>127.1</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="15.75">
+    <row r="54" spans="1:20" ht="15.6">
       <c r="A54" s="6" t="s">
         <v>162</v>
       </c>
@@ -53943,7 +53909,7 @@
         <v>127.2</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="15.75">
+    <row r="55" spans="1:20" ht="15.6">
       <c r="A55" s="6" t="s">
         <v>163</v>
       </c>
@@ -53954,7 +53920,7 @@
         <v>127.3</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="15.75">
+    <row r="56" spans="1:20" ht="15.6">
       <c r="A56" s="6" t="s">
         <v>164</v>
       </c>
@@ -53965,7 +53931,7 @@
         <v>127.3</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="18.75">
+    <row r="57" spans="1:20" ht="17.399999999999999">
       <c r="A57" s="6" t="s">
         <v>165</v>
       </c>
@@ -53975,24 +53941,24 @@
       <c r="C57" s="4">
         <v>127.3</v>
       </c>
-      <c r="E57" s="122"/>
-      <c r="F57" s="122"/>
-      <c r="G57" s="122"/>
-      <c r="H57" s="122"/>
-      <c r="I57" s="122"/>
-      <c r="J57" s="122"/>
-      <c r="K57" s="122"/>
-      <c r="L57" s="122"/>
-      <c r="M57" s="122"/>
-      <c r="N57" s="122"/>
-      <c r="O57" s="122"/>
-      <c r="P57" s="122"/>
-      <c r="Q57" s="122"/>
-      <c r="R57" s="122"/>
-      <c r="S57" s="122"/>
-      <c r="T57" s="122"/>
-    </row>
-    <row r="58" spans="1:20" ht="18.75">
+      <c r="E57" s="124"/>
+      <c r="F57" s="124"/>
+      <c r="G57" s="124"/>
+      <c r="H57" s="124"/>
+      <c r="I57" s="124"/>
+      <c r="J57" s="124"/>
+      <c r="K57" s="124"/>
+      <c r="L57" s="124"/>
+      <c r="M57" s="124"/>
+      <c r="N57" s="124"/>
+      <c r="O57" s="124"/>
+      <c r="P57" s="124"/>
+      <c r="Q57" s="124"/>
+      <c r="R57" s="124"/>
+      <c r="S57" s="124"/>
+      <c r="T57" s="124"/>
+    </row>
+    <row r="58" spans="1:20" ht="17.399999999999999">
       <c r="A58" s="6" t="s">
         <v>166</v>
       </c>
@@ -54002,26 +53968,26 @@
       <c r="C58" s="4">
         <v>127.2</v>
       </c>
-      <c r="E58" s="121" t="s">
+      <c r="E58" s="123" t="s">
         <v>167</v>
       </c>
-      <c r="F58" s="121"/>
-      <c r="G58" s="121"/>
-      <c r="H58" s="121"/>
-      <c r="I58" s="121"/>
-      <c r="J58" s="121"/>
-      <c r="K58" s="121"/>
-      <c r="L58" s="121"/>
-      <c r="M58" s="121"/>
-      <c r="N58" s="121"/>
-      <c r="O58" s="121"/>
-      <c r="P58" s="121"/>
-      <c r="Q58" s="121"/>
-      <c r="R58" s="121"/>
-      <c r="S58" s="121"/>
-      <c r="T58" s="121"/>
-    </row>
-    <row r="59" spans="1:20" ht="15.75">
+      <c r="F58" s="123"/>
+      <c r="G58" s="123"/>
+      <c r="H58" s="123"/>
+      <c r="I58" s="123"/>
+      <c r="J58" s="123"/>
+      <c r="K58" s="123"/>
+      <c r="L58" s="123"/>
+      <c r="M58" s="123"/>
+      <c r="N58" s="123"/>
+      <c r="O58" s="123"/>
+      <c r="P58" s="123"/>
+      <c r="Q58" s="123"/>
+      <c r="R58" s="123"/>
+      <c r="S58" s="123"/>
+      <c r="T58" s="123"/>
+    </row>
+    <row r="59" spans="1:20" ht="15.6">
       <c r="A59" s="6" t="s">
         <v>168</v>
       </c>
@@ -54080,7 +54046,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="15.75">
+    <row r="60" spans="1:20" ht="15.6">
       <c r="A60" s="6" t="s">
         <v>183</v>
       </c>
@@ -54138,7 +54104,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="15.75">
+    <row r="61" spans="1:20" ht="15.6">
       <c r="A61" s="6" t="s">
         <v>185</v>
       </c>
@@ -54204,7 +54170,7 @@
         <v>-109.21879411415148</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="15.75">
+    <row r="62" spans="1:20" ht="15.6">
       <c r="A62" s="6" t="s">
         <v>186</v>
       </c>
@@ -54270,7 +54236,7 @@
         <v>71.525613498502935</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="15.75">
+    <row r="63" spans="1:20" ht="15.6">
       <c r="A63" s="6" t="s">
         <v>188</v>
       </c>
@@ -54336,7 +54302,7 @@
         <v>-6.973815740898317</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="15.75">
+    <row r="64" spans="1:20" ht="15.6">
       <c r="A64" s="6" t="s">
         <v>190</v>
       </c>
@@ -54402,7 +54368,7 @@
         <v>-16.243541159147753</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="15.75">
+    <row r="65" spans="1:20" ht="15.6">
       <c r="A65" s="6" t="s">
         <v>192</v>
       </c>
@@ -54468,7 +54434,7 @@
         <v>0.33920952161656714</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="15.75">
+    <row r="66" spans="1:20" ht="15.6">
       <c r="A66" s="6" t="s">
         <v>194</v>
       </c>
@@ -54532,7 +54498,7 @@
         <v>75.851592291450061</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="15.75">
+    <row r="67" spans="1:20" ht="15.6">
       <c r="A67" s="6" t="s">
         <v>196</v>
       </c>
@@ -54598,12 +54564,12 @@
         <v>-43.732955053500518</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="18.75">
-      <c r="A68" s="121" t="s">
+    <row r="68" spans="1:20" ht="17.399999999999999">
+      <c r="A68" s="123" t="s">
         <v>198</v>
       </c>
-      <c r="B68" s="121"/>
-      <c r="C68" s="121"/>
+      <c r="B68" s="123"/>
+      <c r="C68" s="123"/>
       <c r="E68" s="29" t="s">
         <v>199</v>
       </c>
@@ -54660,7 +54626,7 @@
         <v>10.039857348097257</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="15.75">
+    <row r="69" spans="1:20" ht="15.6">
       <c r="A69" s="5" t="s">
         <v>0</v>
       </c>
@@ -54726,7 +54692,7 @@
         <v>1.8173179175055338</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="15.75">
+    <row r="70" spans="1:20" ht="15.6">
       <c r="A70" s="6" t="s">
         <v>201</v>
       </c>
@@ -54792,7 +54758,7 @@
         <v>37.975428196484017</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="15.75">
+    <row r="71" spans="1:20" ht="15.6">
       <c r="A71" s="6" t="s">
         <v>203</v>
       </c>
@@ -54822,7 +54788,7 @@
       <c r="S71" s="15"/>
       <c r="T71" s="15"/>
     </row>
-    <row r="72" spans="1:20" ht="15.75">
+    <row r="72" spans="1:20" ht="15.6">
       <c r="A72" s="6" t="s">
         <v>204</v>
       </c>
@@ -54833,7 +54799,7 @@
         <v>127.1</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="15.75">
+    <row r="73" spans="1:20" ht="15.6">
       <c r="A73" s="6" t="s">
         <v>205</v>
       </c>
@@ -54844,7 +54810,7 @@
         <v>127.1</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="15.75">
+    <row r="74" spans="1:20" ht="15.6">
       <c r="A74" s="6" t="s">
         <v>206</v>
       </c>
@@ -54855,7 +54821,7 @@
         <v>127.1</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="15.75">
+    <row r="75" spans="1:20" ht="15.6">
       <c r="A75" s="6" t="s">
         <v>207</v>
       </c>
@@ -54866,7 +54832,7 @@
         <v>127.1</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="15.75">
+    <row r="76" spans="1:20" ht="15.6">
       <c r="A76" s="6" t="s">
         <v>208</v>
       </c>
@@ -54877,7 +54843,7 @@
         <v>127.1</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="15.75">
+    <row r="77" spans="1:20" ht="15.6">
       <c r="A77" s="6" t="s">
         <v>209</v>
       </c>
@@ -54888,7 +54854,7 @@
         <v>127.1</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="15.75">
+    <row r="78" spans="1:20" ht="15.6">
       <c r="A78" s="6" t="s">
         <v>210</v>
       </c>
@@ -54899,7 +54865,7 @@
         <v>127.1</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="15.75">
+    <row r="79" spans="1:20" ht="15.6">
       <c r="A79" s="6" t="s">
         <v>211</v>
       </c>
@@ -54910,7 +54876,7 @@
         <v>127.1</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="15.75">
+    <row r="80" spans="1:20" ht="15.6">
       <c r="A80" s="6" t="s">
         <v>212</v>
       </c>
@@ -54921,7 +54887,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.75">
+    <row r="81" spans="1:3" ht="15.6">
       <c r="A81" s="6" t="s">
         <v>213</v>
       </c>
@@ -54932,7 +54898,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75">
+    <row r="82" spans="1:3" ht="15.6">
       <c r="A82" s="6" t="s">
         <v>214</v>
       </c>
@@ -54943,7 +54909,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75">
+    <row r="83" spans="1:3" ht="15.6">
       <c r="A83" s="6" t="s">
         <v>215</v>
       </c>
@@ -54954,7 +54920,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75">
+    <row r="84" spans="1:3" ht="15.6">
       <c r="A84" s="6" t="s">
         <v>216</v>
       </c>
@@ -54965,7 +54931,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75">
+    <row r="85" spans="1:3" ht="15.6">
       <c r="A85" s="6" t="s">
         <v>217</v>
       </c>
@@ -54976,21 +54942,21 @@
         <v>127</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.75">
+    <row r="86" spans="1:3" ht="15.6">
       <c r="A86" s="6" t="s">
         <v>218</v>
       </c>
       <c r="B86" s="13"/>
       <c r="C86" s="4"/>
     </row>
-    <row r="87" spans="1:3" ht="15.75">
+    <row r="87" spans="1:3" ht="15.6">
       <c r="A87" s="6" t="s">
         <v>219</v>
       </c>
       <c r="B87" s="13"/>
       <c r="C87" s="4"/>
     </row>
-    <row r="88" spans="1:3" ht="15.75">
+    <row r="88" spans="1:3" ht="15.6">
       <c r="A88" s="6" t="s">
         <v>220</v>
       </c>
@@ -55001,7 +54967,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.75">
+    <row r="89" spans="1:3" ht="15.6">
       <c r="A89" s="6" t="s">
         <v>221</v>
       </c>
@@ -55012,7 +54978,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15.75">
+    <row r="90" spans="1:3" ht="15.6">
       <c r="A90" s="6" t="s">
         <v>222</v>
       </c>
@@ -55023,7 +54989,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.75">
+    <row r="91" spans="1:3" ht="15.6">
       <c r="A91" s="6" t="s">
         <v>223</v>
       </c>
@@ -55034,7 +55000,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.75">
+    <row r="92" spans="1:3" ht="15.6">
       <c r="A92" s="6" t="s">
         <v>224</v>
       </c>
@@ -55045,7 +55011,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.75">
+    <row r="93" spans="1:3" ht="15.6">
       <c r="A93" s="6" t="s">
         <v>187</v>
       </c>
@@ -55056,7 +55022,7 @@
         <v>126.9</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.75">
+    <row r="94" spans="1:3" ht="15.6">
       <c r="A94" s="6" t="s">
         <v>225</v>
       </c>
@@ -55067,7 +55033,7 @@
         <v>126.9</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.75">
+    <row r="95" spans="1:3" ht="15.6">
       <c r="A95" s="6" t="s">
         <v>226</v>
       </c>
@@ -55078,7 +55044,7 @@
         <v>126.9</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.75">
+    <row r="96" spans="1:3" ht="15.6">
       <c r="A96" s="6" t="s">
         <v>227</v>
       </c>
@@ -55089,7 +55055,7 @@
         <v>126.9</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15.75">
+    <row r="97" spans="1:3" ht="15.6">
       <c r="A97" s="6" t="s">
         <v>228</v>
       </c>
@@ -55100,7 +55066,7 @@
         <v>126.9</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15.75">
+    <row r="98" spans="1:3" ht="15.6">
       <c r="A98" s="6" t="s">
         <v>229</v>
       </c>
@@ -55111,7 +55077,7 @@
         <v>126.9</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.75">
+    <row r="99" spans="1:3" ht="15.6">
       <c r="A99" s="6" t="s">
         <v>230</v>
       </c>
@@ -55122,7 +55088,7 @@
         <v>126.8</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.75">
+    <row r="100" spans="1:3" ht="15.6">
       <c r="A100" s="6" t="s">
         <v>231</v>
       </c>
@@ -55133,14 +55099,14 @@
         <v>126.8</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="18.75">
-      <c r="A101" s="121" t="s">
+    <row r="101" spans="1:3" ht="17.399999999999999">
+      <c r="A101" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="B101" s="121"/>
-      <c r="C101" s="121"/>
-    </row>
-    <row r="102" spans="1:3" ht="15.75">
+      <c r="B101" s="123"/>
+      <c r="C101" s="123"/>
+    </row>
+    <row r="102" spans="1:3" ht="15.6">
       <c r="A102" s="5" t="s">
         <v>0</v>
       </c>
@@ -55151,7 +55117,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.75">
+    <row r="103" spans="1:3" ht="15.6">
       <c r="A103" s="6" t="s">
         <v>233</v>
       </c>
@@ -55162,7 +55128,7 @@
         <v>126.9</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15.75">
+    <row r="104" spans="1:3" ht="15.6">
       <c r="A104" s="6" t="s">
         <v>234</v>
       </c>
@@ -55173,7 +55139,7 @@
         <v>126.9</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.75">
+    <row r="105" spans="1:3" ht="15.6">
       <c r="A105" s="6" t="s">
         <v>235</v>
       </c>
@@ -55184,7 +55150,7 @@
         <v>126.8</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15.75">
+    <row r="106" spans="1:3" ht="15.6">
       <c r="A106" s="6" t="s">
         <v>236</v>
       </c>
@@ -55195,7 +55161,7 @@
         <v>126.8</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15.75">
+    <row r="107" spans="1:3" ht="15.6">
       <c r="A107" s="6" t="s">
         <v>237</v>
       </c>
@@ -55206,7 +55172,7 @@
         <v>126.8</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15.75">
+    <row r="108" spans="1:3" ht="15.6">
       <c r="A108" s="6" t="s">
         <v>238</v>
       </c>
@@ -55217,7 +55183,7 @@
         <v>126.8</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15.75">
+    <row r="109" spans="1:3" ht="15.6">
       <c r="A109" s="6" t="s">
         <v>239</v>
       </c>
@@ -55228,7 +55194,7 @@
         <v>126.8</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15.75">
+    <row r="110" spans="1:3" ht="15.6">
       <c r="A110" s="6" t="s">
         <v>240</v>
       </c>
@@ -55239,7 +55205,7 @@
         <v>126.8</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15.75">
+    <row r="111" spans="1:3" ht="15.6">
       <c r="A111" s="6" t="s">
         <v>241</v>
       </c>
@@ -55250,7 +55216,7 @@
         <v>126.8</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15.75">
+    <row r="112" spans="1:3" ht="15.6">
       <c r="A112" s="6" t="s">
         <v>242</v>
       </c>
@@ -55261,7 +55227,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15.75">
+    <row r="113" spans="1:3" ht="15.6">
       <c r="A113" s="6" t="s">
         <v>243</v>
       </c>
@@ -55272,7 +55238,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15.75">
+    <row r="114" spans="1:3" ht="15.6">
       <c r="A114" s="6" t="s">
         <v>244</v>
       </c>
@@ -55283,7 +55249,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.75">
+    <row r="115" spans="1:3" ht="15.6">
       <c r="A115" s="6" t="s">
         <v>245</v>
       </c>
@@ -55294,7 +55260,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.75">
+    <row r="116" spans="1:3" ht="15.6">
       <c r="A116" s="6" t="s">
         <v>246</v>
       </c>
@@ -55305,7 +55271,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.75">
+    <row r="117" spans="1:3" ht="15.6">
       <c r="A117" s="6" t="s">
         <v>247</v>
       </c>
@@ -55316,7 +55282,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.75">
+    <row r="118" spans="1:3" ht="15.6">
       <c r="A118" s="6" t="s">
         <v>248</v>
       </c>
@@ -55327,7 +55293,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.75">
+    <row r="119" spans="1:3" ht="15.6">
       <c r="A119" s="6" t="s">
         <v>249</v>
       </c>
@@ -55338,7 +55304,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.75">
+    <row r="120" spans="1:3" ht="15.6">
       <c r="A120" s="6" t="s">
         <v>250</v>
       </c>
@@ -55349,14 +55315,14 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.75">
+    <row r="121" spans="1:3" ht="15.6">
       <c r="A121" s="6" t="s">
         <v>251</v>
       </c>
       <c r="B121" s="13"/>
       <c r="C121" s="4"/>
     </row>
-    <row r="122" spans="1:3" ht="15.75">
+    <row r="122" spans="1:3" ht="15.6">
       <c r="A122" s="6" t="s">
         <v>252</v>
       </c>
@@ -55367,7 +55333,7 @@
         <v>126.8</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15.75">
+    <row r="123" spans="1:3" ht="15.6">
       <c r="A123" s="6" t="s">
         <v>253</v>
       </c>
@@ -55378,7 +55344,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15.75">
+    <row r="124" spans="1:3" ht="15.6">
       <c r="A124" s="6" t="s">
         <v>254</v>
       </c>
@@ -55389,7 +55355,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15.75">
+    <row r="125" spans="1:3" ht="15.6">
       <c r="A125" s="6" t="s">
         <v>255</v>
       </c>
@@ -55400,7 +55366,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.75">
+    <row r="126" spans="1:3" ht="15.6">
       <c r="A126" s="6" t="s">
         <v>256</v>
       </c>
@@ -55411,7 +55377,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15.75">
+    <row r="127" spans="1:3" ht="15.6">
       <c r="A127" s="6" t="s">
         <v>189</v>
       </c>
@@ -55422,7 +55388,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.75">
+    <row r="128" spans="1:3" ht="15.6">
       <c r="A128" s="6" t="s">
         <v>257</v>
       </c>
@@ -55433,7 +55399,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15.75">
+    <row r="129" spans="1:3" ht="15.6">
       <c r="A129" s="6" t="s">
         <v>258</v>
       </c>
@@ -55444,7 +55410,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15.75">
+    <row r="130" spans="1:3" ht="15.6">
       <c r="A130" s="6" t="s">
         <v>259</v>
       </c>
@@ -55455,7 +55421,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15.75">
+    <row r="131" spans="1:3" ht="15.6">
       <c r="A131" s="6" t="s">
         <v>260</v>
       </c>
@@ -55466,7 +55432,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15.75">
+    <row r="132" spans="1:3" ht="15.6">
       <c r="A132" s="6" t="s">
         <v>261</v>
       </c>
@@ -55477,7 +55443,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15.75">
+    <row r="133" spans="1:3" ht="15.6">
       <c r="A133" s="6" t="s">
         <v>262</v>
       </c>
@@ -55488,14 +55454,14 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="18.75">
-      <c r="A134" s="121" t="s">
+    <row r="134" spans="1:3" ht="17.399999999999999">
+      <c r="A134" s="123" t="s">
         <v>263</v>
       </c>
-      <c r="B134" s="121"/>
-      <c r="C134" s="121"/>
-    </row>
-    <row r="135" spans="1:3" ht="15.75">
+      <c r="B134" s="123"/>
+      <c r="C134" s="123"/>
+    </row>
+    <row r="135" spans="1:3" ht="15.6">
       <c r="A135" s="5" t="s">
         <v>0</v>
       </c>
@@ -55506,7 +55472,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15.75">
+    <row r="136" spans="1:3" ht="15.6">
       <c r="A136" s="6" t="s">
         <v>264</v>
       </c>
@@ -55517,7 +55483,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.75">
+    <row r="137" spans="1:3" ht="15.6">
       <c r="A137" s="6" t="s">
         <v>265</v>
       </c>
@@ -55528,7 +55494,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15.75">
+    <row r="138" spans="1:3" ht="15.6">
       <c r="A138" s="6" t="s">
         <v>266</v>
       </c>
@@ -55539,7 +55505,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15.75">
+    <row r="139" spans="1:3" ht="15.6">
       <c r="A139" s="6" t="s">
         <v>267</v>
       </c>
@@ -55550,7 +55516,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15.75">
+    <row r="140" spans="1:3" ht="15.6">
       <c r="A140" s="6" t="s">
         <v>268</v>
       </c>
@@ -55561,7 +55527,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15.75">
+    <row r="141" spans="1:3" ht="15.6">
       <c r="A141" s="6" t="s">
         <v>269</v>
       </c>
@@ -55572,7 +55538,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15.75">
+    <row r="142" spans="1:3" ht="15.6">
       <c r="A142" s="6" t="s">
         <v>270</v>
       </c>
@@ -55583,7 +55549,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.75">
+    <row r="143" spans="1:3" ht="15.6">
       <c r="A143" s="6" t="s">
         <v>271</v>
       </c>
@@ -55594,7 +55560,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.75">
+    <row r="144" spans="1:3" ht="15.6">
       <c r="A144" s="6" t="s">
         <v>272</v>
       </c>
@@ -55605,14 +55571,14 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15.75">
+    <row r="145" spans="1:3" ht="15.6">
       <c r="A145" s="6" t="s">
         <v>273</v>
       </c>
       <c r="B145" s="13"/>
       <c r="C145" s="4"/>
     </row>
-    <row r="146" spans="1:3" ht="15.75">
+    <row r="146" spans="1:3" ht="15.6">
       <c r="A146" s="6" t="s">
         <v>274</v>
       </c>
@@ -55623,7 +55589,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15.75">
+    <row r="147" spans="1:3" ht="15.6">
       <c r="A147" s="6" t="s">
         <v>275</v>
       </c>
@@ -55634,7 +55600,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15.75">
+    <row r="148" spans="1:3" ht="15.6">
       <c r="A148" s="6" t="s">
         <v>276</v>
       </c>
@@ -55645,7 +55611,7 @@
         <v>126.8</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15.75">
+    <row r="149" spans="1:3" ht="15.6">
       <c r="A149" s="6" t="s">
         <v>277</v>
       </c>
@@ -55656,7 +55622,7 @@
         <v>126.8</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15.75">
+    <row r="150" spans="1:3" ht="15.6">
       <c r="A150" s="6" t="s">
         <v>278</v>
       </c>
@@ -55667,7 +55633,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15.75">
+    <row r="151" spans="1:3" ht="15.6">
       <c r="A151" s="6" t="s">
         <v>279</v>
       </c>
@@ -55678,7 +55644,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15.75">
+    <row r="152" spans="1:3" ht="15.6">
       <c r="A152" s="6" t="s">
         <v>280</v>
       </c>
@@ -55689,7 +55655,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15.75">
+    <row r="153" spans="1:3" ht="15.6">
       <c r="A153" s="6" t="s">
         <v>281</v>
       </c>
@@ -55700,7 +55666,7 @@
         <v>126.8</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15.75">
+    <row r="154" spans="1:3" ht="15.6">
       <c r="A154" s="6" t="s">
         <v>282</v>
       </c>
@@ -55711,7 +55677,7 @@
         <v>126.8</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15.75">
+    <row r="155" spans="1:3" ht="15.6">
       <c r="A155" s="6" t="s">
         <v>283</v>
       </c>
@@ -55722,7 +55688,7 @@
         <v>126.2</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15.75">
+    <row r="156" spans="1:3" ht="15.6">
       <c r="A156" s="6" t="s">
         <v>284</v>
       </c>
@@ -55733,7 +55699,7 @@
         <v>126.2</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15.75">
+    <row r="157" spans="1:3" ht="15.6">
       <c r="A157" s="6" t="s">
         <v>285</v>
       </c>
@@ -55744,7 +55710,7 @@
         <v>126.2</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15.75">
+    <row r="158" spans="1:3" ht="15.6">
       <c r="A158" s="6" t="s">
         <v>286</v>
       </c>
@@ -55755,7 +55721,7 @@
         <v>126.2</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15.75">
+    <row r="159" spans="1:3" ht="15.6">
       <c r="A159" s="6" t="s">
         <v>287</v>
       </c>
@@ -55766,7 +55732,7 @@
         <v>126.2</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15.75">
+    <row r="160" spans="1:3" ht="15.6">
       <c r="A160" s="6" t="s">
         <v>288</v>
       </c>
@@ -55777,7 +55743,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15.75">
+    <row r="161" spans="1:3" ht="15.6">
       <c r="A161" s="6" t="s">
         <v>289</v>
       </c>
@@ -55788,7 +55754,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15.75">
+    <row r="162" spans="1:3" ht="15.6">
       <c r="A162" s="6" t="s">
         <v>191</v>
       </c>
@@ -55799,7 +55765,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15.75">
+    <row r="163" spans="1:3" ht="15.6">
       <c r="A163" s="6" t="s">
         <v>290</v>
       </c>
@@ -55810,14 +55776,14 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15.75">
+    <row r="164" spans="1:3" ht="15.6">
       <c r="A164" s="6" t="s">
         <v>291</v>
       </c>
       <c r="B164" s="13"/>
       <c r="C164" s="4"/>
     </row>
-    <row r="165" spans="1:3" ht="15.75">
+    <row r="165" spans="1:3" ht="15.6">
       <c r="A165" s="6" t="s">
         <v>292</v>
       </c>
@@ -55828,7 +55794,7 @@
         <v>126.1</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15.75">
+    <row r="166" spans="1:3" ht="15.6">
       <c r="A166" s="6" t="s">
         <v>293</v>
       </c>
@@ -55839,14 +55805,14 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="18.75">
-      <c r="A167" s="121" t="s">
+    <row r="167" spans="1:3" ht="17.399999999999999">
+      <c r="A167" s="123" t="s">
         <v>294</v>
       </c>
-      <c r="B167" s="121"/>
-      <c r="C167" s="121"/>
-    </row>
-    <row r="168" spans="1:3" ht="15.75">
+      <c r="B167" s="123"/>
+      <c r="C167" s="123"/>
+    </row>
+    <row r="168" spans="1:3" ht="15.6">
       <c r="A168" s="5" t="s">
         <v>0</v>
       </c>
@@ -55857,7 +55823,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15.75">
+    <row r="169" spans="1:3" ht="15.6">
       <c r="A169" s="6" t="s">
         <v>295</v>
       </c>
@@ -55868,7 +55834,7 @@
         <v>126.4</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15.75">
+    <row r="170" spans="1:3" ht="15.6">
       <c r="A170" s="6" t="s">
         <v>296</v>
       </c>
@@ -55879,7 +55845,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15.75">
+    <row r="171" spans="1:3" ht="15.6">
       <c r="A171" s="6" t="s">
         <v>297</v>
       </c>
@@ -55890,7 +55856,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15.75">
+    <row r="172" spans="1:3" ht="15.6">
       <c r="A172" s="6" t="s">
         <v>298</v>
       </c>
@@ -55901,7 +55867,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15.75">
+    <row r="173" spans="1:3" ht="15.6">
       <c r="A173" s="6" t="s">
         <v>299</v>
       </c>
@@ -55912,7 +55878,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15.75">
+    <row r="174" spans="1:3" ht="15.6">
       <c r="A174" s="6" t="s">
         <v>300</v>
       </c>
@@ -55923,7 +55889,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15.75">
+    <row r="175" spans="1:3" ht="15.6">
       <c r="A175" s="6" t="s">
         <v>301</v>
       </c>
@@ -55934,7 +55900,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="15.75">
+    <row r="176" spans="1:3" ht="15.6">
       <c r="A176" s="6" t="s">
         <v>302</v>
       </c>
@@ -55945,7 +55911,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15.75">
+    <row r="177" spans="1:3" ht="15.6">
       <c r="A177" s="6" t="s">
         <v>303</v>
       </c>
@@ -55956,7 +55922,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="15.75">
+    <row r="178" spans="1:3" ht="15.6">
       <c r="A178" s="6" t="s">
         <v>304</v>
       </c>
@@ -55967,7 +55933,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15.75">
+    <row r="179" spans="1:3" ht="15.6">
       <c r="A179" s="6" t="s">
         <v>305</v>
       </c>
@@ -55978,7 +55944,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15.75">
+    <row r="180" spans="1:3" ht="15.6">
       <c r="A180" s="6" t="s">
         <v>306</v>
       </c>
@@ -55989,14 +55955,14 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15.75">
+    <row r="181" spans="1:3" ht="15.6">
       <c r="A181" s="6" t="s">
         <v>307</v>
       </c>
       <c r="B181" s="13"/>
       <c r="C181" s="4"/>
     </row>
-    <row r="182" spans="1:3" ht="15.75">
+    <row r="182" spans="1:3" ht="15.6">
       <c r="A182" s="6" t="s">
         <v>308</v>
       </c>
@@ -56007,7 +55973,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="15.75">
+    <row r="183" spans="1:3" ht="15.6">
       <c r="A183" s="6" t="s">
         <v>309</v>
       </c>
@@ -56018,7 +55984,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15.75">
+    <row r="184" spans="1:3" ht="15.6">
       <c r="A184" s="6" t="s">
         <v>310</v>
       </c>
@@ -56029,7 +55995,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15.75">
+    <row r="185" spans="1:3" ht="15.6">
       <c r="A185" s="6" t="s">
         <v>311</v>
       </c>
@@ -56040,7 +56006,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="15.75">
+    <row r="186" spans="1:3" ht="15.6">
       <c r="A186" s="6" t="s">
         <v>312</v>
       </c>
@@ -56051,7 +56017,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="15.75">
+    <row r="187" spans="1:3" ht="15.6">
       <c r="A187" s="6" t="s">
         <v>313</v>
       </c>
@@ -56062,7 +56028,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="15.75">
+    <row r="188" spans="1:3" ht="15.6">
       <c r="A188" s="6" t="s">
         <v>314</v>
       </c>
@@ -56073,7 +56039,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15.75">
+    <row r="189" spans="1:3" ht="15.6">
       <c r="A189" s="6" t="s">
         <v>315</v>
       </c>
@@ -56084,7 +56050,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="15.75">
+    <row r="190" spans="1:3" ht="15.6">
       <c r="A190" s="6" t="s">
         <v>316</v>
       </c>
@@ -56095,7 +56061,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="15.75">
+    <row r="191" spans="1:3" ht="15.6">
       <c r="A191" s="6" t="s">
         <v>317</v>
       </c>
@@ -56106,7 +56072,7 @@
         <v>126.2</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="15.75">
+    <row r="192" spans="1:3" ht="15.6">
       <c r="A192" s="6" t="s">
         <v>318</v>
       </c>
@@ -56117,7 +56083,7 @@
         <v>126.2</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15.75">
+    <row r="193" spans="1:3" ht="15.6">
       <c r="A193" s="6" t="s">
         <v>319</v>
       </c>
@@ -56128,7 +56094,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15.75">
+    <row r="194" spans="1:3" ht="15.6">
       <c r="A194" s="6" t="s">
         <v>320</v>
       </c>
@@ -56139,7 +56105,7 @@
         <v>126.4</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15.75">
+    <row r="195" spans="1:3" ht="15.6">
       <c r="A195" s="6" t="s">
         <v>193</v>
       </c>
@@ -56150,7 +56116,7 @@
         <v>126.5</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15.75">
+    <row r="196" spans="1:3" ht="15.6">
       <c r="A196" s="6" t="s">
         <v>321</v>
       </c>
@@ -56161,7 +56127,7 @@
         <v>126.5</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15.75">
+    <row r="197" spans="1:3" ht="15.6">
       <c r="A197" s="6" t="s">
         <v>322</v>
       </c>
@@ -56172,7 +56138,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15.75">
+    <row r="198" spans="1:3" ht="15.6">
       <c r="A198" s="6" t="s">
         <v>323</v>
       </c>
@@ -56183,7 +56149,7 @@
         <v>126.9</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15.75">
+    <row r="199" spans="1:3" ht="15.6">
       <c r="A199" s="6" t="s">
         <v>324</v>
       </c>
@@ -56194,14 +56160,14 @@
         <v>126.8</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="18.75">
-      <c r="A200" s="121" t="s">
+    <row r="200" spans="1:3" ht="17.399999999999999">
+      <c r="A200" s="123" t="s">
         <v>325</v>
       </c>
-      <c r="B200" s="121"/>
-      <c r="C200" s="121"/>
-    </row>
-    <row r="201" spans="1:3" ht="15.75">
+      <c r="B200" s="123"/>
+      <c r="C200" s="123"/>
+    </row>
+    <row r="201" spans="1:3" ht="15.6">
       <c r="A201" s="5" t="s">
         <v>0</v>
       </c>
@@ -56212,7 +56178,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15.75">
+    <row r="202" spans="1:3" ht="15.6">
       <c r="A202" s="6" t="s">
         <v>326</v>
       </c>
@@ -56223,7 +56189,7 @@
         <v>126.4</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15.75">
+    <row r="203" spans="1:3" ht="15.6">
       <c r="A203" s="6" t="s">
         <v>327</v>
       </c>
@@ -56234,7 +56200,7 @@
         <v>126.1</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15.75">
+    <row r="204" spans="1:3" ht="15.6">
       <c r="A204" s="6" t="s">
         <v>328</v>
       </c>
@@ -56245,7 +56211,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15.75">
+    <row r="205" spans="1:3" ht="15.6">
       <c r="A205" s="6" t="s">
         <v>329</v>
       </c>
@@ -56256,7 +56222,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="15.75">
+    <row r="206" spans="1:3" ht="15.6">
       <c r="A206" s="6" t="s">
         <v>330</v>
       </c>
@@ -56267,7 +56233,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15.75">
+    <row r="207" spans="1:3" ht="15.6">
       <c r="A207" s="6" t="s">
         <v>331</v>
       </c>
@@ -56278,7 +56244,7 @@
         <v>126.8</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15.75">
+    <row r="208" spans="1:3" ht="15.6">
       <c r="A208" s="6" t="s">
         <v>332</v>
       </c>
@@ -56289,7 +56255,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15.75">
+    <row r="209" spans="1:3" ht="15.6">
       <c r="A209" s="6" t="s">
         <v>333</v>
       </c>
@@ -56300,7 +56266,7 @@
         <v>126.4</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="15.75">
+    <row r="210" spans="1:3" ht="15.6">
       <c r="A210" s="6" t="s">
         <v>334</v>
       </c>
@@ -56311,7 +56277,7 @@
         <v>126.4</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15.75">
+    <row r="211" spans="1:3" ht="15.6">
       <c r="A211" s="6" t="s">
         <v>335</v>
       </c>
@@ -56322,28 +56288,28 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="15.75">
+    <row r="212" spans="1:3" ht="15.6">
       <c r="A212" s="6" t="s">
         <v>336</v>
       </c>
       <c r="B212" s="13"/>
       <c r="C212" s="4"/>
     </row>
-    <row r="213" spans="1:3" ht="15.75">
+    <row r="213" spans="1:3" ht="15.6">
       <c r="A213" s="6" t="s">
         <v>337</v>
       </c>
       <c r="B213" s="13"/>
       <c r="C213" s="4"/>
     </row>
-    <row r="214" spans="1:3" ht="15.75">
+    <row r="214" spans="1:3" ht="15.6">
       <c r="A214" s="6" t="s">
         <v>338</v>
       </c>
       <c r="B214" s="13"/>
       <c r="C214" s="4"/>
     </row>
-    <row r="215" spans="1:3" ht="15.75">
+    <row r="215" spans="1:3" ht="15.6">
       <c r="A215" s="6" t="s">
         <v>339</v>
       </c>
@@ -56354,7 +56320,7 @@
         <v>127.3</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="15.75">
+    <row r="216" spans="1:3" ht="15.6">
       <c r="A216" s="6" t="s">
         <v>340</v>
       </c>
@@ -56365,7 +56331,7 @@
         <v>127.6</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15.75">
+    <row r="217" spans="1:3" ht="15.6">
       <c r="A217" s="6" t="s">
         <v>341</v>
       </c>
@@ -56376,7 +56342,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="15.75">
+    <row r="218" spans="1:3" ht="15.6">
       <c r="A218" s="6" t="s">
         <v>342</v>
       </c>
@@ -56387,7 +56353,7 @@
         <v>127.2</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15.75">
+    <row r="219" spans="1:3" ht="15.6">
       <c r="A219" s="6" t="s">
         <v>343</v>
       </c>
@@ -56398,7 +56364,7 @@
         <v>126.9</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="15.75">
+    <row r="220" spans="1:3" ht="15.6">
       <c r="A220" s="6" t="s">
         <v>344</v>
       </c>
@@ -56409,7 +56375,7 @@
         <v>127.3</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="15.75">
+    <row r="221" spans="1:3" ht="15.6">
       <c r="A221" s="6" t="s">
         <v>345</v>
       </c>
@@ -56420,7 +56386,7 @@
         <v>127.2</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="15.75">
+    <row r="222" spans="1:3" ht="15.6">
       <c r="A222" s="6" t="s">
         <v>346</v>
       </c>
@@ -56431,7 +56397,7 @@
         <v>126.9</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="15.75">
+    <row r="223" spans="1:3" ht="15.6">
       <c r="A223" s="6" t="s">
         <v>347</v>
       </c>
@@ -56442,7 +56408,7 @@
         <v>127.2</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="15.75">
+    <row r="224" spans="1:3" ht="15.6">
       <c r="A224" s="6" t="s">
         <v>348</v>
       </c>
@@ -56453,7 +56419,7 @@
         <v>127.7</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="15.75">
+    <row r="225" spans="1:3" ht="15.6">
       <c r="A225" s="6" t="s">
         <v>349</v>
       </c>
@@ -56464,7 +56430,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="15.75">
+    <row r="226" spans="1:3" ht="15.6">
       <c r="A226" s="6" t="s">
         <v>195</v>
       </c>
@@ -56475,7 +56441,7 @@
         <v>127.2</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="15.75">
+    <row r="227" spans="1:3" ht="15.6">
       <c r="A227" s="6" t="s">
         <v>350</v>
       </c>
@@ -56486,7 +56452,7 @@
         <v>126.6</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="15.75">
+    <row r="228" spans="1:3" ht="15.6">
       <c r="A228" s="6" t="s">
         <v>351</v>
       </c>
@@ -56497,7 +56463,7 @@
         <v>126.5</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="15.75">
+    <row r="229" spans="1:3" ht="15.6">
       <c r="A229" s="6" t="s">
         <v>352</v>
       </c>
@@ -56508,7 +56474,7 @@
         <v>127.1</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="15.75">
+    <row r="230" spans="1:3" ht="15.6">
       <c r="A230" s="6" t="s">
         <v>353</v>
       </c>
@@ -56519,7 +56485,7 @@
         <v>126.9</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="15.75">
+    <row r="231" spans="1:3" ht="15.6">
       <c r="A231" s="6" t="s">
         <v>354</v>
       </c>
@@ -56530,14 +56496,14 @@
         <v>126.9</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="18.75">
-      <c r="A232" s="121" t="s">
+    <row r="232" spans="1:3" ht="17.399999999999999">
+      <c r="A232" s="123" t="s">
         <v>355</v>
       </c>
-      <c r="B232" s="121"/>
-      <c r="C232" s="121"/>
-    </row>
-    <row r="233" spans="1:3" ht="15.75">
+      <c r="B232" s="123"/>
+      <c r="C232" s="123"/>
+    </row>
+    <row r="233" spans="1:3" ht="15.6">
       <c r="A233" s="5" t="s">
         <v>0</v>
       </c>
@@ -56548,7 +56514,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="15.75">
+    <row r="234" spans="1:3" ht="15.6">
       <c r="A234" s="6" t="s">
         <v>356</v>
       </c>
@@ -56559,7 +56525,7 @@
         <v>126.1</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="15.75">
+    <row r="235" spans="1:3" ht="15.6">
       <c r="A235" s="6" t="s">
         <v>357</v>
       </c>
@@ -56570,7 +56536,7 @@
         <v>125.9</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="15.75">
+    <row r="236" spans="1:3" ht="15.6">
       <c r="A236" s="6" t="s">
         <v>358</v>
       </c>
@@ -56581,7 +56547,7 @@
         <v>126.4</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="15.75">
+    <row r="237" spans="1:3" ht="15.6">
       <c r="A237" s="6" t="s">
         <v>359</v>
       </c>
@@ -56592,7 +56558,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="15.75">
+    <row r="238" spans="1:3" ht="15.6">
       <c r="A238" s="6" t="s">
         <v>360</v>
       </c>
@@ -56603,7 +56569,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="15.75">
+    <row r="239" spans="1:3" ht="15.6">
       <c r="A239" s="6" t="s">
         <v>361</v>
       </c>
@@ -56614,7 +56580,7 @@
         <v>126.1</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="15.75">
+    <row r="240" spans="1:3" ht="15.6">
       <c r="A240" s="6" t="s">
         <v>362</v>
       </c>
@@ -56625,7 +56591,7 @@
         <v>125.8</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="15.75">
+    <row r="241" spans="1:3" ht="15.6">
       <c r="A241" s="6" t="s">
         <v>363</v>
       </c>
@@ -56636,7 +56602,7 @@
         <v>126.2</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="15.75">
+    <row r="242" spans="1:3" ht="15.6">
       <c r="A242" s="6" t="s">
         <v>364</v>
       </c>
@@ -56647,7 +56613,7 @@
         <v>126.9</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="15.75">
+    <row r="243" spans="1:3" ht="15.6">
       <c r="A243" s="6" t="s">
         <v>365</v>
       </c>
@@ -56658,7 +56624,7 @@
         <v>126.6</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="15.75">
+    <row r="244" spans="1:3" ht="15.6">
       <c r="A244" s="6" t="s">
         <v>366</v>
       </c>
@@ -56669,7 +56635,7 @@
         <v>125.8</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="15.75">
+    <row r="245" spans="1:3" ht="15.6">
       <c r="A245" s="6" t="s">
         <v>367</v>
       </c>
@@ -56680,7 +56646,7 @@
         <v>125.9</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="15.75">
+    <row r="246" spans="1:3" ht="15.6">
       <c r="A246" s="6" t="s">
         <v>368</v>
       </c>
@@ -56691,7 +56657,7 @@
         <v>125.9</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="15.75">
+    <row r="247" spans="1:3" ht="15.6">
       <c r="A247" s="6" t="s">
         <v>369</v>
       </c>
@@ -56702,7 +56668,7 @@
         <v>125.4</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="15.75">
+    <row r="248" spans="1:3" ht="15.6">
       <c r="A248" s="6" t="s">
         <v>370</v>
       </c>
@@ -56713,7 +56679,7 @@
         <v>124.8</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="15.75">
+    <row r="249" spans="1:3" ht="15.6">
       <c r="A249" s="6" t="s">
         <v>371</v>
       </c>
@@ -56724,7 +56690,7 @@
         <v>124.6</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="15.75">
+    <row r="250" spans="1:3" ht="15.6">
       <c r="A250" s="6" t="s">
         <v>372</v>
       </c>
@@ -56735,7 +56701,7 @@
         <v>124.6</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="15.75">
+    <row r="251" spans="1:3" ht="15.6">
       <c r="A251" s="6" t="s">
         <v>373</v>
       </c>
@@ -56746,7 +56712,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="15.75">
+    <row r="252" spans="1:3" ht="15.6">
       <c r="A252" s="6" t="s">
         <v>374</v>
       </c>
@@ -56757,7 +56723,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="15.75">
+    <row r="253" spans="1:3" ht="15.6">
       <c r="A253" s="6" t="s">
         <v>375</v>
       </c>
@@ -56768,7 +56734,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="15.75">
+    <row r="254" spans="1:3" ht="15.6">
       <c r="A254" s="6" t="s">
         <v>376</v>
       </c>
@@ -56779,7 +56745,7 @@
         <v>127.3</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="15.75">
+    <row r="255" spans="1:3" ht="15.6">
       <c r="A255" s="6" t="s">
         <v>377</v>
       </c>
@@ -56790,7 +56756,7 @@
         <v>127.6</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="15.75">
+    <row r="256" spans="1:3" ht="15.6">
       <c r="A256" s="6" t="s">
         <v>378</v>
       </c>
@@ -56801,7 +56767,7 @@
         <v>127.6</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="15.75">
+    <row r="257" spans="1:3" ht="15.6">
       <c r="A257" s="6" t="s">
         <v>197</v>
       </c>
@@ -56812,7 +56778,7 @@
         <v>128.1</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="15.75">
+    <row r="258" spans="1:3" ht="15.6">
       <c r="A258" s="6" t="s">
         <v>379</v>
       </c>
@@ -56823,7 +56789,7 @@
         <v>126.4</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="15.75">
+    <row r="259" spans="1:3" ht="15.6">
       <c r="A259" s="6" t="s">
         <v>380</v>
       </c>
@@ -56834,7 +56800,7 @@
         <v>125.4</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="15.75">
+    <row r="260" spans="1:3" ht="15.6">
       <c r="A260" s="6" t="s">
         <v>381</v>
       </c>
@@ -56845,7 +56811,7 @@
         <v>124.6</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="15.75">
+    <row r="261" spans="1:3" ht="15.6">
       <c r="A261" s="6" t="s">
         <v>382</v>
       </c>
@@ -56856,7 +56822,7 @@
         <v>124.4</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="15.75">
+    <row r="262" spans="1:3" ht="15.6">
       <c r="A262" s="6" t="s">
         <v>383</v>
       </c>
@@ -56867,7 +56833,7 @@
         <v>125.3</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="15.75">
+    <row r="263" spans="1:3" ht="15.6">
       <c r="A263" s="6" t="s">
         <v>384</v>
       </c>
@@ -56878,14 +56844,14 @@
         <v>125.6</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="18.75">
-      <c r="A264" s="121" t="s">
+    <row r="264" spans="1:3" ht="17.399999999999999">
+      <c r="A264" s="123" t="s">
         <v>385</v>
       </c>
-      <c r="B264" s="121"/>
-      <c r="C264" s="121"/>
-    </row>
-    <row r="265" spans="1:3" ht="15.75">
+      <c r="B264" s="123"/>
+      <c r="C264" s="123"/>
+    </row>
+    <row r="265" spans="1:3" ht="15.6">
       <c r="A265" s="5" t="s">
         <v>0</v>
       </c>
@@ -56896,7 +56862,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="15.75">
+    <row r="266" spans="1:3" ht="15.6">
       <c r="A266" s="6" t="s">
         <v>386</v>
       </c>
@@ -56907,7 +56873,7 @@
         <v>125.5</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="15.75">
+    <row r="267" spans="1:3" ht="15.6">
       <c r="A267" s="6" t="s">
         <v>387</v>
       </c>
@@ -56918,7 +56884,7 @@
         <v>125.6</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="15.75">
+    <row r="268" spans="1:3" ht="15.6">
       <c r="A268" s="6" t="s">
         <v>388</v>
       </c>
@@ -56929,7 +56895,7 @@
         <v>125.8</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="15.75">
+    <row r="269" spans="1:3" ht="15.6">
       <c r="A269" s="6" t="s">
         <v>389</v>
       </c>
@@ -56940,14 +56906,14 @@
         <v>126.9</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="15.75">
+    <row r="270" spans="1:3" ht="15.6">
       <c r="A270" s="6" t="s">
         <v>390</v>
       </c>
       <c r="B270" s="13"/>
       <c r="C270" s="4"/>
     </row>
-    <row r="271" spans="1:3" ht="15.75">
+    <row r="271" spans="1:3" ht="15.6">
       <c r="A271" s="6" t="s">
         <v>391</v>
       </c>
@@ -56958,7 +56924,7 @@
         <v>125.8</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="15.75">
+    <row r="272" spans="1:3" ht="15.6">
       <c r="A272" s="6" t="s">
         <v>392</v>
       </c>
@@ -56969,7 +56935,7 @@
         <v>124.9</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="15.75">
+    <row r="273" spans="1:3" ht="15.6">
       <c r="A273" s="6" t="s">
         <v>393</v>
       </c>
@@ -56980,7 +56946,7 @@
         <v>124.8</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="15.75">
+    <row r="274" spans="1:3" ht="15.6">
       <c r="A274" s="6" t="s">
         <v>394</v>
       </c>
@@ -56991,7 +56957,7 @@
         <v>124.1</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="15.75">
+    <row r="275" spans="1:3" ht="15.6">
       <c r="A275" s="6" t="s">
         <v>395</v>
       </c>
@@ -57002,7 +56968,7 @@
         <v>124.7</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="15.75">
+    <row r="276" spans="1:3" ht="15.6">
       <c r="A276" s="6" t="s">
         <v>396</v>
       </c>
@@ -57013,7 +56979,7 @@
         <v>125.5</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="15.75">
+    <row r="277" spans="1:3" ht="15.6">
       <c r="A277" s="6" t="s">
         <v>397</v>
       </c>
@@ -57024,7 +56990,7 @@
         <v>126.4</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="15.75">
+    <row r="278" spans="1:3" ht="15.6">
       <c r="A278" s="6" t="s">
         <v>398</v>
       </c>
@@ -57035,7 +57001,7 @@
         <v>127.6</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="15.75">
+    <row r="279" spans="1:3" ht="15.6">
       <c r="A279" s="6" t="s">
         <v>399</v>
       </c>
@@ -57046,7 +57012,7 @@
         <v>128.80000000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="15.75">
+    <row r="280" spans="1:3" ht="15.6">
       <c r="A280" s="6" t="s">
         <v>400</v>
       </c>
@@ -57057,7 +57023,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="15.75">
+    <row r="281" spans="1:3" ht="15.6">
       <c r="A281" s="6" t="s">
         <v>401</v>
       </c>
@@ -57068,7 +57034,7 @@
         <v>126.2</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="15.75">
+    <row r="282" spans="1:3" ht="15.6">
       <c r="A282" s="6" t="s">
         <v>402</v>
       </c>
@@ -57079,7 +57045,7 @@
         <v>124.5</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="15.75">
+    <row r="283" spans="1:3" ht="15.6">
       <c r="A283" s="6" t="s">
         <v>403</v>
       </c>
@@ -57090,7 +57056,7 @@
         <v>124.1</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="15.75">
+    <row r="284" spans="1:3" ht="15.6">
       <c r="A284" s="6" t="s">
         <v>404</v>
       </c>
@@ -57101,7 +57067,7 @@
         <v>125.6</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="15.75">
+    <row r="285" spans="1:3" ht="15.6">
       <c r="A285" s="6" t="s">
         <v>405</v>
       </c>
@@ -57112,7 +57078,7 @@
         <v>125.8</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="15.75">
+    <row r="286" spans="1:3" ht="15.6">
       <c r="A286" s="6" t="s">
         <v>406</v>
       </c>
@@ -57123,7 +57089,7 @@
         <v>123.9</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="15.75">
+    <row r="287" spans="1:3" ht="15.6">
       <c r="A287" s="6" t="s">
         <v>407</v>
       </c>
@@ -57134,7 +57100,7 @@
         <v>123.2</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="15.75">
+    <row r="288" spans="1:3" ht="15.6">
       <c r="A288" s="6" t="s">
         <v>408</v>
       </c>
@@ -57145,7 +57111,7 @@
         <v>122.8</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="15.75">
+    <row r="289" spans="1:3" ht="15.6">
       <c r="A289" s="6" t="s">
         <v>409</v>
       </c>
@@ -57156,7 +57122,7 @@
         <v>123.3</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="15.75">
+    <row r="290" spans="1:3" ht="15.6">
       <c r="A290" s="6" t="s">
         <v>199</v>
       </c>
@@ -57167,7 +57133,7 @@
         <v>124.9</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="15.75">
+    <row r="291" spans="1:3" ht="15.6">
       <c r="A291" s="6" t="s">
         <v>410</v>
       </c>
@@ -57178,7 +57144,7 @@
         <v>126.5</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="15.75">
+    <row r="292" spans="1:3" ht="15.6">
       <c r="A292" s="6" t="s">
         <v>411</v>
       </c>
@@ -57189,7 +57155,7 @@
         <v>126.2</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="15.75">
+    <row r="293" spans="1:3" ht="15.6">
       <c r="A293" s="6" t="s">
         <v>412</v>
       </c>
@@ -57200,7 +57166,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="15.75">
+    <row r="294" spans="1:3" ht="15.6">
       <c r="A294" s="6" t="s">
         <v>413</v>
       </c>
@@ -57211,7 +57177,7 @@
         <v>123.4</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="15.75">
+    <row r="295" spans="1:3" ht="15.6">
       <c r="A295" s="6" t="s">
         <v>414</v>
       </c>
@@ -57222,14 +57188,14 @@
         <v>124.3</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="18.75">
-      <c r="A296" s="121" t="s">
+    <row r="296" spans="1:3" ht="17.399999999999999">
+      <c r="A296" s="123" t="s">
         <v>415</v>
       </c>
-      <c r="B296" s="121"/>
-      <c r="C296" s="121"/>
-    </row>
-    <row r="297" spans="1:3" ht="15.75">
+      <c r="B296" s="123"/>
+      <c r="C296" s="123"/>
+    </row>
+    <row r="297" spans="1:3" ht="15.6">
       <c r="A297" s="5" t="s">
         <v>0</v>
       </c>
@@ -57240,7 +57206,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="15.75">
+    <row r="298" spans="1:3" ht="15.6">
       <c r="A298" s="6" t="s">
         <v>416</v>
       </c>
@@ -57251,7 +57217,7 @@
         <v>125.5</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="15.75">
+    <row r="299" spans="1:3" ht="15.6">
       <c r="A299" s="6" t="s">
         <v>417</v>
       </c>
@@ -57262,7 +57228,7 @@
         <v>123.7</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="15.75">
+    <row r="300" spans="1:3" ht="15.6">
       <c r="A300" s="6" t="s">
         <v>418</v>
       </c>
@@ -57273,7 +57239,7 @@
         <v>121.6</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="15.75">
+    <row r="301" spans="1:3" ht="15.6">
       <c r="A301" s="6" t="s">
         <v>419</v>
       </c>
@@ -57284,7 +57250,7 @@
         <v>121.6</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="15.75">
+    <row r="302" spans="1:3" ht="15.6">
       <c r="A302" s="6" t="s">
         <v>420</v>
       </c>
@@ -57295,7 +57261,7 @@
         <v>123.4</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="15.75">
+    <row r="303" spans="1:3" ht="15.6">
       <c r="A303" s="6" t="s">
         <v>421</v>
       </c>
@@ -57306,7 +57272,7 @@
         <v>123.4</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="15.75">
+    <row r="304" spans="1:3" ht="15.6">
       <c r="A304" s="6" t="s">
         <v>422</v>
       </c>
@@ -57317,7 +57283,7 @@
         <v>123.9</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="15.75">
+    <row r="305" spans="1:3" ht="15.6">
       <c r="A305" s="6" t="s">
         <v>423</v>
       </c>
@@ -57328,7 +57294,7 @@
         <v>124.5</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="15.75">
+    <row r="306" spans="1:3" ht="15.6">
       <c r="A306" s="6" t="s">
         <v>424</v>
       </c>
@@ -57339,7 +57305,7 @@
         <v>124.8</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="15.75">
+    <row r="307" spans="1:3" ht="15.6">
       <c r="A307" s="6" t="s">
         <v>425</v>
       </c>
@@ -57350,7 +57316,7 @@
         <v>124.8</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="15.75">
+    <row r="308" spans="1:3" ht="15.6">
       <c r="A308" s="6" t="s">
         <v>426</v>
       </c>
@@ -57361,7 +57327,7 @@
         <v>125.8</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="15.75">
+    <row r="309" spans="1:3" ht="15.6">
       <c r="A309" s="6" t="s">
         <v>427</v>
       </c>
@@ -57372,7 +57338,7 @@
         <v>124.7</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="15.75">
+    <row r="310" spans="1:3" ht="15.6">
       <c r="A310" s="6" t="s">
         <v>428</v>
       </c>
@@ -57383,7 +57349,7 @@
         <v>124.6</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="15.75">
+    <row r="311" spans="1:3" ht="15.6">
       <c r="A311" s="6" t="s">
         <v>429</v>
       </c>
@@ -57394,7 +57360,7 @@
         <v>124.1</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="15.75">
+    <row r="312" spans="1:3" ht="15.6">
       <c r="A312" s="6" t="s">
         <v>430</v>
       </c>
@@ -57405,7 +57371,7 @@
         <v>123.6</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="15.75">
+    <row r="313" spans="1:3" ht="15.6">
       <c r="A313" s="6" t="s">
         <v>431</v>
       </c>
@@ -57416,7 +57382,7 @@
         <v>123.2</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="15.75">
+    <row r="314" spans="1:3" ht="15.6">
       <c r="A314" s="6" t="s">
         <v>432</v>
       </c>
@@ -57427,7 +57393,7 @@
         <v>123.2</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="15.75">
+    <row r="315" spans="1:3" ht="15.6">
       <c r="A315" s="6" t="s">
         <v>433</v>
       </c>
@@ -57438,7 +57404,7 @@
         <v>123.3</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="15.75">
+    <row r="316" spans="1:3" ht="15.6">
       <c r="A316" s="6" t="s">
         <v>434</v>
       </c>
@@ -57449,7 +57415,7 @@
         <v>124.3</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="15.75">
+    <row r="317" spans="1:3" ht="15.6">
       <c r="A317" s="6" t="s">
         <v>435</v>
       </c>
@@ -57460,7 +57426,7 @@
         <v>124.7</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="15.75">
+    <row r="318" spans="1:3" ht="15.6">
       <c r="A318" s="6" t="s">
         <v>436</v>
       </c>
@@ -57471,7 +57437,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="15.75">
+    <row r="319" spans="1:3" ht="15.6">
       <c r="A319" s="6" t="s">
         <v>437</v>
       </c>
@@ -57482,7 +57448,7 @@
         <v>127.4</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="15.75">
+    <row r="320" spans="1:3" ht="15.6">
       <c r="A320" s="6" t="s">
         <v>438</v>
       </c>
@@ -57493,7 +57459,7 @@
         <v>127.2</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="15.75">
+    <row r="321" spans="1:3" ht="15.6">
       <c r="A321" s="6" t="s">
         <v>439</v>
       </c>
@@ -57504,7 +57470,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="15.75">
+    <row r="322" spans="1:3" ht="15.6">
       <c r="A322" s="6" t="s">
         <v>440</v>
       </c>
@@ -57515,7 +57481,7 @@
         <v>126.1</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="15.75">
+    <row r="323" spans="1:3" ht="15.6">
       <c r="A323" s="6" t="s">
         <v>441</v>
       </c>
@@ -57526,7 +57492,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="15.75">
+    <row r="324" spans="1:3" ht="15.6">
       <c r="A324" s="6" t="s">
         <v>442</v>
       </c>
@@ -57537,7 +57503,7 @@
         <v>126.1</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="15.75">
+    <row r="325" spans="1:3" ht="15.6">
       <c r="A325" s="6" t="s">
         <v>443</v>
       </c>
@@ -57548,7 +57514,7 @@
         <v>125.5</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="15.75">
+    <row r="326" spans="1:3" ht="15.6">
       <c r="A326" s="6" t="s">
         <v>444</v>
       </c>
@@ -57559,7 +57525,7 @@
         <v>124.6</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="15.75">
+    <row r="327" spans="1:3" ht="15.6">
       <c r="A327" s="6" t="s">
         <v>445</v>
       </c>
@@ -57570,14 +57536,14 @@
         <v>124.5</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="18.75">
-      <c r="A328" s="121" t="s">
+    <row r="328" spans="1:3" ht="17.399999999999999">
+      <c r="A328" s="123" t="s">
         <v>446</v>
       </c>
-      <c r="B328" s="121"/>
-      <c r="C328" s="121"/>
-    </row>
-    <row r="329" spans="1:3" ht="15.75">
+      <c r="B328" s="123"/>
+      <c r="C328" s="123"/>
+    </row>
+    <row r="329" spans="1:3" ht="15.6">
       <c r="A329" s="5" t="s">
         <v>0</v>
       </c>
@@ -57588,7 +57554,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="15.75">
+    <row r="330" spans="1:3" ht="15.6">
       <c r="A330" s="6" t="s">
         <v>447</v>
       </c>
@@ -57599,7 +57565,7 @@
         <v>123.8</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="15.75">
+    <row r="331" spans="1:3" ht="15.6">
       <c r="A331" s="6" t="s">
         <v>448</v>
       </c>
@@ -57610,7 +57576,7 @@
         <v>123.5</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="15.75">
+    <row r="332" spans="1:3" ht="15.6">
       <c r="A332" s="6" t="s">
         <v>449</v>
       </c>
@@ -57621,7 +57587,7 @@
         <v>123.2</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="15.75">
+    <row r="333" spans="1:3" ht="15.6">
       <c r="A333" s="6" t="s">
         <v>450</v>
       </c>
@@ -57632,7 +57598,7 @@
         <v>123.1</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="15.75">
+    <row r="334" spans="1:3" ht="15.6">
       <c r="A334" s="6" t="s">
         <v>451</v>
       </c>
@@ -57643,7 +57609,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="15.75">
+    <row r="335" spans="1:3" ht="15.6">
       <c r="A335" s="6" t="s">
         <v>452</v>
       </c>
@@ -57654,7 +57620,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="15.75">
+    <row r="336" spans="1:3" ht="15.6">
       <c r="A336" s="6" t="s">
         <v>453</v>
       </c>
@@ -57665,7 +57631,7 @@
         <v>122.9</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="15.75">
+    <row r="337" spans="1:3" ht="15.6">
       <c r="A337" s="6" t="s">
         <v>454</v>
       </c>
@@ -57676,7 +57642,7 @@
         <v>123.2</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="15.75">
+    <row r="338" spans="1:3" ht="15.6">
       <c r="A338" s="6" t="s">
         <v>455</v>
       </c>
@@ -57687,7 +57653,7 @@
         <v>123.5</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="15.75">
+    <row r="339" spans="1:3" ht="15.6">
       <c r="A339" s="6" t="s">
         <v>456</v>
       </c>
@@ -57698,7 +57664,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="15.75">
+    <row r="340" spans="1:3" ht="15.6">
       <c r="A340" s="6" t="s">
         <v>457</v>
       </c>
@@ -57709,7 +57675,7 @@
         <v>123.6</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="15.75">
+    <row r="341" spans="1:3" ht="15.6">
       <c r="A341" s="6" t="s">
         <v>458</v>
       </c>
@@ -57720,7 +57686,7 @@
         <v>123.2</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="15.75">
+    <row r="342" spans="1:3" ht="15.6">
       <c r="A342" s="6" t="s">
         <v>459</v>
       </c>
@@ -57731,7 +57697,7 @@
         <v>122.8</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="15.75">
+    <row r="343" spans="1:3" ht="15.6">
       <c r="A343" s="6" t="s">
         <v>460</v>
       </c>
@@ -57742,7 +57708,7 @@
         <v>121.4</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="15.75">
+    <row r="344" spans="1:3" ht="15.6">
       <c r="A344" s="6" t="s">
         <v>200</v>
       </c>
@@ -57753,7 +57719,7 @@
         <v>122.5</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="15.75">
+    <row r="345" spans="1:3" ht="15.6">
       <c r="A345" s="6" t="s">
         <v>461</v>
       </c>
@@ -57764,7 +57730,7 @@
         <v>115.8</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="15.75">
+    <row r="346" spans="1:3" ht="15.6">
       <c r="A346" s="6" t="s">
         <v>462</v>
       </c>
@@ -57775,7 +57741,7 @@
         <v>122.1</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="15.75">
+    <row r="347" spans="1:3" ht="15.6">
       <c r="A347" s="6" t="s">
         <v>463</v>
       </c>
@@ -57786,7 +57752,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="15.75">
+    <row r="348" spans="1:3" ht="15.6">
       <c r="A348" s="6" t="s">
         <v>464</v>
       </c>
@@ -57797,7 +57763,7 @@
         <v>123.1</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="15.75">
+    <row r="349" spans="1:3" ht="15.6">
       <c r="A349" s="6" t="s">
         <v>465</v>
       </c>
@@ -57808,7 +57774,7 @@
         <v>125.6</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="15.75">
+    <row r="350" spans="1:3" ht="15.6">
       <c r="A350" s="6" t="s">
         <v>466</v>
       </c>
@@ -57819,7 +57785,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="15.75">
+    <row r="351" spans="1:3" ht="15.6">
       <c r="A351" s="6" t="s">
         <v>467</v>
       </c>
@@ -57830,7 +57796,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="15.75">
+    <row r="352" spans="1:3" ht="15.6">
       <c r="A352" s="6" t="s">
         <v>468</v>
       </c>
@@ -57841,7 +57807,7 @@
         <v>125.3</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="15.75">
+    <row r="353" spans="1:3" ht="15.6">
       <c r="A353" s="6" t="s">
         <v>469</v>
       </c>
@@ -57852,7 +57818,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="15.75">
+    <row r="354" spans="1:3" ht="15.6">
       <c r="A354" s="6" t="s">
         <v>470</v>
       </c>
@@ -57863,7 +57829,7 @@
         <v>124.4</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="15.75">
+    <row r="355" spans="1:3" ht="15.6">
       <c r="A355" s="6" t="s">
         <v>471</v>
       </c>
@@ -57874,7 +57840,7 @@
         <v>123.7</v>
       </c>
     </row>
-    <row r="356" spans="1:3" ht="15.75">
+    <row r="356" spans="1:3" ht="15.6">
       <c r="A356" s="6" t="s">
         <v>472</v>
       </c>
@@ -57885,7 +57851,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="15.75">
+    <row r="357" spans="1:3" ht="15.6">
       <c r="A357" s="6" t="s">
         <v>473</v>
       </c>
@@ -57896,7 +57862,7 @@
         <v>122.7</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="15.75">
+    <row r="358" spans="1:3" ht="15.6">
       <c r="A358" s="6" t="s">
         <v>474</v>
       </c>
@@ -57907,7 +57873,7 @@
         <v>122.6</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="15.75">
+    <row r="359" spans="1:3" ht="15.6">
       <c r="A359" s="6" t="s">
         <v>475</v>
       </c>
@@ -57918,14 +57884,14 @@
         <v>122.5</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="18.75">
-      <c r="A360" s="121" t="s">
+    <row r="360" spans="1:3" ht="17.399999999999999">
+      <c r="A360" s="123" t="s">
         <v>476</v>
       </c>
-      <c r="B360" s="121"/>
-      <c r="C360" s="121"/>
-    </row>
-    <row r="361" spans="1:3" ht="15.75">
+      <c r="B360" s="123"/>
+      <c r="C360" s="123"/>
+    </row>
+    <row r="361" spans="1:3" ht="15.6">
       <c r="A361" s="5" t="s">
         <v>0</v>
       </c>
@@ -57936,7 +57902,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="15.75">
+    <row r="362" spans="1:3" ht="15.6">
       <c r="A362" s="6" t="s">
         <v>477</v>
       </c>
@@ -57947,7 +57913,7 @@
         <v>122.6</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="15.75">
+    <row r="363" spans="1:3" ht="15.6">
       <c r="A363" s="6" t="s">
         <v>478</v>
       </c>
@@ -57958,7 +57924,7 @@
         <v>122.6</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="15.75">
+    <row r="364" spans="1:3" ht="15.6">
       <c r="A364" s="6" t="s">
         <v>479</v>
       </c>
@@ -57969,7 +57935,7 @@
         <v>122.6</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="15.75">
+    <row r="365" spans="1:3" ht="15.6">
       <c r="A365" s="6" t="s">
         <v>480</v>
       </c>
@@ -57980,7 +57946,7 @@
         <v>122.6</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="15.75">
+    <row r="366" spans="1:3" ht="15.6">
       <c r="A366" s="6" t="s">
         <v>481</v>
       </c>
@@ -57991,7 +57957,7 @@
         <v>122.6</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="15.75">
+    <row r="367" spans="1:3" ht="15.6">
       <c r="A367" s="6" t="s">
         <v>482</v>
       </c>
@@ -58002,7 +57968,7 @@
         <v>122.9</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="15.75">
+    <row r="368" spans="1:3" ht="15.6">
       <c r="A368" s="6" t="s">
         <v>483</v>
       </c>
@@ -58013,7 +57979,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="15.75">
+    <row r="369" spans="1:3" ht="15.6">
       <c r="A369" s="6" t="s">
         <v>484</v>
       </c>
@@ -58024,21 +57990,21 @@
         <v>122.7</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="15.75">
+    <row r="370" spans="1:3" ht="15.6">
       <c r="A370" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B370" s="13"/>
       <c r="C370" s="4"/>
     </row>
-    <row r="371" spans="1:3" ht="15.75">
+    <row r="371" spans="1:3" ht="15.6">
       <c r="A371" s="6" t="s">
         <v>486</v>
       </c>
       <c r="B371" s="13"/>
       <c r="C371" s="4"/>
     </row>
-    <row r="372" spans="1:3" ht="15.75">
+    <row r="372" spans="1:3" ht="15.6">
       <c r="A372" s="6" t="s">
         <v>487</v>
       </c>
@@ -58049,7 +58015,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="15.75">
+    <row r="373" spans="1:3" ht="15.6">
       <c r="A373" s="6" t="s">
         <v>488</v>
       </c>
@@ -58060,7 +58026,7 @@
         <v>120.2</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="15.75">
+    <row r="374" spans="1:3" ht="15.6">
       <c r="A374" s="6" t="s">
         <v>489</v>
       </c>
@@ -58071,7 +58037,7 @@
         <v>121.5</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="15.75">
+    <row r="375" spans="1:3" ht="15.6">
       <c r="A375" s="6" t="s">
         <v>490</v>
       </c>
@@ -58082,7 +58048,7 @@
         <v>121.6</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="15.75">
+    <row r="376" spans="1:3" ht="15.6">
       <c r="A376" s="6" t="s">
         <v>491</v>
       </c>
@@ -58093,7 +58059,7 @@
         <v>121.9</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="15.75">
+    <row r="377" spans="1:3" ht="15.6">
       <c r="A377" s="6" t="s">
         <v>492</v>
       </c>
@@ -58104,7 +58070,7 @@
         <v>121.8</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="15.75">
+    <row r="378" spans="1:3" ht="15.6">
       <c r="A378" s="6" t="s">
         <v>493</v>
       </c>
@@ -58115,7 +58081,7 @@
         <v>121.8</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="15.75">
+    <row r="379" spans="1:3" ht="15.6">
       <c r="A379" s="6" t="s">
         <v>494</v>
       </c>
@@ -58126,7 +58092,7 @@
         <v>121.5</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="15.75">
+    <row r="380" spans="1:3" ht="15.6">
       <c r="A380" s="6" t="s">
         <v>495</v>
       </c>
@@ -58137,7 +58103,7 @@
         <v>121.4</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="15.75">
+    <row r="381" spans="1:3" ht="15.6">
       <c r="A381" s="6" t="s">
         <v>496</v>
       </c>
@@ -58148,7 +58114,7 @@
         <v>121.4</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="15.75">
+    <row r="382" spans="1:3" ht="15.6">
       <c r="A382" s="6" t="s">
         <v>497</v>
       </c>
@@ -58159,7 +58125,7 @@
         <v>121.3</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="15.75">
+    <row r="383" spans="1:3" ht="15.6">
       <c r="A383" s="6" t="s">
         <v>498</v>
       </c>
@@ -58170,7 +58136,7 @@
         <v>121.4</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="15.75">
+    <row r="384" spans="1:3" ht="15.6">
       <c r="A384" s="6" t="s">
         <v>499</v>
       </c>
@@ -58181,7 +58147,7 @@
         <v>121.5</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="15.75">
+    <row r="385" spans="1:3" ht="15.6">
       <c r="A385" s="6" t="s">
         <v>500</v>
       </c>
@@ -58192,7 +58158,7 @@
         <v>121.5</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="15.75">
+    <row r="386" spans="1:3" ht="15.6">
       <c r="A386" s="6" t="s">
         <v>501</v>
       </c>
@@ -58203,7 +58169,7 @@
         <v>121.5</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="15.75">
+    <row r="387" spans="1:3" ht="15.6">
       <c r="A387" s="6" t="s">
         <v>502</v>
       </c>
@@ -58214,7 +58180,7 @@
         <v>121.5</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="15.75">
+    <row r="388" spans="1:3" ht="15.6">
       <c r="A388" s="6" t="s">
         <v>503</v>
       </c>
@@ -58225,7 +58191,7 @@
         <v>121.6</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="15.75">
+    <row r="389" spans="1:3" ht="15.6">
       <c r="A389" s="6" t="s">
         <v>504</v>
       </c>
@@ -58236,7 +58202,7 @@
         <v>121.8</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="15.75">
+    <row r="390" spans="1:3" ht="15.6">
       <c r="A390" s="6" t="s">
         <v>202</v>
       </c>
@@ -58249,12 +58215,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="E57:T57"/>
-    <mergeCell ref="E58:T58"/>
     <mergeCell ref="A296:C296"/>
     <mergeCell ref="A328:C328"/>
     <mergeCell ref="A360:C360"/>
@@ -58264,6 +58224,12 @@
     <mergeCell ref="A167:C167"/>
     <mergeCell ref="A200:C200"/>
     <mergeCell ref="A232:C232"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="E57:T57"/>
+    <mergeCell ref="E58:T58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -58283,42 +58249,42 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="30" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="30" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+    <col min="9" max="10" width="12.6640625" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="17" width="12.7109375" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="15" max="17" width="12.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="122"/>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75">
-      <c r="A2" s="121" t="s">
+    <row r="1" spans="1:8" ht="17.399999999999999">
+      <c r="A1" s="124"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.399999999999999">
+      <c r="A2" s="123" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
       <c r="E2" s="35"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="29" t="s">
         <v>0</v>
       </c>
@@ -58333,7 +58299,7 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="29" t="s">
         <v>505</v>
       </c>
@@ -58348,7 +58314,7 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="29" t="s">
         <v>506</v>
       </c>
@@ -58363,7 +58329,7 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="29" t="s">
         <v>507</v>
       </c>
@@ -58378,7 +58344,7 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75">
+    <row r="7" spans="1:8" ht="15.6">
       <c r="A7" s="29" t="s">
         <v>508</v>
       </c>
@@ -58393,7 +58359,7 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75">
+    <row r="8" spans="1:8" ht="15.6">
       <c r="A8" s="29" t="s">
         <v>509</v>
       </c>
@@ -58404,7 +58370,7 @@
         <v>121.6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75">
+    <row r="9" spans="1:8" ht="15.6">
       <c r="A9" s="29" t="s">
         <v>510</v>
       </c>
@@ -58415,7 +58381,7 @@
         <v>121.6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75">
+    <row r="10" spans="1:8" ht="15.6">
       <c r="A10" s="29" t="s">
         <v>511</v>
       </c>
@@ -58426,7 +58392,7 @@
         <v>121.7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75">
+    <row r="11" spans="1:8" ht="15.6">
       <c r="A11" s="29" t="s">
         <v>512</v>
       </c>
@@ -58437,7 +58403,7 @@
         <v>121.8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="29" t="s">
         <v>513</v>
       </c>
@@ -58448,7 +58414,7 @@
         <v>121.8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="29" t="s">
         <v>514</v>
       </c>
@@ -58459,7 +58425,7 @@
         <v>121.8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="29" t="s">
         <v>515</v>
       </c>
@@ -58470,7 +58436,7 @@
         <v>121.8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75">
+    <row r="15" spans="1:8" ht="15.6">
       <c r="A15" s="29" t="s">
         <v>516</v>
       </c>
@@ -58481,7 +58447,7 @@
         <v>121.7</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="29" t="s">
         <v>517</v>
       </c>
@@ -58492,7 +58458,7 @@
         <v>121.7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75">
+    <row r="17" spans="1:3" ht="15.6">
       <c r="A17" s="29" t="s">
         <v>518</v>
       </c>
@@ -58503,7 +58469,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75">
+    <row r="18" spans="1:3" ht="15.6">
       <c r="A18" s="29" t="s">
         <v>519</v>
       </c>
@@ -58514,7 +58480,7 @@
         <v>121.2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75">
+    <row r="19" spans="1:3" ht="15.6">
       <c r="A19" s="29" t="s">
         <v>520</v>
       </c>
@@ -58525,7 +58491,7 @@
         <v>120.7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75">
+    <row r="20" spans="1:3" ht="15.6">
       <c r="A20" s="29" t="s">
         <v>521</v>
       </c>
@@ -58536,7 +58502,7 @@
         <v>120.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75">
+    <row r="21" spans="1:3" ht="15.6">
       <c r="A21" s="29" t="s">
         <v>522</v>
       </c>
@@ -58547,7 +58513,7 @@
         <v>117.4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75">
+    <row r="22" spans="1:3" ht="15.6">
       <c r="A22" s="29" t="s">
         <v>523</v>
       </c>
@@ -58558,7 +58524,7 @@
         <v>120.2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75">
+    <row r="23" spans="1:3" ht="15.6">
       <c r="A23" s="29" t="s">
         <v>524</v>
       </c>
@@ -58569,7 +58535,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75">
+    <row r="24" spans="1:3" ht="15.6">
       <c r="A24" s="29" t="s">
         <v>525</v>
       </c>
@@ -58580,7 +58546,7 @@
         <v>120.2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75">
+    <row r="25" spans="1:3" ht="15.6">
       <c r="A25" s="29" t="s">
         <v>526</v>
       </c>
@@ -58591,7 +58557,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75">
+    <row r="26" spans="1:3" ht="15.6">
       <c r="A26" s="29" t="s">
         <v>527</v>
       </c>
@@ -58602,7 +58568,7 @@
         <v>121.1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75">
+    <row r="27" spans="1:3" ht="15.6">
       <c r="A27" s="29" t="s">
         <v>528</v>
       </c>
@@ -58613,7 +58579,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75">
+    <row r="28" spans="1:3" ht="15.6">
       <c r="A28" s="29" t="s">
         <v>529</v>
       </c>
@@ -58624,7 +58590,7 @@
         <v>120.8</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75">
+    <row r="29" spans="1:3" ht="15.6">
       <c r="A29" s="29" t="s">
         <v>530</v>
       </c>
@@ -58635,7 +58601,7 @@
         <v>120.8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75">
+    <row r="30" spans="1:3" ht="15.6">
       <c r="A30" s="29" t="s">
         <v>531</v>
       </c>
@@ -58646,7 +58612,7 @@
         <v>120.6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75">
+    <row r="31" spans="1:3" ht="15.6">
       <c r="A31" s="29" t="s">
         <v>532</v>
       </c>
@@ -58657,7 +58623,7 @@
         <v>120.6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75">
+    <row r="32" spans="1:3" ht="15.6">
       <c r="A32" s="29" t="s">
         <v>533</v>
       </c>
@@ -58668,7 +58634,7 @@
         <v>120.5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75">
+    <row r="33" spans="1:3" ht="15.6">
       <c r="A33" s="29" t="s">
         <v>534</v>
       </c>
@@ -58679,7 +58645,7 @@
         <v>120.5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75">
+    <row r="34" spans="1:3" ht="15.6">
       <c r="A34" s="29" t="s">
         <v>535</v>
       </c>
@@ -58690,14 +58656,14 @@
         <v>120.5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18.75">
-      <c r="A35" s="121" t="s">
+    <row r="35" spans="1:3" ht="17.399999999999999">
+      <c r="A35" s="123" t="s">
         <v>144</v>
       </c>
-      <c r="B35" s="121"/>
-      <c r="C35" s="121"/>
-    </row>
-    <row r="36" spans="1:3" ht="15.75">
+      <c r="B35" s="123"/>
+      <c r="C35" s="123"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.6">
       <c r="A36" s="29" t="s">
         <v>0</v>
       </c>
@@ -58708,7 +58674,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75">
+    <row r="37" spans="1:3" ht="15.6">
       <c r="A37" s="29" t="s">
         <v>536</v>
       </c>
@@ -58719,7 +58685,7 @@
         <v>120.5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75">
+    <row r="38" spans="1:3" ht="15.6">
       <c r="A38" s="29" t="s">
         <v>537</v>
       </c>
@@ -58730,7 +58696,7 @@
         <v>120.5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75">
+    <row r="39" spans="1:3" ht="15.6">
       <c r="A39" s="29" t="s">
         <v>538</v>
       </c>
@@ -58741,7 +58707,7 @@
         <v>120.4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75">
+    <row r="40" spans="1:3" ht="15.6">
       <c r="A40" s="29" t="s">
         <v>539</v>
       </c>
@@ -58752,7 +58718,7 @@
         <v>120.3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75">
+    <row r="41" spans="1:3" ht="15.6">
       <c r="A41" s="29" t="s">
         <v>540</v>
       </c>
@@ -58763,7 +58729,7 @@
         <v>120.3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75">
+    <row r="42" spans="1:3" ht="15.6">
       <c r="A42" s="29" t="s">
         <v>541</v>
       </c>
@@ -58774,7 +58740,7 @@
         <v>120.4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75">
+    <row r="43" spans="1:3" ht="15.6">
       <c r="A43" s="29" t="s">
         <v>542</v>
       </c>
@@ -58785,7 +58751,7 @@
         <v>120.6</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75">
+    <row r="44" spans="1:3" ht="15.6">
       <c r="A44" s="29" t="s">
         <v>543</v>
       </c>
@@ -58796,7 +58762,7 @@
         <v>120.6</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75">
+    <row r="45" spans="1:3" ht="15.6">
       <c r="A45" s="29" t="s">
         <v>544</v>
       </c>
@@ -58807,7 +58773,7 @@
         <v>120.7</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75">
+    <row r="46" spans="1:3" ht="15.6">
       <c r="A46" s="29" t="s">
         <v>545</v>
       </c>
@@ -58818,7 +58784,7 @@
         <v>120.7</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75">
+    <row r="47" spans="1:3" ht="15.6">
       <c r="A47" s="29" t="s">
         <v>546</v>
       </c>
@@ -58829,7 +58795,7 @@
         <v>120.7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75">
+    <row r="48" spans="1:3" ht="15.6">
       <c r="A48" s="29" t="s">
         <v>547</v>
       </c>
@@ -58840,7 +58806,7 @@
         <v>120.8</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="15.75">
+    <row r="49" spans="1:20" ht="15.6">
       <c r="A49" s="29" t="s">
         <v>548</v>
       </c>
@@ -58851,7 +58817,7 @@
         <v>120.8</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="15.75">
+    <row r="50" spans="1:20" ht="15.6">
       <c r="A50" s="29" t="s">
         <v>549</v>
       </c>
@@ -58862,7 +58828,7 @@
         <v>120.7</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="15.75">
+    <row r="51" spans="1:20" ht="15.6">
       <c r="A51" s="29" t="s">
         <v>550</v>
       </c>
@@ -58873,7 +58839,7 @@
         <v>120.7</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="15.75">
+    <row r="52" spans="1:20" ht="15.6">
       <c r="A52" s="29" t="s">
         <v>551</v>
       </c>
@@ -58884,7 +58850,7 @@
         <v>120.7</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="15.75">
+    <row r="53" spans="1:20" ht="15.6">
       <c r="A53" s="29" t="s">
         <v>552</v>
       </c>
@@ -58895,7 +58861,7 @@
         <v>120.8</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="15.75">
+    <row r="54" spans="1:20" ht="15.6">
       <c r="A54" s="29" t="s">
         <v>553</v>
       </c>
@@ -58906,7 +58872,7 @@
         <v>120.9</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="15.75">
+    <row r="55" spans="1:20" ht="15.6">
       <c r="A55" s="29" t="s">
         <v>554</v>
       </c>
@@ -58917,7 +58883,7 @@
         <v>120.8</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="15.75">
+    <row r="56" spans="1:20" ht="15.6">
       <c r="A56" s="29" t="s">
         <v>555</v>
       </c>
@@ -58928,7 +58894,7 @@
         <v>120.7</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="18.75">
+    <row r="57" spans="1:20" ht="17.399999999999999">
       <c r="A57" s="29" t="s">
         <v>556</v>
       </c>
@@ -58938,24 +58904,24 @@
       <c r="C57" s="4">
         <v>119.7</v>
       </c>
-      <c r="E57" s="122"/>
-      <c r="F57" s="122"/>
-      <c r="G57" s="122"/>
-      <c r="H57" s="122"/>
-      <c r="I57" s="122"/>
-      <c r="J57" s="122"/>
-      <c r="K57" s="122"/>
-      <c r="L57" s="122"/>
-      <c r="M57" s="122"/>
-      <c r="N57" s="122"/>
-      <c r="O57" s="122"/>
-      <c r="P57" s="122"/>
-      <c r="Q57" s="122"/>
-      <c r="R57" s="122"/>
-      <c r="S57" s="122"/>
-      <c r="T57" s="122"/>
-    </row>
-    <row r="58" spans="1:20" ht="18.75">
+      <c r="E57" s="124"/>
+      <c r="F57" s="124"/>
+      <c r="G57" s="124"/>
+      <c r="H57" s="124"/>
+      <c r="I57" s="124"/>
+      <c r="J57" s="124"/>
+      <c r="K57" s="124"/>
+      <c r="L57" s="124"/>
+      <c r="M57" s="124"/>
+      <c r="N57" s="124"/>
+      <c r="O57" s="124"/>
+      <c r="P57" s="124"/>
+      <c r="Q57" s="124"/>
+      <c r="R57" s="124"/>
+      <c r="S57" s="124"/>
+      <c r="T57" s="124"/>
+    </row>
+    <row r="58" spans="1:20" ht="17.399999999999999">
       <c r="A58" s="29" t="s">
         <v>557</v>
       </c>
@@ -58965,26 +58931,26 @@
       <c r="C58" s="4">
         <v>119.1</v>
       </c>
-      <c r="E58" s="121" t="s">
+      <c r="E58" s="123" t="s">
         <v>167</v>
       </c>
-      <c r="F58" s="121"/>
-      <c r="G58" s="121"/>
-      <c r="H58" s="121"/>
-      <c r="I58" s="121"/>
-      <c r="J58" s="121"/>
-      <c r="K58" s="121"/>
-      <c r="L58" s="121"/>
-      <c r="M58" s="121"/>
-      <c r="N58" s="121"/>
-      <c r="O58" s="121"/>
-      <c r="P58" s="121"/>
-      <c r="Q58" s="121"/>
-      <c r="R58" s="121"/>
-      <c r="S58" s="121"/>
-      <c r="T58" s="121"/>
-    </row>
-    <row r="59" spans="1:20" ht="15.75">
+      <c r="F58" s="123"/>
+      <c r="G58" s="123"/>
+      <c r="H58" s="123"/>
+      <c r="I58" s="123"/>
+      <c r="J58" s="123"/>
+      <c r="K58" s="123"/>
+      <c r="L58" s="123"/>
+      <c r="M58" s="123"/>
+      <c r="N58" s="123"/>
+      <c r="O58" s="123"/>
+      <c r="P58" s="123"/>
+      <c r="Q58" s="123"/>
+      <c r="R58" s="123"/>
+      <c r="S58" s="123"/>
+      <c r="T58" s="123"/>
+    </row>
+    <row r="59" spans="1:20" ht="15.6">
       <c r="A59" s="29" t="s">
         <v>558</v>
       </c>
@@ -59043,7 +59009,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="15.75">
+    <row r="60" spans="1:20" ht="15.6">
       <c r="A60" s="29" t="s">
         <v>559</v>
       </c>
@@ -59093,7 +59059,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="15.75">
+    <row r="61" spans="1:20" ht="15.6">
       <c r="A61" s="29" t="s">
         <v>561</v>
       </c>
@@ -59159,7 +59125,7 @@
         <v>42.841381491746006</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="15.75">
+    <row r="62" spans="1:20" ht="15.6">
       <c r="A62" s="29" t="s">
         <v>563</v>
       </c>
@@ -59225,7 +59191,7 @@
         <v>21.733824382143894</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="15.75">
+    <row r="63" spans="1:20" ht="15.6">
       <c r="A63" s="29" t="s">
         <v>565</v>
       </c>
@@ -59291,7 +59257,7 @@
         <v>-2.7428805193167136</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="15.75">
+    <row r="64" spans="1:20" ht="15.6">
       <c r="A64" s="29" t="s">
         <v>567</v>
       </c>
@@ -59357,7 +59323,7 @@
         <v>12.974110255884625</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="15.75">
+    <row r="65" spans="1:20" ht="15.6">
       <c r="A65" s="29" t="s">
         <v>569</v>
       </c>
@@ -59384,7 +59350,7 @@
       <c r="S65" s="16"/>
       <c r="T65" s="16"/>
     </row>
-    <row r="66" spans="1:20" ht="15.75">
+    <row r="66" spans="1:20" ht="15.6">
       <c r="A66" s="29" t="s">
         <v>570</v>
       </c>
@@ -59411,7 +59377,7 @@
       <c r="S66" s="16"/>
       <c r="T66" s="16"/>
     </row>
-    <row r="67" spans="1:20" ht="15.75">
+    <row r="67" spans="1:20" ht="15.6">
       <c r="A67" s="29" t="s">
         <v>571</v>
       </c>
@@ -59438,12 +59404,12 @@
       <c r="S67" s="16"/>
       <c r="T67" s="16"/>
     </row>
-    <row r="68" spans="1:20" ht="18.75">
-      <c r="A68" s="121" t="s">
+    <row r="68" spans="1:20" ht="17.399999999999999">
+      <c r="A68" s="123" t="s">
         <v>198</v>
       </c>
-      <c r="B68" s="121"/>
-      <c r="C68" s="121"/>
+      <c r="B68" s="123"/>
+      <c r="C68" s="123"/>
       <c r="E68" s="6"/>
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
@@ -59461,7 +59427,7 @@
       <c r="S68" s="16"/>
       <c r="T68" s="16"/>
     </row>
-    <row r="69" spans="1:20" ht="15.75">
+    <row r="69" spans="1:20" ht="15.6">
       <c r="A69" s="29" t="s">
         <v>0</v>
       </c>
@@ -59488,7 +59454,7 @@
       <c r="S69" s="16"/>
       <c r="T69" s="16"/>
     </row>
-    <row r="70" spans="1:20" ht="15.75">
+    <row r="70" spans="1:20" ht="15.6">
       <c r="A70" s="29" t="s">
         <v>572</v>
       </c>
@@ -59515,7 +59481,7 @@
       <c r="S70" s="16"/>
       <c r="T70" s="16"/>
     </row>
-    <row r="71" spans="1:20" ht="15.75">
+    <row r="71" spans="1:20" ht="15.6">
       <c r="A71" s="29" t="s">
         <v>573</v>
       </c>
@@ -59542,7 +59508,7 @@
       <c r="S71" s="16"/>
       <c r="T71" s="16"/>
     </row>
-    <row r="72" spans="1:20" ht="15.75">
+    <row r="72" spans="1:20" ht="15.6">
       <c r="A72" s="29" t="s">
         <v>562</v>
       </c>
@@ -59553,7 +59519,7 @@
         <v>118.1</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="15.75">
+    <row r="73" spans="1:20" ht="15.6">
       <c r="A73" s="29" t="s">
         <v>574</v>
       </c>
@@ -59564,7 +59530,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="15.75">
+    <row r="74" spans="1:20" ht="15.6">
       <c r="A74" s="29" t="s">
         <v>575</v>
       </c>
@@ -59575,7 +59541,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="15.75">
+    <row r="75" spans="1:20" ht="15.6">
       <c r="A75" s="29" t="s">
         <v>576</v>
       </c>
@@ -59586,7 +59552,7 @@
         <v>118.1</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="15.75">
+    <row r="76" spans="1:20" ht="15.6">
       <c r="A76" s="29" t="s">
         <v>577</v>
       </c>
@@ -59597,7 +59563,7 @@
         <v>118.6</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="15.75">
+    <row r="77" spans="1:20" ht="15.6">
       <c r="A77" s="29" t="s">
         <v>578</v>
       </c>
@@ -59608,7 +59574,7 @@
         <v>118.7</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="15.75">
+    <row r="78" spans="1:20" ht="15.6">
       <c r="A78" s="29" t="s">
         <v>579</v>
       </c>
@@ -59619,7 +59585,7 @@
         <v>118.6</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="15.75">
+    <row r="79" spans="1:20" ht="15.6">
       <c r="A79" s="29" t="s">
         <v>580</v>
       </c>
@@ -59630,7 +59596,7 @@
         <v>118.6</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="15.75">
+    <row r="80" spans="1:20" ht="15.6">
       <c r="A80" s="29" t="s">
         <v>581</v>
       </c>
@@ -59641,7 +59607,7 @@
         <v>118.6</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.75">
+    <row r="81" spans="1:3" ht="15.6">
       <c r="A81" s="29" t="s">
         <v>582</v>
       </c>
@@ -59652,7 +59618,7 @@
         <v>118.6</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75">
+    <row r="82" spans="1:3" ht="15.6">
       <c r="A82" s="29" t="s">
         <v>583</v>
       </c>
@@ -59663,7 +59629,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75">
+    <row r="83" spans="1:3" ht="15.6">
       <c r="A83" s="29" t="s">
         <v>584</v>
       </c>
@@ -59674,7 +59640,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75">
+    <row r="84" spans="1:3" ht="15.6">
       <c r="A84" s="29" t="s">
         <v>585</v>
       </c>
@@ -59685,7 +59651,7 @@
         <v>118.6</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75">
+    <row r="85" spans="1:3" ht="15.6">
       <c r="A85" s="29" t="s">
         <v>586</v>
       </c>
@@ -59696,7 +59662,7 @@
         <v>118.7</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.75">
+    <row r="86" spans="1:3" ht="15.6">
       <c r="A86" s="29" t="s">
         <v>587</v>
       </c>
@@ -59707,7 +59673,7 @@
         <v>118.7</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.75">
+    <row r="87" spans="1:3" ht="15.6">
       <c r="A87" s="29" t="s">
         <v>588</v>
       </c>
@@ -59718,7 +59684,7 @@
         <v>118.8</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.75">
+    <row r="88" spans="1:3" ht="15.6">
       <c r="A88" s="29" t="s">
         <v>589</v>
       </c>
@@ -59729,7 +59695,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.75">
+    <row r="89" spans="1:3" ht="15.6">
       <c r="A89" s="29" t="s">
         <v>590</v>
       </c>
@@ -59740,7 +59706,7 @@
         <v>118.8</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15.75">
+    <row r="90" spans="1:3" ht="15.6">
       <c r="A90" s="29" t="s">
         <v>591</v>
       </c>
@@ -59751,7 +59717,7 @@
         <v>118.7</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.75">
+    <row r="91" spans="1:3" ht="15.6">
       <c r="A91" s="29" t="s">
         <v>592</v>
       </c>
@@ -59762,7 +59728,7 @@
         <v>118.7</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.75">
+    <row r="92" spans="1:3" ht="15.6">
       <c r="A92" s="29" t="s">
         <v>593</v>
       </c>
@@ -59773,7 +59739,7 @@
         <v>118.7</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.75">
+    <row r="93" spans="1:3" ht="15.6">
       <c r="A93" s="29" t="s">
         <v>594</v>
       </c>
@@ -59784,7 +59750,7 @@
         <v>118.7</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.75">
+    <row r="94" spans="1:3" ht="15.6">
       <c r="A94" s="29" t="s">
         <v>595</v>
       </c>
@@ -59795,7 +59761,7 @@
         <v>118.7</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.75">
+    <row r="95" spans="1:3" ht="15.6">
       <c r="A95" s="29" t="s">
         <v>596</v>
       </c>
@@ -59806,7 +59772,7 @@
         <v>118.8</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.75">
+    <row r="96" spans="1:3" ht="15.6">
       <c r="A96" s="29" t="s">
         <v>597</v>
       </c>
@@ -59817,7 +59783,7 @@
         <v>118.9</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15.75">
+    <row r="97" spans="1:3" ht="15.6">
       <c r="A97" s="29" t="s">
         <v>598</v>
       </c>
@@ -59828,7 +59794,7 @@
         <v>119.1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15.75">
+    <row r="98" spans="1:3" ht="15.6">
       <c r="A98" s="29" t="s">
         <v>599</v>
       </c>
@@ -59839,7 +59805,7 @@
         <v>119.4</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.75">
+    <row r="99" spans="1:3" ht="15.6">
       <c r="A99" s="29" t="s">
         <v>600</v>
       </c>
@@ -59850,7 +59816,7 @@
         <v>119.6</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.75">
+    <row r="100" spans="1:3" ht="15.6">
       <c r="A100" s="29" t="s">
         <v>601</v>
       </c>
@@ -59861,14 +59827,14 @@
         <v>119.5</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="18.75">
-      <c r="A101" s="121" t="s">
+    <row r="101" spans="1:3" ht="17.399999999999999">
+      <c r="A101" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="B101" s="121"/>
-      <c r="C101" s="121"/>
-    </row>
-    <row r="102" spans="1:3" ht="15.75">
+      <c r="B101" s="123"/>
+      <c r="C101" s="123"/>
+    </row>
+    <row r="102" spans="1:3" ht="15.6">
       <c r="A102" s="29" t="s">
         <v>0</v>
       </c>
@@ -59879,7 +59845,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.75">
+    <row r="103" spans="1:3" ht="15.6">
       <c r="A103" s="29" t="s">
         <v>564</v>
       </c>
@@ -59890,7 +59856,7 @@
         <v>119.2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15.75">
+    <row r="104" spans="1:3" ht="15.6">
       <c r="A104" s="29" t="s">
         <v>602</v>
       </c>
@@ -59901,7 +59867,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.75">
+    <row r="105" spans="1:3" ht="15.6">
       <c r="A105" s="29" t="s">
         <v>603</v>
       </c>
@@ -59912,7 +59878,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15.75">
+    <row r="106" spans="1:3" ht="15.6">
       <c r="A106" s="29" t="s">
         <v>604</v>
       </c>
@@ -59923,7 +59889,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15.75">
+    <row r="107" spans="1:3" ht="15.6">
       <c r="A107" s="29" t="s">
         <v>605</v>
       </c>
@@ -59934,7 +59900,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15.75">
+    <row r="108" spans="1:3" ht="15.6">
       <c r="A108" s="29" t="s">
         <v>606</v>
       </c>
@@ -59945,7 +59911,7 @@
         <v>118.9</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15.75">
+    <row r="109" spans="1:3" ht="15.6">
       <c r="A109" s="29" t="s">
         <v>607</v>
       </c>
@@ -59956,7 +59922,7 @@
         <v>118.7</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15.75">
+    <row r="110" spans="1:3" ht="15.6">
       <c r="A110" s="29" t="s">
         <v>608</v>
       </c>
@@ -59967,7 +59933,7 @@
         <v>118.6</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15.75">
+    <row r="111" spans="1:3" ht="15.6">
       <c r="A111" s="29" t="s">
         <v>609</v>
       </c>
@@ -59978,7 +59944,7 @@
         <v>118.3</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15.75">
+    <row r="112" spans="1:3" ht="15.6">
       <c r="A112" s="29" t="s">
         <v>610</v>
       </c>
@@ -59989,7 +59955,7 @@
         <v>118.1</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15.75">
+    <row r="113" spans="1:3" ht="15.6">
       <c r="A113" s="29" t="s">
         <v>611</v>
       </c>
@@ -60000,7 +59966,7 @@
         <v>118.1</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15.75">
+    <row r="114" spans="1:3" ht="15.6">
       <c r="A114" s="29" t="s">
         <v>612</v>
       </c>
@@ -60011,7 +59977,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.75">
+    <row r="115" spans="1:3" ht="15.6">
       <c r="A115" s="29" t="s">
         <v>613</v>
       </c>
@@ -60022,7 +59988,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.75">
+    <row r="116" spans="1:3" ht="15.6">
       <c r="A116" s="29" t="s">
         <v>614</v>
       </c>
@@ -60033,7 +59999,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.75">
+    <row r="117" spans="1:3" ht="15.6">
       <c r="A117" s="29" t="s">
         <v>615</v>
       </c>
@@ -60044,7 +60010,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.75">
+    <row r="118" spans="1:3" ht="15.6">
       <c r="A118" s="29" t="s">
         <v>616</v>
       </c>
@@ -60055,7 +60021,7 @@
         <v>118.1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.75">
+    <row r="119" spans="1:3" ht="15.6">
       <c r="A119" s="29" t="s">
         <v>617</v>
       </c>
@@ -60066,7 +60032,7 @@
         <v>118.1</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.75">
+    <row r="120" spans="1:3" ht="15.6">
       <c r="A120" s="29" t="s">
         <v>618</v>
       </c>
@@ -60077,7 +60043,7 @@
         <v>118.1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.75">
+    <row r="121" spans="1:3" ht="15.6">
       <c r="A121" s="29" t="s">
         <v>619</v>
       </c>
@@ -60088,7 +60054,7 @@
         <v>118.1</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15.75">
+    <row r="122" spans="1:3" ht="15.6">
       <c r="A122" s="29" t="s">
         <v>620</v>
       </c>
@@ -60099,7 +60065,7 @@
         <v>118.2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15.75">
+    <row r="123" spans="1:3" ht="15.6">
       <c r="A123" s="29" t="s">
         <v>621</v>
       </c>
@@ -60110,7 +60076,7 @@
         <v>118.2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15.75">
+    <row r="124" spans="1:3" ht="15.6">
       <c r="A124" s="29" t="s">
         <v>622</v>
       </c>
@@ -60121,7 +60087,7 @@
         <v>118.2</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15.75">
+    <row r="125" spans="1:3" ht="15.6">
       <c r="A125" s="29" t="s">
         <v>623</v>
       </c>
@@ -60132,7 +60098,7 @@
         <v>118.2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.75">
+    <row r="126" spans="1:3" ht="15.6">
       <c r="A126" s="29" t="s">
         <v>624</v>
       </c>
@@ -60143,7 +60109,7 @@
         <v>118.3</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15.75">
+    <row r="127" spans="1:3" ht="15.6">
       <c r="A127" s="29" t="s">
         <v>625</v>
       </c>
@@ -60154,7 +60120,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.75">
+    <row r="128" spans="1:3" ht="15.6">
       <c r="A128" s="29" t="s">
         <v>626</v>
       </c>
@@ -60165,7 +60131,7 @@
         <v>118.4</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15.75">
+    <row r="129" spans="1:3" ht="15.6">
       <c r="A129" s="29" t="s">
         <v>627</v>
       </c>
@@ -60176,7 +60142,7 @@
         <v>118.4</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15.75">
+    <row r="130" spans="1:3" ht="15.6">
       <c r="A130" s="29" t="s">
         <v>628</v>
       </c>
@@ -60187,7 +60153,7 @@
         <v>114.4</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15.75">
+    <row r="131" spans="1:3" ht="15.6">
       <c r="A131" s="29" t="s">
         <v>629</v>
       </c>
@@ -60198,7 +60164,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15.75">
+    <row r="132" spans="1:3" ht="15.6">
       <c r="A132" s="29" t="s">
         <v>630</v>
       </c>
@@ -60209,7 +60175,7 @@
         <v>118.4</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15.75">
+    <row r="133" spans="1:3" ht="15.6">
       <c r="A133" s="29" t="s">
         <v>631</v>
       </c>
@@ -60220,14 +60186,14 @@
         <v>118.3</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="18.75">
-      <c r="A134" s="121" t="s">
+    <row r="134" spans="1:3" ht="17.399999999999999">
+      <c r="A134" s="123" t="s">
         <v>263</v>
       </c>
-      <c r="B134" s="121"/>
-      <c r="C134" s="121"/>
-    </row>
-    <row r="135" spans="1:3" ht="15.75">
+      <c r="B134" s="123"/>
+      <c r="C134" s="123"/>
+    </row>
+    <row r="135" spans="1:3" ht="15.6">
       <c r="A135" s="29" t="s">
         <v>0</v>
       </c>
@@ -60238,7 +60204,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15.75">
+    <row r="136" spans="1:3" ht="15.6">
       <c r="A136" s="29" t="s">
         <v>566</v>
       </c>
@@ -60249,7 +60215,7 @@
         <v>118.3</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.75">
+    <row r="137" spans="1:3" ht="15.6">
       <c r="A137" s="29" t="s">
         <v>632</v>
       </c>
@@ -60260,7 +60226,7 @@
         <v>118.3</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15.75">
+    <row r="138" spans="1:3" ht="15.6">
       <c r="A138" s="29" t="s">
         <v>633</v>
       </c>
@@ -60271,14 +60237,14 @@
         <v>118.3</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15.75">
+    <row r="139" spans="1:3" ht="15.6">
       <c r="A139" s="29" t="s">
         <v>634</v>
       </c>
       <c r="B139" s="13"/>
       <c r="C139" s="4"/>
     </row>
-    <row r="140" spans="1:3" ht="15.75">
+    <row r="140" spans="1:3" ht="15.6">
       <c r="A140" s="29" t="s">
         <v>635</v>
       </c>
@@ -60289,7 +60255,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15.75">
+    <row r="141" spans="1:3" ht="15.6">
       <c r="A141" s="29" t="s">
         <v>636</v>
       </c>
@@ -60300,7 +60266,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15.75">
+    <row r="142" spans="1:3" ht="15.6">
       <c r="A142" s="29" t="s">
         <v>637</v>
       </c>
@@ -60311,7 +60277,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.75">
+    <row r="143" spans="1:3" ht="15.6">
       <c r="A143" s="29" t="s">
         <v>638</v>
       </c>
@@ -60322,7 +60288,7 @@
         <v>118.7</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.75">
+    <row r="144" spans="1:3" ht="15.6">
       <c r="A144" s="29" t="s">
         <v>639</v>
       </c>
@@ -60333,7 +60299,7 @@
         <v>118.9</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15.75">
+    <row r="145" spans="1:3" ht="15.6">
       <c r="A145" s="29" t="s">
         <v>640</v>
       </c>
@@ -60344,7 +60310,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15.75">
+    <row r="146" spans="1:3" ht="15.6">
       <c r="A146" s="29" t="s">
         <v>641</v>
       </c>
@@ -60355,7 +60321,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15.75">
+    <row r="147" spans="1:3" ht="15.6">
       <c r="A147" s="29" t="s">
         <v>642</v>
       </c>
@@ -60366,7 +60332,7 @@
         <v>119.1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15.75">
+    <row r="148" spans="1:3" ht="15.6">
       <c r="A148" s="29" t="s">
         <v>643</v>
       </c>
@@ -60377,7 +60343,7 @@
         <v>118.3</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15.75">
+    <row r="149" spans="1:3" ht="15.6">
       <c r="A149" s="29" t="s">
         <v>644</v>
       </c>
@@ -60388,7 +60354,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15.75">
+    <row r="150" spans="1:3" ht="15.6">
       <c r="A150" s="29" t="s">
         <v>645</v>
       </c>
@@ -60399,7 +60365,7 @@
         <v>117.8</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15.75">
+    <row r="151" spans="1:3" ht="15.6">
       <c r="A151" s="29" t="s">
         <v>646</v>
       </c>
@@ -60410,7 +60376,7 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15.75">
+    <row r="152" spans="1:3" ht="15.6">
       <c r="A152" s="29" t="s">
         <v>647</v>
       </c>
@@ -60421,7 +60387,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15.75">
+    <row r="153" spans="1:3" ht="15.6">
       <c r="A153" s="29" t="s">
         <v>648</v>
       </c>
@@ -60432,7 +60398,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15.75">
+    <row r="154" spans="1:3" ht="15.6">
       <c r="A154" s="29" t="s">
         <v>649</v>
       </c>
@@ -60443,7 +60409,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15.75">
+    <row r="155" spans="1:3" ht="15.6">
       <c r="A155" s="29" t="s">
         <v>650</v>
       </c>
@@ -60454,7 +60420,7 @@
         <v>119.2</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15.75">
+    <row r="156" spans="1:3" ht="15.6">
       <c r="A156" s="29" t="s">
         <v>651</v>
       </c>
@@ -60465,7 +60431,7 @@
         <v>118.6</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15.75">
+    <row r="157" spans="1:3" ht="15.6">
       <c r="A157" s="29" t="s">
         <v>652</v>
       </c>
@@ -60476,7 +60442,7 @@
         <v>118.4</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15.75">
+    <row r="158" spans="1:3" ht="15.6">
       <c r="A158" s="29" t="s">
         <v>653</v>
       </c>
@@ -60487,7 +60453,7 @@
         <v>118.4</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15.75">
+    <row r="159" spans="1:3" ht="15.6">
       <c r="A159" s="29" t="s">
         <v>654</v>
       </c>
@@ -60498,7 +60464,7 @@
         <v>118.4</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15.75">
+    <row r="160" spans="1:3" ht="15.6">
       <c r="A160" s="29" t="s">
         <v>655</v>
       </c>
@@ -60509,7 +60475,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15.75">
+    <row r="161" spans="1:3" ht="15.6">
       <c r="A161" s="29" t="s">
         <v>656</v>
       </c>
@@ -60520,7 +60486,7 @@
         <v>118.4</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15.75">
+    <row r="162" spans="1:3" ht="15.6">
       <c r="A162" s="29" t="s">
         <v>657</v>
       </c>
@@ -60531,7 +60497,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15.75">
+    <row r="163" spans="1:3" ht="15.6">
       <c r="A163" s="29" t="s">
         <v>658</v>
       </c>
@@ -60542,7 +60508,7 @@
         <v>118.7</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15.75">
+    <row r="164" spans="1:3" ht="15.6">
       <c r="A164" s="29" t="s">
         <v>659</v>
       </c>
@@ -60553,7 +60519,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15.75">
+    <row r="165" spans="1:3" ht="15.6">
       <c r="A165" s="29" t="s">
         <v>660</v>
       </c>
@@ -60564,21 +60530,21 @@
         <v>118.4</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15.75">
+    <row r="166" spans="1:3" ht="15.6">
       <c r="A166" s="29" t="s">
         <v>661</v>
       </c>
       <c r="B166" s="13"/>
       <c r="C166" s="4"/>
     </row>
-    <row r="167" spans="1:3" ht="18.75">
-      <c r="A167" s="121" t="s">
+    <row r="167" spans="1:3" ht="17.399999999999999">
+      <c r="A167" s="123" t="s">
         <v>294</v>
       </c>
-      <c r="B167" s="121"/>
-      <c r="C167" s="121"/>
-    </row>
-    <row r="168" spans="1:3" ht="15.75">
+      <c r="B167" s="123"/>
+      <c r="C167" s="123"/>
+    </row>
+    <row r="168" spans="1:3" ht="15.6">
       <c r="A168" s="29" t="s">
         <v>0</v>
       </c>
@@ -60589,7 +60555,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15.75">
+    <row r="169" spans="1:3" ht="15.6">
       <c r="A169" s="29" t="s">
         <v>568</v>
       </c>
@@ -60598,14 +60564,14 @@
         <v>118</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15.75">
+    <row r="170" spans="1:3" ht="15.6">
       <c r="A170" s="29" t="s">
         <v>662</v>
       </c>
       <c r="B170" s="13"/>
       <c r="C170" s="4"/>
     </row>
-    <row r="171" spans="1:3" ht="15.75">
+    <row r="171" spans="1:3" ht="15.6">
       <c r="A171" s="29" t="s">
         <v>663</v>
       </c>
@@ -60616,7 +60582,7 @@
         <v>118.2</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15.75">
+    <row r="172" spans="1:3" ht="15.6">
       <c r="A172" s="29" t="s">
         <v>664</v>
       </c>
@@ -60627,7 +60593,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15.75">
+    <row r="173" spans="1:3" ht="15.6">
       <c r="A173" s="29" t="s">
         <v>665</v>
       </c>
@@ -60638,7 +60604,7 @@
         <v>117.8</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15.75">
+    <row r="174" spans="1:3" ht="15.6">
       <c r="A174" s="29" t="s">
         <v>666</v>
       </c>
@@ -60649,7 +60615,7 @@
         <v>117.9</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15.75">
+    <row r="175" spans="1:3" ht="15.6">
       <c r="A175" s="29" t="s">
         <v>667</v>
       </c>
@@ -60660,7 +60626,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="15.75">
+    <row r="176" spans="1:3" ht="15.6">
       <c r="A176" s="29" t="s">
         <v>668</v>
       </c>
@@ -60671,7 +60637,7 @@
         <v>118.1</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15.75">
+    <row r="177" spans="1:3" ht="15.6">
       <c r="A177" s="29" t="s">
         <v>669</v>
       </c>
@@ -60682,7 +60648,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="15.75">
+    <row r="178" spans="1:3" ht="15.6">
       <c r="A178" s="29" t="s">
         <v>670</v>
       </c>
@@ -60693,7 +60659,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15.75">
+    <row r="179" spans="1:3" ht="15.6">
       <c r="A179" s="29" t="s">
         <v>671</v>
       </c>
@@ -60704,7 +60670,7 @@
         <v>118.1</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15.75">
+    <row r="180" spans="1:3" ht="15.6">
       <c r="A180" s="29" t="s">
         <v>672</v>
       </c>
@@ -60715,7 +60681,7 @@
         <v>118.2</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15.75">
+    <row r="181" spans="1:3" ht="15.6">
       <c r="A181" s="29" t="s">
         <v>673</v>
       </c>
@@ -60726,7 +60692,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15.75">
+    <row r="182" spans="1:3" ht="15.6">
       <c r="A182" s="29" t="s">
         <v>674</v>
       </c>
@@ -60737,7 +60703,7 @@
         <v>117.9</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="15.75">
+    <row r="183" spans="1:3" ht="15.6">
       <c r="A183" s="29" t="s">
         <v>675</v>
       </c>
@@ -60748,7 +60714,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15.75">
+    <row r="184" spans="1:3" ht="15.6">
       <c r="A184" s="29" t="s">
         <v>676</v>
       </c>
@@ -60759,7 +60725,7 @@
         <v>118.2</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15.75">
+    <row r="185" spans="1:3" ht="15.6">
       <c r="A185" s="29" t="s">
         <v>677</v>
       </c>
@@ -60770,7 +60736,7 @@
         <v>118.6</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="15.75">
+    <row r="186" spans="1:3" ht="15.6">
       <c r="A186" s="29" t="s">
         <v>678</v>
       </c>
@@ -60781,7 +60747,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="15.75">
+    <row r="187" spans="1:3" ht="15.6">
       <c r="A187" s="29" t="s">
         <v>679</v>
       </c>
@@ -60792,7 +60758,7 @@
         <v>118.3</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="15.75">
+    <row r="188" spans="1:3" ht="15.6">
       <c r="A188" s="29" t="s">
         <v>680</v>
       </c>
@@ -60803,7 +60769,7 @@
         <v>118.4</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15.75">
+    <row r="189" spans="1:3" ht="15.6">
       <c r="A189" s="29" t="s">
         <v>681</v>
       </c>
@@ -60814,7 +60780,7 @@
         <v>118.9</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="15.75">
+    <row r="190" spans="1:3" ht="15.6">
       <c r="A190" s="29" t="s">
         <v>682</v>
       </c>
@@ -60825,7 +60791,7 @@
         <v>119.3</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="15.75">
+    <row r="191" spans="1:3" ht="15.6">
       <c r="A191" s="29" t="s">
         <v>683</v>
       </c>
@@ -60836,7 +60802,7 @@
         <v>119.5</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="15.75">
+    <row r="192" spans="1:3" ht="15.6">
       <c r="A192" s="29" t="s">
         <v>684</v>
       </c>
@@ -60847,7 +60813,7 @@
         <v>119.1</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15.75">
+    <row r="193" spans="1:3" ht="15.6">
       <c r="A193" s="29" t="s">
         <v>685</v>
       </c>
@@ -60858,7 +60824,7 @@
         <v>118.8</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15.75">
+    <row r="194" spans="1:3" ht="15.6">
       <c r="A194" s="29" t="s">
         <v>686</v>
       </c>
@@ -60869,7 +60835,7 @@
         <v>118.7</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15.75">
+    <row r="195" spans="1:3" ht="15.6">
       <c r="A195" s="29" t="s">
         <v>687</v>
       </c>
@@ -60880,14 +60846,14 @@
         <v>118.7</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15.75">
+    <row r="196" spans="1:3" ht="15.6">
       <c r="A196" s="29" t="s">
         <v>688</v>
       </c>
       <c r="B196" s="13"/>
       <c r="C196" s="4"/>
     </row>
-    <row r="197" spans="1:3" ht="15.75">
+    <row r="197" spans="1:3" ht="15.6">
       <c r="A197" s="29" t="s">
         <v>689</v>
       </c>
@@ -60898,7 +60864,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15.75">
+    <row r="198" spans="1:3" ht="15.6">
       <c r="A198" s="29" t="s">
         <v>690</v>
       </c>
@@ -60909,7 +60875,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15.75">
+    <row r="199" spans="1:3" ht="15.6">
       <c r="A199" s="29" t="s">
         <v>691</v>
       </c>
@@ -60920,14 +60886,14 @@
         <v>120.4</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="18.75">
-      <c r="A200" s="121" t="s">
+    <row r="200" spans="1:3" ht="17.399999999999999">
+      <c r="A200" s="123" t="s">
         <v>325</v>
       </c>
-      <c r="B200" s="121"/>
-      <c r="C200" s="121"/>
-    </row>
-    <row r="201" spans="1:3" ht="15.75">
+      <c r="B200" s="123"/>
+      <c r="C200" s="123"/>
+    </row>
+    <row r="201" spans="1:3" ht="15.6">
       <c r="A201" s="29" t="s">
         <v>0</v>
       </c>
@@ -60938,7 +60904,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15.75">
+    <row r="202" spans="1:3" ht="15.6">
       <c r="A202" s="29" t="s">
         <v>692</v>
       </c>
@@ -60949,7 +60915,7 @@
         <v>119.3</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15.75">
+    <row r="203" spans="1:3" ht="15.6">
       <c r="A203" s="29" t="s">
         <v>693</v>
       </c>
@@ -60960,7 +60926,7 @@
         <v>118.8</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15.75">
+    <row r="204" spans="1:3" ht="15.6">
       <c r="A204" s="29" t="s">
         <v>694</v>
       </c>
@@ -60971,7 +60937,7 @@
         <v>118.6</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15.75">
+    <row r="205" spans="1:3" ht="15.6">
       <c r="A205" s="29" t="s">
         <v>695</v>
       </c>
@@ -60982,196 +60948,196 @@
         <v>118.8</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="15.75">
+    <row r="206" spans="1:3" ht="15.6">
       <c r="A206" s="29" t="s">
         <v>696</v>
       </c>
       <c r="B206" s="13"/>
       <c r="C206" s="4"/>
     </row>
-    <row r="207" spans="1:3" ht="15.75">
+    <row r="207" spans="1:3" ht="15.6">
       <c r="A207" s="29" t="s">
         <v>697</v>
       </c>
       <c r="B207" s="13"/>
       <c r="C207" s="4"/>
     </row>
-    <row r="208" spans="1:3" ht="15.75">
+    <row r="208" spans="1:3" ht="15.6">
       <c r="A208" s="29" t="s">
         <v>698</v>
       </c>
       <c r="B208" s="13"/>
       <c r="C208" s="4"/>
     </row>
-    <row r="209" spans="1:3" ht="15.75">
+    <row r="209" spans="1:3" ht="15.6">
       <c r="A209" s="29" t="s">
         <v>699</v>
       </c>
       <c r="B209" s="13"/>
       <c r="C209" s="4"/>
     </row>
-    <row r="210" spans="1:3" ht="15.75">
+    <row r="210" spans="1:3" ht="15.6">
       <c r="A210" s="29" t="s">
         <v>700</v>
       </c>
       <c r="B210" s="13"/>
       <c r="C210" s="4"/>
     </row>
-    <row r="211" spans="1:3" ht="15.75">
+    <row r="211" spans="1:3" ht="15.6">
       <c r="A211" s="29" t="s">
         <v>701</v>
       </c>
       <c r="B211" s="13"/>
       <c r="C211" s="4"/>
     </row>
-    <row r="212" spans="1:3" ht="15.75">
+    <row r="212" spans="1:3" ht="15.6">
       <c r="A212" s="29" t="s">
         <v>702</v>
       </c>
       <c r="B212" s="13"/>
       <c r="C212" s="4"/>
     </row>
-    <row r="213" spans="1:3" ht="15.75">
+    <row r="213" spans="1:3" ht="15.6">
       <c r="A213" s="29" t="s">
         <v>703</v>
       </c>
       <c r="B213" s="13"/>
       <c r="C213" s="4"/>
     </row>
-    <row r="214" spans="1:3" ht="15.75">
+    <row r="214" spans="1:3" ht="15.6">
       <c r="A214" s="29" t="s">
         <v>704</v>
       </c>
       <c r="B214" s="13"/>
       <c r="C214" s="4"/>
     </row>
-    <row r="215" spans="1:3" ht="15.75">
+    <row r="215" spans="1:3" ht="15.6">
       <c r="A215" s="29" t="s">
         <v>705</v>
       </c>
       <c r="B215" s="13"/>
       <c r="C215" s="4"/>
     </row>
-    <row r="216" spans="1:3" ht="15.75">
+    <row r="216" spans="1:3" ht="15.6">
       <c r="A216" s="29" t="s">
         <v>706</v>
       </c>
       <c r="B216" s="13"/>
       <c r="C216" s="4"/>
     </row>
-    <row r="217" spans="1:3" ht="15.75">
+    <row r="217" spans="1:3" ht="15.6">
       <c r="A217" s="29" t="s">
         <v>707</v>
       </c>
       <c r="B217" s="13"/>
       <c r="C217" s="4"/>
     </row>
-    <row r="218" spans="1:3" ht="15.75">
+    <row r="218" spans="1:3" ht="15.6">
       <c r="A218" s="29" t="s">
         <v>708</v>
       </c>
       <c r="B218" s="13"/>
       <c r="C218" s="4"/>
     </row>
-    <row r="219" spans="1:3" ht="15.75">
+    <row r="219" spans="1:3" ht="15.6">
       <c r="A219" s="29" t="s">
         <v>709</v>
       </c>
       <c r="B219" s="13"/>
       <c r="C219" s="4"/>
     </row>
-    <row r="220" spans="1:3" ht="15.75">
+    <row r="220" spans="1:3" ht="15.6">
       <c r="A220" s="29" t="s">
         <v>710</v>
       </c>
       <c r="B220" s="13"/>
       <c r="C220" s="4"/>
     </row>
-    <row r="221" spans="1:3" ht="15.75">
+    <row r="221" spans="1:3" ht="15.6">
       <c r="A221" s="29" t="s">
         <v>711</v>
       </c>
       <c r="B221" s="13"/>
       <c r="C221" s="4"/>
     </row>
-    <row r="222" spans="1:3" ht="15.75">
+    <row r="222" spans="1:3" ht="15.6">
       <c r="A222" s="29" t="s">
         <v>712</v>
       </c>
       <c r="B222" s="13"/>
       <c r="C222" s="4"/>
     </row>
-    <row r="223" spans="1:3" ht="15.75">
+    <row r="223" spans="1:3" ht="15.6">
       <c r="A223" s="29" t="s">
         <v>713</v>
       </c>
       <c r="B223" s="13"/>
       <c r="C223" s="4"/>
     </row>
-    <row r="224" spans="1:3" ht="15.75">
+    <row r="224" spans="1:3" ht="15.6">
       <c r="A224" s="29" t="s">
         <v>714</v>
       </c>
       <c r="B224" s="13"/>
       <c r="C224" s="4"/>
     </row>
-    <row r="225" spans="1:3" ht="15.75">
+    <row r="225" spans="1:3" ht="15.6">
       <c r="A225" s="29" t="s">
         <v>715</v>
       </c>
       <c r="B225" s="13"/>
       <c r="C225" s="4"/>
     </row>
-    <row r="226" spans="1:3" ht="15.75">
+    <row r="226" spans="1:3" ht="15.6">
       <c r="A226" s="29" t="s">
         <v>716</v>
       </c>
       <c r="B226" s="13"/>
       <c r="C226" s="4"/>
     </row>
-    <row r="227" spans="1:3" ht="15.75">
+    <row r="227" spans="1:3" ht="15.6">
       <c r="A227" s="29" t="s">
         <v>717</v>
       </c>
       <c r="B227" s="13"/>
       <c r="C227" s="4"/>
     </row>
-    <row r="228" spans="1:3" ht="15.75">
+    <row r="228" spans="1:3" ht="15.6">
       <c r="A228" s="29" t="s">
         <v>718</v>
       </c>
       <c r="B228" s="13"/>
       <c r="C228" s="4"/>
     </row>
-    <row r="229" spans="1:3" ht="15.75">
+    <row r="229" spans="1:3" ht="15.6">
       <c r="A229" s="29" t="s">
         <v>719</v>
       </c>
       <c r="B229" s="13"/>
       <c r="C229" s="4"/>
     </row>
-    <row r="230" spans="1:3" ht="15.75">
+    <row r="230" spans="1:3" ht="15.6">
       <c r="A230" s="29" t="s">
         <v>720</v>
       </c>
       <c r="B230" s="13"/>
       <c r="C230" s="4"/>
     </row>
-    <row r="231" spans="1:3" ht="15.75">
+    <row r="231" spans="1:3" ht="15.6">
       <c r="A231" s="29" t="s">
         <v>721</v>
       </c>
       <c r="B231" s="13"/>
       <c r="C231" s="4"/>
     </row>
-    <row r="232" spans="1:3" ht="18.75">
-      <c r="A232" s="121" t="s">
+    <row r="232" spans="1:3" ht="17.399999999999999">
+      <c r="A232" s="123" t="s">
         <v>355</v>
       </c>
-      <c r="B232" s="121"/>
-      <c r="C232" s="121"/>
-    </row>
-    <row r="233" spans="1:3" ht="15.75">
+      <c r="B232" s="123"/>
+      <c r="C232" s="123"/>
+    </row>
+    <row r="233" spans="1:3" ht="15.6">
       <c r="A233" s="29" t="s">
         <v>0</v>
       </c>
@@ -61182,224 +61148,224 @@
         <v>112</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="15.75">
+    <row r="234" spans="1:3" ht="15.6">
       <c r="A234" s="29" t="s">
         <v>722</v>
       </c>
       <c r="B234" s="13"/>
       <c r="C234" s="4"/>
     </row>
-    <row r="235" spans="1:3" ht="15.75">
+    <row r="235" spans="1:3" ht="15.6">
       <c r="A235" s="29" t="s">
         <v>723</v>
       </c>
       <c r="B235" s="13"/>
       <c r="C235" s="4"/>
     </row>
-    <row r="236" spans="1:3" ht="15.75">
+    <row r="236" spans="1:3" ht="15.6">
       <c r="A236" s="29" t="s">
         <v>724</v>
       </c>
       <c r="B236" s="13"/>
       <c r="C236" s="4"/>
     </row>
-    <row r="237" spans="1:3" ht="15.75">
+    <row r="237" spans="1:3" ht="15.6">
       <c r="A237" s="29" t="s">
         <v>725</v>
       </c>
       <c r="B237" s="13"/>
       <c r="C237" s="4"/>
     </row>
-    <row r="238" spans="1:3" ht="15.75">
+    <row r="238" spans="1:3" ht="15.6">
       <c r="A238" s="29" t="s">
         <v>726</v>
       </c>
       <c r="B238" s="13"/>
       <c r="C238" s="4"/>
     </row>
-    <row r="239" spans="1:3" ht="15.75">
+    <row r="239" spans="1:3" ht="15.6">
       <c r="A239" s="29" t="s">
         <v>727</v>
       </c>
       <c r="B239" s="13"/>
       <c r="C239" s="4"/>
     </row>
-    <row r="240" spans="1:3" ht="15.75">
+    <row r="240" spans="1:3" ht="15.6">
       <c r="A240" s="29" t="s">
         <v>728</v>
       </c>
       <c r="B240" s="13"/>
       <c r="C240" s="4"/>
     </row>
-    <row r="241" spans="1:3" ht="15.75">
+    <row r="241" spans="1:3" ht="15.6">
       <c r="A241" s="29" t="s">
         <v>729</v>
       </c>
       <c r="B241" s="13"/>
       <c r="C241" s="4"/>
     </row>
-    <row r="242" spans="1:3" ht="15.75">
+    <row r="242" spans="1:3" ht="15.6">
       <c r="A242" s="29" t="s">
         <v>730</v>
       </c>
       <c r="B242" s="13"/>
       <c r="C242" s="4"/>
     </row>
-    <row r="243" spans="1:3" ht="15.75">
+    <row r="243" spans="1:3" ht="15.6">
       <c r="A243" s="29" t="s">
         <v>731</v>
       </c>
       <c r="B243" s="13"/>
       <c r="C243" s="4"/>
     </row>
-    <row r="244" spans="1:3" ht="15.75">
+    <row r="244" spans="1:3" ht="15.6">
       <c r="A244" s="29" t="s">
         <v>732</v>
       </c>
       <c r="B244" s="13"/>
       <c r="C244" s="4"/>
     </row>
-    <row r="245" spans="1:3" ht="15.75">
+    <row r="245" spans="1:3" ht="15.6">
       <c r="A245" s="29" t="s">
         <v>733</v>
       </c>
       <c r="B245" s="13"/>
       <c r="C245" s="4"/>
     </row>
-    <row r="246" spans="1:3" ht="15.75">
+    <row r="246" spans="1:3" ht="15.6">
       <c r="A246" s="29" t="s">
         <v>734</v>
       </c>
       <c r="B246" s="13"/>
       <c r="C246" s="4"/>
     </row>
-    <row r="247" spans="1:3" ht="15.75">
+    <row r="247" spans="1:3" ht="15.6">
       <c r="A247" s="29" t="s">
         <v>735</v>
       </c>
       <c r="B247" s="13"/>
       <c r="C247" s="4"/>
     </row>
-    <row r="248" spans="1:3" ht="15.75">
+    <row r="248" spans="1:3" ht="15.6">
       <c r="A248" s="29" t="s">
         <v>736</v>
       </c>
       <c r="B248" s="13"/>
       <c r="C248" s="4"/>
     </row>
-    <row r="249" spans="1:3" ht="15.75">
+    <row r="249" spans="1:3" ht="15.6">
       <c r="A249" s="29" t="s">
         <v>737</v>
       </c>
       <c r="B249" s="13"/>
       <c r="C249" s="4"/>
     </row>
-    <row r="250" spans="1:3" ht="15.75">
+    <row r="250" spans="1:3" ht="15.6">
       <c r="A250" s="29" t="s">
         <v>738</v>
       </c>
       <c r="B250" s="13"/>
       <c r="C250" s="4"/>
     </row>
-    <row r="251" spans="1:3" ht="15.75">
+    <row r="251" spans="1:3" ht="15.6">
       <c r="A251" s="29" t="s">
         <v>739</v>
       </c>
       <c r="B251" s="13"/>
       <c r="C251" s="4"/>
     </row>
-    <row r="252" spans="1:3" ht="15.75">
+    <row r="252" spans="1:3" ht="15.6">
       <c r="A252" s="29" t="s">
         <v>740</v>
       </c>
       <c r="B252" s="13"/>
       <c r="C252" s="4"/>
     </row>
-    <row r="253" spans="1:3" ht="15.75">
+    <row r="253" spans="1:3" ht="15.6">
       <c r="A253" s="29" t="s">
         <v>741</v>
       </c>
       <c r="B253" s="13"/>
       <c r="C253" s="4"/>
     </row>
-    <row r="254" spans="1:3" ht="15.75">
+    <row r="254" spans="1:3" ht="15.6">
       <c r="A254" s="29" t="s">
         <v>742</v>
       </c>
       <c r="B254" s="13"/>
       <c r="C254" s="4"/>
     </row>
-    <row r="255" spans="1:3" ht="15.75">
+    <row r="255" spans="1:3" ht="15.6">
       <c r="A255" s="29" t="s">
         <v>743</v>
       </c>
       <c r="B255" s="13"/>
       <c r="C255" s="4"/>
     </row>
-    <row r="256" spans="1:3" ht="15.75">
+    <row r="256" spans="1:3" ht="15.6">
       <c r="A256" s="29" t="s">
         <v>744</v>
       </c>
       <c r="B256" s="13"/>
       <c r="C256" s="4"/>
     </row>
-    <row r="257" spans="1:3" ht="15.75">
+    <row r="257" spans="1:3" ht="15.6">
       <c r="A257" s="29" t="s">
         <v>745</v>
       </c>
       <c r="B257" s="13"/>
       <c r="C257" s="4"/>
     </row>
-    <row r="258" spans="1:3" ht="15.75">
+    <row r="258" spans="1:3" ht="15.6">
       <c r="A258" s="29" t="s">
         <v>746</v>
       </c>
       <c r="B258" s="13"/>
       <c r="C258" s="4"/>
     </row>
-    <row r="259" spans="1:3" ht="15.75">
+    <row r="259" spans="1:3" ht="15.6">
       <c r="A259" s="29" t="s">
         <v>747</v>
       </c>
       <c r="B259" s="13"/>
       <c r="C259" s="4"/>
     </row>
-    <row r="260" spans="1:3" ht="15.75">
+    <row r="260" spans="1:3" ht="15.6">
       <c r="A260" s="29" t="s">
         <v>748</v>
       </c>
       <c r="B260" s="13"/>
       <c r="C260" s="4"/>
     </row>
-    <row r="261" spans="1:3" ht="15.75">
+    <row r="261" spans="1:3" ht="15.6">
       <c r="A261" s="29" t="s">
         <v>749</v>
       </c>
       <c r="B261" s="13"/>
       <c r="C261" s="4"/>
     </row>
-    <row r="262" spans="1:3" ht="15.75">
+    <row r="262" spans="1:3" ht="15.6">
       <c r="A262" s="29" t="s">
         <v>750</v>
       </c>
       <c r="B262" s="13"/>
       <c r="C262" s="4"/>
     </row>
-    <row r="263" spans="1:3" ht="15.75">
+    <row r="263" spans="1:3" ht="15.6">
       <c r="A263" s="29" t="s">
         <v>751</v>
       </c>
       <c r="B263" s="13"/>
       <c r="C263" s="4"/>
     </row>
-    <row r="264" spans="1:3" ht="18.75">
-      <c r="A264" s="121" t="s">
+    <row r="264" spans="1:3" ht="17.399999999999999">
+      <c r="A264" s="123" t="s">
         <v>385</v>
       </c>
-      <c r="B264" s="121"/>
-      <c r="C264" s="121"/>
-    </row>
-    <row r="265" spans="1:3" ht="15.75">
+      <c r="B264" s="123"/>
+      <c r="C264" s="123"/>
+    </row>
+    <row r="265" spans="1:3" ht="15.6">
       <c r="A265" s="29" t="s">
         <v>0</v>
       </c>
@@ -61410,224 +61376,224 @@
         <v>112</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="15.75">
+    <row r="266" spans="1:3" ht="15.6">
       <c r="A266" s="29" t="s">
         <v>752</v>
       </c>
       <c r="B266" s="13"/>
       <c r="C266" s="4"/>
     </row>
-    <row r="267" spans="1:3" ht="15.75">
+    <row r="267" spans="1:3" ht="15.6">
       <c r="A267" s="29" t="s">
         <v>753</v>
       </c>
       <c r="B267" s="13"/>
       <c r="C267" s="4"/>
     </row>
-    <row r="268" spans="1:3" ht="15.75">
+    <row r="268" spans="1:3" ht="15.6">
       <c r="A268" s="29" t="s">
         <v>754</v>
       </c>
       <c r="B268" s="13"/>
       <c r="C268" s="4"/>
     </row>
-    <row r="269" spans="1:3" ht="15.75">
+    <row r="269" spans="1:3" ht="15.6">
       <c r="A269" s="29" t="s">
         <v>755</v>
       </c>
       <c r="B269" s="13"/>
       <c r="C269" s="4"/>
     </row>
-    <row r="270" spans="1:3" ht="15.75">
+    <row r="270" spans="1:3" ht="15.6">
       <c r="A270" s="29" t="s">
         <v>756</v>
       </c>
       <c r="B270" s="13"/>
       <c r="C270" s="4"/>
     </row>
-    <row r="271" spans="1:3" ht="15.75">
+    <row r="271" spans="1:3" ht="15.6">
       <c r="A271" s="29" t="s">
         <v>757</v>
       </c>
       <c r="B271" s="13"/>
       <c r="C271" s="4"/>
     </row>
-    <row r="272" spans="1:3" ht="15.75">
+    <row r="272" spans="1:3" ht="15.6">
       <c r="A272" s="29" t="s">
         <v>758</v>
       </c>
       <c r="B272" s="13"/>
       <c r="C272" s="4"/>
     </row>
-    <row r="273" spans="1:3" ht="15.75">
+    <row r="273" spans="1:3" ht="15.6">
       <c r="A273" s="29" t="s">
         <v>759</v>
       </c>
       <c r="B273" s="13"/>
       <c r="C273" s="4"/>
     </row>
-    <row r="274" spans="1:3" ht="15.75">
+    <row r="274" spans="1:3" ht="15.6">
       <c r="A274" s="29" t="s">
         <v>760</v>
       </c>
       <c r="B274" s="13"/>
       <c r="C274" s="4"/>
     </row>
-    <row r="275" spans="1:3" ht="15.75">
+    <row r="275" spans="1:3" ht="15.6">
       <c r="A275" s="29" t="s">
         <v>761</v>
       </c>
       <c r="B275" s="13"/>
       <c r="C275" s="4"/>
     </row>
-    <row r="276" spans="1:3" ht="15.75">
+    <row r="276" spans="1:3" ht="15.6">
       <c r="A276" s="29" t="s">
         <v>762</v>
       </c>
       <c r="B276" s="13"/>
       <c r="C276" s="4"/>
     </row>
-    <row r="277" spans="1:3" ht="15.75">
+    <row r="277" spans="1:3" ht="15.6">
       <c r="A277" s="29" t="s">
         <v>763</v>
       </c>
       <c r="B277" s="13"/>
       <c r="C277" s="4"/>
     </row>
-    <row r="278" spans="1:3" ht="15.75">
+    <row r="278" spans="1:3" ht="15.6">
       <c r="A278" s="29" t="s">
         <v>764</v>
       </c>
       <c r="B278" s="13"/>
       <c r="C278" s="4"/>
     </row>
-    <row r="279" spans="1:3" ht="15.75">
+    <row r="279" spans="1:3" ht="15.6">
       <c r="A279" s="29" t="s">
         <v>765</v>
       </c>
       <c r="B279" s="13"/>
       <c r="C279" s="4"/>
     </row>
-    <row r="280" spans="1:3" ht="15.75">
+    <row r="280" spans="1:3" ht="15.6">
       <c r="A280" s="29" t="s">
         <v>766</v>
       </c>
       <c r="B280" s="13"/>
       <c r="C280" s="4"/>
     </row>
-    <row r="281" spans="1:3" ht="15.75">
+    <row r="281" spans="1:3" ht="15.6">
       <c r="A281" s="29" t="s">
         <v>767</v>
       </c>
       <c r="B281" s="13"/>
       <c r="C281" s="4"/>
     </row>
-    <row r="282" spans="1:3" ht="15.75">
+    <row r="282" spans="1:3" ht="15.6">
       <c r="A282" s="29" t="s">
         <v>768</v>
       </c>
       <c r="B282" s="13"/>
       <c r="C282" s="4"/>
     </row>
-    <row r="283" spans="1:3" ht="15.75">
+    <row r="283" spans="1:3" ht="15.6">
       <c r="A283" s="29" t="s">
         <v>769</v>
       </c>
       <c r="B283" s="13"/>
       <c r="C283" s="4"/>
     </row>
-    <row r="284" spans="1:3" ht="15.75">
+    <row r="284" spans="1:3" ht="15.6">
       <c r="A284" s="29" t="s">
         <v>770</v>
       </c>
       <c r="B284" s="13"/>
       <c r="C284" s="4"/>
     </row>
-    <row r="285" spans="1:3" ht="15.75">
+    <row r="285" spans="1:3" ht="15.6">
       <c r="A285" s="29" t="s">
         <v>771</v>
       </c>
       <c r="B285" s="13"/>
       <c r="C285" s="4"/>
     </row>
-    <row r="286" spans="1:3" ht="15.75">
+    <row r="286" spans="1:3" ht="15.6">
       <c r="A286" s="29" t="s">
         <v>772</v>
       </c>
       <c r="B286" s="13"/>
       <c r="C286" s="4"/>
     </row>
-    <row r="287" spans="1:3" ht="15.75">
+    <row r="287" spans="1:3" ht="15.6">
       <c r="A287" s="29" t="s">
         <v>773</v>
       </c>
       <c r="B287" s="13"/>
       <c r="C287" s="4"/>
     </row>
-    <row r="288" spans="1:3" ht="15.75">
+    <row r="288" spans="1:3" ht="15.6">
       <c r="A288" s="29" t="s">
         <v>774</v>
       </c>
       <c r="B288" s="13"/>
       <c r="C288" s="4"/>
     </row>
-    <row r="289" spans="1:3" ht="15.75">
+    <row r="289" spans="1:3" ht="15.6">
       <c r="A289" s="29" t="s">
         <v>775</v>
       </c>
       <c r="B289" s="13"/>
       <c r="C289" s="4"/>
     </row>
-    <row r="290" spans="1:3" ht="15.75">
+    <row r="290" spans="1:3" ht="15.6">
       <c r="A290" s="29" t="s">
         <v>776</v>
       </c>
       <c r="B290" s="13"/>
       <c r="C290" s="4"/>
     </row>
-    <row r="291" spans="1:3" ht="15.75">
+    <row r="291" spans="1:3" ht="15.6">
       <c r="A291" s="29" t="s">
         <v>777</v>
       </c>
       <c r="B291" s="13"/>
       <c r="C291" s="4"/>
     </row>
-    <row r="292" spans="1:3" ht="15.75">
+    <row r="292" spans="1:3" ht="15.6">
       <c r="A292" s="29" t="s">
         <v>778</v>
       </c>
       <c r="B292" s="13"/>
       <c r="C292" s="4"/>
     </row>
-    <row r="293" spans="1:3" ht="15.75">
+    <row r="293" spans="1:3" ht="15.6">
       <c r="A293" s="29" t="s">
         <v>779</v>
       </c>
       <c r="B293" s="13"/>
       <c r="C293" s="4"/>
     </row>
-    <row r="294" spans="1:3" ht="15.75">
+    <row r="294" spans="1:3" ht="15.6">
       <c r="A294" s="29" t="s">
         <v>780</v>
       </c>
       <c r="B294" s="13"/>
       <c r="C294" s="4"/>
     </row>
-    <row r="295" spans="1:3" ht="15.75">
+    <row r="295" spans="1:3" ht="15.6">
       <c r="A295" s="29" t="s">
         <v>781</v>
       </c>
       <c r="B295" s="13"/>
       <c r="C295" s="4"/>
     </row>
-    <row r="296" spans="1:3" ht="18.75">
-      <c r="A296" s="121" t="s">
+    <row r="296" spans="1:3" ht="17.399999999999999">
+      <c r="A296" s="123" t="s">
         <v>415</v>
       </c>
-      <c r="B296" s="121"/>
-      <c r="C296" s="121"/>
-    </row>
-    <row r="297" spans="1:3" ht="15.75">
+      <c r="B296" s="123"/>
+      <c r="C296" s="123"/>
+    </row>
+    <row r="297" spans="1:3" ht="15.6">
       <c r="A297" s="29" t="s">
         <v>0</v>
       </c>
@@ -61638,224 +61604,224 @@
         <v>112</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="15.75">
+    <row r="298" spans="1:3" ht="15.6">
       <c r="A298" s="29" t="s">
         <v>782</v>
       </c>
       <c r="B298" s="13"/>
       <c r="C298" s="4"/>
     </row>
-    <row r="299" spans="1:3" ht="15.75">
+    <row r="299" spans="1:3" ht="15.6">
       <c r="A299" s="29" t="s">
         <v>783</v>
       </c>
       <c r="B299" s="13"/>
       <c r="C299" s="4"/>
     </row>
-    <row r="300" spans="1:3" ht="15.75">
+    <row r="300" spans="1:3" ht="15.6">
       <c r="A300" s="29" t="s">
         <v>784</v>
       </c>
       <c r="B300" s="13"/>
       <c r="C300" s="4"/>
     </row>
-    <row r="301" spans="1:3" ht="15.75">
+    <row r="301" spans="1:3" ht="15.6">
       <c r="A301" s="29" t="s">
         <v>785</v>
       </c>
       <c r="B301" s="13"/>
       <c r="C301" s="4"/>
     </row>
-    <row r="302" spans="1:3" ht="15.75">
+    <row r="302" spans="1:3" ht="15.6">
       <c r="A302" s="29" t="s">
         <v>786</v>
       </c>
       <c r="B302" s="13"/>
       <c r="C302" s="4"/>
     </row>
-    <row r="303" spans="1:3" ht="15.75">
+    <row r="303" spans="1:3" ht="15.6">
       <c r="A303" s="29" t="s">
         <v>787</v>
       </c>
       <c r="B303" s="13"/>
       <c r="C303" s="4"/>
     </row>
-    <row r="304" spans="1:3" ht="15.75">
+    <row r="304" spans="1:3" ht="15.6">
       <c r="A304" s="29" t="s">
         <v>788</v>
       </c>
       <c r="B304" s="13"/>
       <c r="C304" s="4"/>
     </row>
-    <row r="305" spans="1:3" ht="15.75">
+    <row r="305" spans="1:3" ht="15.6">
       <c r="A305" s="29" t="s">
         <v>789</v>
       </c>
       <c r="B305" s="13"/>
       <c r="C305" s="4"/>
     </row>
-    <row r="306" spans="1:3" ht="15.75">
+    <row r="306" spans="1:3" ht="15.6">
       <c r="A306" s="29" t="s">
         <v>790</v>
       </c>
       <c r="B306" s="13"/>
       <c r="C306" s="4"/>
     </row>
-    <row r="307" spans="1:3" ht="15.75">
+    <row r="307" spans="1:3" ht="15.6">
       <c r="A307" s="29" t="s">
         <v>791</v>
       </c>
       <c r="B307" s="13"/>
       <c r="C307" s="4"/>
     </row>
-    <row r="308" spans="1:3" ht="15.75">
+    <row r="308" spans="1:3" ht="15.6">
       <c r="A308" s="29" t="s">
         <v>792</v>
       </c>
       <c r="B308" s="13"/>
       <c r="C308" s="4"/>
     </row>
-    <row r="309" spans="1:3" ht="15.75">
+    <row r="309" spans="1:3" ht="15.6">
       <c r="A309" s="29" t="s">
         <v>793</v>
       </c>
       <c r="B309" s="13"/>
       <c r="C309" s="4"/>
     </row>
-    <row r="310" spans="1:3" ht="15.75">
+    <row r="310" spans="1:3" ht="15.6">
       <c r="A310" s="29" t="s">
         <v>794</v>
       </c>
       <c r="B310" s="13"/>
       <c r="C310" s="4"/>
     </row>
-    <row r="311" spans="1:3" ht="15.75">
+    <row r="311" spans="1:3" ht="15.6">
       <c r="A311" s="29" t="s">
         <v>795</v>
       </c>
       <c r="B311" s="13"/>
       <c r="C311" s="4"/>
     </row>
-    <row r="312" spans="1:3" ht="15.75">
+    <row r="312" spans="1:3" ht="15.6">
       <c r="A312" s="29" t="s">
         <v>796</v>
       </c>
       <c r="B312" s="13"/>
       <c r="C312" s="4"/>
     </row>
-    <row r="313" spans="1:3" ht="15.75">
+    <row r="313" spans="1:3" ht="15.6">
       <c r="A313" s="29" t="s">
         <v>797</v>
       </c>
       <c r="B313" s="13"/>
       <c r="C313" s="4"/>
     </row>
-    <row r="314" spans="1:3" ht="15.75">
+    <row r="314" spans="1:3" ht="15.6">
       <c r="A314" s="29" t="s">
         <v>798</v>
       </c>
       <c r="B314" s="13"/>
       <c r="C314" s="4"/>
     </row>
-    <row r="315" spans="1:3" ht="15.75">
+    <row r="315" spans="1:3" ht="15.6">
       <c r="A315" s="29" t="s">
         <v>799</v>
       </c>
       <c r="B315" s="13"/>
       <c r="C315" s="4"/>
     </row>
-    <row r="316" spans="1:3" ht="15.75">
+    <row r="316" spans="1:3" ht="15.6">
       <c r="A316" s="29" t="s">
         <v>800</v>
       </c>
       <c r="B316" s="13"/>
       <c r="C316" s="4"/>
     </row>
-    <row r="317" spans="1:3" ht="15.75">
+    <row r="317" spans="1:3" ht="15.6">
       <c r="A317" s="29" t="s">
         <v>801</v>
       </c>
       <c r="B317" s="13"/>
       <c r="C317" s="4"/>
     </row>
-    <row r="318" spans="1:3" ht="15.75">
+    <row r="318" spans="1:3" ht="15.6">
       <c r="A318" s="29" t="s">
         <v>802</v>
       </c>
       <c r="B318" s="13"/>
       <c r="C318" s="4"/>
     </row>
-    <row r="319" spans="1:3" ht="15.75">
+    <row r="319" spans="1:3" ht="15.6">
       <c r="A319" s="29" t="s">
         <v>803</v>
       </c>
       <c r="B319" s="13"/>
       <c r="C319" s="4"/>
     </row>
-    <row r="320" spans="1:3" ht="15.75">
+    <row r="320" spans="1:3" ht="15.6">
       <c r="A320" s="29" t="s">
         <v>804</v>
       </c>
       <c r="B320" s="13"/>
       <c r="C320" s="4"/>
     </row>
-    <row r="321" spans="1:3" ht="15.75">
+    <row r="321" spans="1:3" ht="15.6">
       <c r="A321" s="29" t="s">
         <v>805</v>
       </c>
       <c r="B321" s="13"/>
       <c r="C321" s="4"/>
     </row>
-    <row r="322" spans="1:3" ht="15.75">
+    <row r="322" spans="1:3" ht="15.6">
       <c r="A322" s="29" t="s">
         <v>806</v>
       </c>
       <c r="B322" s="13"/>
       <c r="C322" s="4"/>
     </row>
-    <row r="323" spans="1:3" ht="15.75">
+    <row r="323" spans="1:3" ht="15.6">
       <c r="A323" s="29" t="s">
         <v>807</v>
       </c>
       <c r="B323" s="13"/>
       <c r="C323" s="4"/>
     </row>
-    <row r="324" spans="1:3" ht="15.75">
+    <row r="324" spans="1:3" ht="15.6">
       <c r="A324" s="29" t="s">
         <v>808</v>
       </c>
       <c r="B324" s="13"/>
       <c r="C324" s="4"/>
     </row>
-    <row r="325" spans="1:3" ht="15.75">
+    <row r="325" spans="1:3" ht="15.6">
       <c r="A325" s="29" t="s">
         <v>809</v>
       </c>
       <c r="B325" s="13"/>
       <c r="C325" s="4"/>
     </row>
-    <row r="326" spans="1:3" ht="15.75">
+    <row r="326" spans="1:3" ht="15.6">
       <c r="A326" s="29" t="s">
         <v>810</v>
       </c>
       <c r="B326" s="13"/>
       <c r="C326" s="4"/>
     </row>
-    <row r="327" spans="1:3" ht="15.75">
+    <row r="327" spans="1:3" ht="15.6">
       <c r="A327" s="29" t="s">
         <v>811</v>
       </c>
       <c r="B327" s="13"/>
       <c r="C327" s="4"/>
     </row>
-    <row r="328" spans="1:3" ht="18.75">
-      <c r="A328" s="121" t="s">
+    <row r="328" spans="1:3" ht="17.399999999999999">
+      <c r="A328" s="123" t="s">
         <v>446</v>
       </c>
-      <c r="B328" s="121"/>
-      <c r="C328" s="121"/>
-    </row>
-    <row r="329" spans="1:3" ht="15.75">
+      <c r="B328" s="123"/>
+      <c r="C328" s="123"/>
+    </row>
+    <row r="329" spans="1:3" ht="15.6">
       <c r="A329" s="29" t="s">
         <v>0</v>
       </c>
@@ -61866,224 +61832,224 @@
         <v>112</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="15.75">
+    <row r="330" spans="1:3" ht="15.6">
       <c r="A330" s="29" t="s">
         <v>812</v>
       </c>
       <c r="B330" s="13"/>
       <c r="C330" s="4"/>
     </row>
-    <row r="331" spans="1:3" ht="15.75">
+    <row r="331" spans="1:3" ht="15.6">
       <c r="A331" s="29" t="s">
         <v>813</v>
       </c>
       <c r="B331" s="13"/>
       <c r="C331" s="4"/>
     </row>
-    <row r="332" spans="1:3" ht="15.75">
+    <row r="332" spans="1:3" ht="15.6">
       <c r="A332" s="29" t="s">
         <v>814</v>
       </c>
       <c r="B332" s="13"/>
       <c r="C332" s="4"/>
     </row>
-    <row r="333" spans="1:3" ht="15.75">
+    <row r="333" spans="1:3" ht="15.6">
       <c r="A333" s="29" t="s">
         <v>815</v>
       </c>
       <c r="B333" s="13"/>
       <c r="C333" s="4"/>
     </row>
-    <row r="334" spans="1:3" ht="15.75">
+    <row r="334" spans="1:3" ht="15.6">
       <c r="A334" s="29" t="s">
         <v>816</v>
       </c>
       <c r="B334" s="13"/>
       <c r="C334" s="4"/>
     </row>
-    <row r="335" spans="1:3" ht="15.75">
+    <row r="335" spans="1:3" ht="15.6">
       <c r="A335" s="29" t="s">
         <v>817</v>
       </c>
       <c r="B335" s="13"/>
       <c r="C335" s="4"/>
     </row>
-    <row r="336" spans="1:3" ht="15.75">
+    <row r="336" spans="1:3" ht="15.6">
       <c r="A336" s="29" t="s">
         <v>818</v>
       </c>
       <c r="B336" s="13"/>
       <c r="C336" s="4"/>
     </row>
-    <row r="337" spans="1:3" ht="15.75">
+    <row r="337" spans="1:3" ht="15.6">
       <c r="A337" s="29" t="s">
         <v>819</v>
       </c>
       <c r="B337" s="13"/>
       <c r="C337" s="4"/>
     </row>
-    <row r="338" spans="1:3" ht="15.75">
+    <row r="338" spans="1:3" ht="15.6">
       <c r="A338" s="29" t="s">
         <v>820</v>
       </c>
       <c r="B338" s="13"/>
       <c r="C338" s="4"/>
     </row>
-    <row r="339" spans="1:3" ht="15.75">
+    <row r="339" spans="1:3" ht="15.6">
       <c r="A339" s="29" t="s">
         <v>821</v>
       </c>
       <c r="B339" s="13"/>
       <c r="C339" s="4"/>
     </row>
-    <row r="340" spans="1:3" ht="15.75">
+    <row r="340" spans="1:3" ht="15.6">
       <c r="A340" s="29" t="s">
         <v>822</v>
       </c>
       <c r="B340" s="13"/>
       <c r="C340" s="4"/>
     </row>
-    <row r="341" spans="1:3" ht="15.75">
+    <row r="341" spans="1:3" ht="15.6">
       <c r="A341" s="29" t="s">
         <v>823</v>
       </c>
       <c r="B341" s="13"/>
       <c r="C341" s="4"/>
     </row>
-    <row r="342" spans="1:3" ht="15.75">
+    <row r="342" spans="1:3" ht="15.6">
       <c r="A342" s="29" t="s">
         <v>824</v>
       </c>
       <c r="B342" s="13"/>
       <c r="C342" s="4"/>
     </row>
-    <row r="343" spans="1:3" ht="15.75">
+    <row r="343" spans="1:3" ht="15.6">
       <c r="A343" s="29" t="s">
         <v>825</v>
       </c>
       <c r="B343" s="13"/>
       <c r="C343" s="4"/>
     </row>
-    <row r="344" spans="1:3" ht="15.75">
+    <row r="344" spans="1:3" ht="15.6">
       <c r="A344" s="29" t="s">
         <v>826</v>
       </c>
       <c r="B344" s="13"/>
       <c r="C344" s="4"/>
     </row>
-    <row r="345" spans="1:3" ht="15.75">
+    <row r="345" spans="1:3" ht="15.6">
       <c r="A345" s="29" t="s">
         <v>827</v>
       </c>
       <c r="B345" s="13"/>
       <c r="C345" s="4"/>
     </row>
-    <row r="346" spans="1:3" ht="15.75">
+    <row r="346" spans="1:3" ht="15.6">
       <c r="A346" s="29" t="s">
         <v>828</v>
       </c>
       <c r="B346" s="13"/>
       <c r="C346" s="4"/>
     </row>
-    <row r="347" spans="1:3" ht="15.75">
+    <row r="347" spans="1:3" ht="15.6">
       <c r="A347" s="29" t="s">
         <v>829</v>
       </c>
       <c r="B347" s="13"/>
       <c r="C347" s="4"/>
     </row>
-    <row r="348" spans="1:3" ht="15.75">
+    <row r="348" spans="1:3" ht="15.6">
       <c r="A348" s="29" t="s">
         <v>830</v>
       </c>
       <c r="B348" s="13"/>
       <c r="C348" s="4"/>
     </row>
-    <row r="349" spans="1:3" ht="15.75">
+    <row r="349" spans="1:3" ht="15.6">
       <c r="A349" s="29" t="s">
         <v>831</v>
       </c>
       <c r="B349" s="13"/>
       <c r="C349" s="4"/>
     </row>
-    <row r="350" spans="1:3" ht="15.75">
+    <row r="350" spans="1:3" ht="15.6">
       <c r="A350" s="29" t="s">
         <v>832</v>
       </c>
       <c r="B350" s="13"/>
       <c r="C350" s="4"/>
     </row>
-    <row r="351" spans="1:3" ht="15.75">
+    <row r="351" spans="1:3" ht="15.6">
       <c r="A351" s="29" t="s">
         <v>833</v>
       </c>
       <c r="B351" s="13"/>
       <c r="C351" s="4"/>
     </row>
-    <row r="352" spans="1:3" ht="15.75">
+    <row r="352" spans="1:3" ht="15.6">
       <c r="A352" s="29" t="s">
         <v>834</v>
       </c>
       <c r="B352" s="13"/>
       <c r="C352" s="4"/>
     </row>
-    <row r="353" spans="1:3" ht="15.75">
+    <row r="353" spans="1:3" ht="15.6">
       <c r="A353" s="29" t="s">
         <v>835</v>
       </c>
       <c r="B353" s="13"/>
       <c r="C353" s="4"/>
     </row>
-    <row r="354" spans="1:3" ht="15.75">
+    <row r="354" spans="1:3" ht="15.6">
       <c r="A354" s="29" t="s">
         <v>836</v>
       </c>
       <c r="B354" s="13"/>
       <c r="C354" s="4"/>
     </row>
-    <row r="355" spans="1:3" ht="15.75">
+    <row r="355" spans="1:3" ht="15.6">
       <c r="A355" s="29" t="s">
         <v>837</v>
       </c>
       <c r="B355" s="13"/>
       <c r="C355" s="4"/>
     </row>
-    <row r="356" spans="1:3" ht="15.75">
+    <row r="356" spans="1:3" ht="15.6">
       <c r="A356" s="29" t="s">
         <v>838</v>
       </c>
       <c r="B356" s="13"/>
       <c r="C356" s="4"/>
     </row>
-    <row r="357" spans="1:3" ht="15.75">
+    <row r="357" spans="1:3" ht="15.6">
       <c r="A357" s="29" t="s">
         <v>839</v>
       </c>
       <c r="B357" s="13"/>
       <c r="C357" s="4"/>
     </row>
-    <row r="358" spans="1:3" ht="15.75">
+    <row r="358" spans="1:3" ht="15.6">
       <c r="A358" s="29" t="s">
         <v>840</v>
       </c>
       <c r="B358" s="13"/>
       <c r="C358" s="4"/>
     </row>
-    <row r="359" spans="1:3" ht="15.75">
+    <row r="359" spans="1:3" ht="15.6">
       <c r="A359" s="29" t="s">
         <v>841</v>
       </c>
       <c r="B359" s="13"/>
       <c r="C359" s="4"/>
     </row>
-    <row r="360" spans="1:3" ht="18.75">
-      <c r="A360" s="121" t="s">
+    <row r="360" spans="1:3" ht="17.399999999999999">
+      <c r="A360" s="123" t="s">
         <v>476</v>
       </c>
-      <c r="B360" s="121"/>
-      <c r="C360" s="121"/>
-    </row>
-    <row r="361" spans="1:3" ht="15.75">
+      <c r="B360" s="123"/>
+      <c r="C360" s="123"/>
+    </row>
+    <row r="361" spans="1:3" ht="15.6">
       <c r="A361" s="29" t="s">
         <v>0</v>
       </c>
@@ -62094,203 +62060,203 @@
         <v>112</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="15.75">
+    <row r="362" spans="1:3" ht="15.6">
       <c r="A362" s="29" t="s">
         <v>842</v>
       </c>
       <c r="B362" s="13"/>
       <c r="C362" s="4"/>
     </row>
-    <row r="363" spans="1:3" ht="15.75">
+    <row r="363" spans="1:3" ht="15.6">
       <c r="A363" s="29" t="s">
         <v>843</v>
       </c>
       <c r="B363" s="13"/>
       <c r="C363" s="4"/>
     </row>
-    <row r="364" spans="1:3" ht="15.75">
+    <row r="364" spans="1:3" ht="15.6">
       <c r="A364" s="29" t="s">
         <v>844</v>
       </c>
       <c r="B364" s="13"/>
       <c r="C364" s="4"/>
     </row>
-    <row r="365" spans="1:3" ht="15.75">
+    <row r="365" spans="1:3" ht="15.6">
       <c r="A365" s="29" t="s">
         <v>845</v>
       </c>
       <c r="B365" s="13"/>
       <c r="C365" s="4"/>
     </row>
-    <row r="366" spans="1:3" ht="15.75">
+    <row r="366" spans="1:3" ht="15.6">
       <c r="A366" s="29" t="s">
         <v>846</v>
       </c>
       <c r="B366" s="13"/>
       <c r="C366" s="4"/>
     </row>
-    <row r="367" spans="1:3" ht="15.75">
+    <row r="367" spans="1:3" ht="15.6">
       <c r="A367" s="29" t="s">
         <v>847</v>
       </c>
       <c r="B367" s="13"/>
       <c r="C367" s="4"/>
     </row>
-    <row r="368" spans="1:3" ht="15.75">
+    <row r="368" spans="1:3" ht="15.6">
       <c r="A368" s="29" t="s">
         <v>848</v>
       </c>
       <c r="B368" s="13"/>
       <c r="C368" s="4"/>
     </row>
-    <row r="369" spans="1:3" ht="15.75">
+    <row r="369" spans="1:3" ht="15.6">
       <c r="A369" s="29" t="s">
         <v>849</v>
       </c>
       <c r="B369" s="13"/>
       <c r="C369" s="4"/>
     </row>
-    <row r="370" spans="1:3" ht="15.75">
+    <row r="370" spans="1:3" ht="15.6">
       <c r="A370" s="29" t="s">
         <v>850</v>
       </c>
       <c r="B370" s="13"/>
       <c r="C370" s="4"/>
     </row>
-    <row r="371" spans="1:3" ht="15.75">
+    <row r="371" spans="1:3" ht="15.6">
       <c r="A371" s="29" t="s">
         <v>851</v>
       </c>
       <c r="B371" s="13"/>
       <c r="C371" s="4"/>
     </row>
-    <row r="372" spans="1:3" ht="15.75">
+    <row r="372" spans="1:3" ht="15.6">
       <c r="A372" s="29" t="s">
         <v>852</v>
       </c>
       <c r="B372" s="13"/>
       <c r="C372" s="4"/>
     </row>
-    <row r="373" spans="1:3" ht="15.75">
+    <row r="373" spans="1:3" ht="15.6">
       <c r="A373" s="29" t="s">
         <v>853</v>
       </c>
       <c r="B373" s="13"/>
       <c r="C373" s="4"/>
     </row>
-    <row r="374" spans="1:3" ht="15.75">
+    <row r="374" spans="1:3" ht="15.6">
       <c r="A374" s="29" t="s">
         <v>854</v>
       </c>
       <c r="B374" s="13"/>
       <c r="C374" s="4"/>
     </row>
-    <row r="375" spans="1:3" ht="15.75">
+    <row r="375" spans="1:3" ht="15.6">
       <c r="A375" s="29" t="s">
         <v>855</v>
       </c>
       <c r="B375" s="13"/>
       <c r="C375" s="4"/>
     </row>
-    <row r="376" spans="1:3" ht="15.75">
+    <row r="376" spans="1:3" ht="15.6">
       <c r="A376" s="29" t="s">
         <v>856</v>
       </c>
       <c r="B376" s="13"/>
       <c r="C376" s="4"/>
     </row>
-    <row r="377" spans="1:3" ht="15.75">
+    <row r="377" spans="1:3" ht="15.6">
       <c r="A377" s="29" t="s">
         <v>857</v>
       </c>
       <c r="B377" s="13"/>
       <c r="C377" s="4"/>
     </row>
-    <row r="378" spans="1:3" ht="15.75">
+    <row r="378" spans="1:3" ht="15.6">
       <c r="A378" s="29" t="s">
         <v>858</v>
       </c>
       <c r="B378" s="13"/>
       <c r="C378" s="4"/>
     </row>
-    <row r="379" spans="1:3" ht="15.75">
+    <row r="379" spans="1:3" ht="15.6">
       <c r="A379" s="29" t="s">
         <v>859</v>
       </c>
       <c r="B379" s="13"/>
       <c r="C379" s="4"/>
     </row>
-    <row r="380" spans="1:3" ht="15.75">
+    <row r="380" spans="1:3" ht="15.6">
       <c r="A380" s="29" t="s">
         <v>860</v>
       </c>
       <c r="B380" s="13"/>
       <c r="C380" s="4"/>
     </row>
-    <row r="381" spans="1:3" ht="15.75">
+    <row r="381" spans="1:3" ht="15.6">
       <c r="A381" s="29" t="s">
         <v>861</v>
       </c>
       <c r="B381" s="13"/>
       <c r="C381" s="4"/>
     </row>
-    <row r="382" spans="1:3" ht="15.75">
+    <row r="382" spans="1:3" ht="15.6">
       <c r="A382" s="29" t="s">
         <v>862</v>
       </c>
       <c r="B382" s="13"/>
       <c r="C382" s="4"/>
     </row>
-    <row r="383" spans="1:3" ht="15.75">
+    <row r="383" spans="1:3" ht="15.6">
       <c r="A383" s="29" t="s">
         <v>863</v>
       </c>
       <c r="B383" s="13"/>
       <c r="C383" s="4"/>
     </row>
-    <row r="384" spans="1:3" ht="15.75">
+    <row r="384" spans="1:3" ht="15.6">
       <c r="A384" s="29" t="s">
         <v>864</v>
       </c>
       <c r="B384" s="13"/>
       <c r="C384" s="4"/>
     </row>
-    <row r="385" spans="1:3" ht="15.75">
+    <row r="385" spans="1:3" ht="15.6">
       <c r="A385" s="29" t="s">
         <v>865</v>
       </c>
       <c r="B385" s="13"/>
       <c r="C385" s="4"/>
     </row>
-    <row r="386" spans="1:3" ht="15.75">
+    <row r="386" spans="1:3" ht="15.6">
       <c r="A386" s="29" t="s">
         <v>866</v>
       </c>
       <c r="B386" s="13"/>
       <c r="C386" s="4"/>
     </row>
-    <row r="387" spans="1:3" ht="15.75">
+    <row r="387" spans="1:3" ht="15.6">
       <c r="A387" s="29" t="s">
         <v>867</v>
       </c>
       <c r="B387" s="13"/>
       <c r="C387" s="4"/>
     </row>
-    <row r="388" spans="1:3" ht="15.75">
+    <row r="388" spans="1:3" ht="15.6">
       <c r="A388" s="29" t="s">
         <v>868</v>
       </c>
       <c r="B388" s="13"/>
       <c r="C388" s="4"/>
     </row>
-    <row r="389" spans="1:3" ht="15.75">
+    <row r="389" spans="1:3" ht="15.6">
       <c r="A389" s="29" t="s">
         <v>869</v>
       </c>
       <c r="B389" s="13"/>
       <c r="C389" s="4"/>
     </row>
-    <row r="390" spans="1:3" ht="15.75">
+    <row r="390" spans="1:3" ht="15.6">
       <c r="A390" s="29" t="s">
         <v>870</v>
       </c>
@@ -62299,11 +62265,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E58:T58"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="E57:T57"/>
     <mergeCell ref="A264:C264"/>
     <mergeCell ref="A296:C296"/>
     <mergeCell ref="A328:C328"/>
@@ -62314,6 +62275,11 @@
     <mergeCell ref="A167:C167"/>
     <mergeCell ref="A200:C200"/>
     <mergeCell ref="A232:C232"/>
+    <mergeCell ref="E58:T58"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="E57:T57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
